--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E354A-81C1-544C-A134-D6CD50BA1483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BF670E-F4BD-CE43-A6A6-B6CD0B36B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="102400" yWindow="180" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
   <si>
     <t>Question</t>
   </si>
@@ -489,123 +489,68 @@
 Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort. We could not do vital studies like this without the help of dedicated patients and families.</t>
   </si>
   <si>
-    <t>I am completing this form for someone else</t>
-  </si>
-  <si>
-    <t>THIS IS THE COPY FOR LOWER ENVIRONMENTS ONLY!!!
-STUDY INTRODUCTION
-RASopathies are a group of syndromes, also called conditions or disorders, caused by changes in genes that send signals across the Ras/MAPK pathway. This pathway helps systems in the body to grow and work properly. The National Cancer Institute is studying individuals who have or are at risk of developing a RASopathy including Noonan Syndrome, Noonan Syndrome with multiple lentigines, Cardiofaciocutaneous syndrome, Costello syndrome, Legius syndrome, Capillary Arteriovenous Malformation syndrome, Hereditary Gingival Fibromatosis and SYNGAP1 syndrome. Although Neurofibromatosis Type 1 is a RASopathy, we are not enrolling NF1 patients at this time. Individuals with a RASopathy not listed above may also be eligible.
-Each syndrome has unique features, but some overlapping characteristics of these disorders exist and include:
-heart defects
-skin lesions
-bone abnormalities
-eye and muscle problems
-short stature
-learning difficulties
-common facial and physical features
-increased risk of developing benign and cancerous tumors
-This study aims to learn how some RASopathies develop, identify or characterize unrecognized or under-recognized RASopathies, what genetic variants or mutations cause different types of RASopathies or RASopathy-related problems, what are the signs or symptoms of each syndrome and the medical problems that could be screened for and potentially be treated earlier.
-More information about the study can be found at https://rasopathies.cancer.gov/.
-To determine your eligibility for this study, we are asking you to provide the information requested below.  It may take about 15-20 minutes to provide this information.  Before beginning, make sure you have as much information as possible available about your family’s health history, including the types of syndromes and/or cancers diagnosed in yourself or your relatives and the approximate ages at diagnosis. 
-This form cannot be saved or returned to if it is closed before completion.
-Our study team will review the information provided to determine your eligibility to participate. If you enroll in the study, you may be asked to do some or all of the following:
-Sign a study consent form
-Provide information and complete questionnaires about your family history and your personal health history
-Grant us permission to verify you or your child's eligible condition
-Provide samples (such as a blood sample or saliva sample)
-Allow us to contact family members, such as siblings, parents, aunts or uncles, to invite them to participate in the study.
-Please note treatment is not being offered as part of this protocol.
-If you are unable to complete the online questionnaire or would prefer to complete it by phone, please contact the referral intake nurse at 1-800-518-8474 or 301-212-5250.</t>
-  </si>
-  <si>
-    <t>What is the name of the person who may be eligible for this study? First name</t>
-  </si>
-  <si>
-    <t>TestFirst</t>
-  </si>
-  <si>
-    <t>What is the name of the person who may be eligible for this study? Middle initial</t>
-  </si>
-  <si>
-    <t>What is the name of the person who may be eligible for this study? Last name</t>
-  </si>
-  <si>
-    <t>TestLast</t>
-  </si>
-  <si>
-    <t>What is your relationship to DFSDFS SFSDFS?</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Are you the legal guardian of DFSDFS SFSDFS?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next set of questions will collect basic information about DFSDFS SFSDFS.  </t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Date of birth of DFSDFS SFSDFS
-2023</t>
-  </si>
-  <si>
-    <t>Sex of DFSDFS SFSDFS assigned at birth</t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS adopted?</t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS alive?</t>
-  </si>
-  <si>
-    <t>In which country does DFSDFS SFSDFS currently live?</t>
-  </si>
-  <si>
-    <t>automatedTest4@email.com</t>
-  </si>
-  <si>
-    <t>Ethnicity of DFSDFS SFSDFS</t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS a participant in any other research study or registry group?  Please specify.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.  Please complete this information to the best of your knowledge. 
-</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer.</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS ever been diagnosed with cancer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has DFSDFS SFSDFS been diagnosed with a RASopathy such as Noonan syndrome, Noonan syndrome with multiple lentigines, Costello syndrome, cardiofaciocutaneous syndrome, Legius syndrome, capillary arteriovenous malformation syndrome, hereditary gingival fibromatosis or SYNGAP1 syndrome?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Have any of DFSDFS's biological relatives been diagnosed with a RASopathy?</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS ever had genetic testing?</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS or other family members ever participated in another study on RASopathy at another medical institution, university, government agency or other site?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are almost done!
-To submit your responses, you must continue in the questionnaire by clicking the forward arrow below.  
-The information you have provided will be reviewed by our study team.  If it is determined that you are eligible to participate in the RASopathy Study, you will receive an email with further details, including instructions to log in to a secure study portal. If the team decides that you are not eligible, you will receive an email explaining why. In the meantime, you should receive an email confirming this submission.
-Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS a participant in any other research study or registry group?  Please specify. Name</t>
-  </si>
-  <si>
-    <t>xyz</t>
+    <t>April</t>
+  </si>
+  <si>
+    <t>What was your sex assigned at birth?</t>
+  </si>
+  <si>
+    <t>In which country do you currently live?</t>
+  </si>
+  <si>
+    <t>automatedTest@email.com</t>
+  </si>
+  <si>
+    <t>What is your ethnicity?</t>
+  </si>
+  <si>
+    <t>Are you a participant in any other research study or registry group?  Please specify.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.  Please complete this information to the best of your knowledge. </t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 9</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 10</t>
+  </si>
+  <si>
+    <t>Lymphedema</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with cancer?</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
+Cancer Type</t>
+  </si>
+  <si>
+    <t>Neurablastoma</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
+Age at diagnosis</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
+Year at diagnosis</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
+Curently receiving treatment</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with a RASopathy such as Noonan syndrome, Noonan syndrome with multiple lentigines, Costello syndrome, cardiofaciocutaneous syndrome, Legius syndrome, capillary arteriovenous malformation syndrome, hereditary gingival fibromatosis or SYNGAP1 syndrome?</t>
+  </si>
+  <si>
+    <t>Have any of your biological relatives been diagnosed with a RASopathy?</t>
+  </si>
+  <si>
+    <t>Have you ever had genetic testing?</t>
+  </si>
+  <si>
+    <t>Have you or other family members ever participated in another study on RASopathies at another medical institution, university, government agency or other site?</t>
   </si>
 </sst>
 </file>
@@ -669,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,9 +642,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1021,7 +963,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1038,385 +980,349 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>32964</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1990</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="5">
-        <v>33664</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1992</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>22015</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4">
-        <v>22015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>161</v>
-      </c>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{794D7FF9-0D73-422F-A007-9F2248165548}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{297E94BD-9523-41E6-80A9-134243A06771}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{9480FB6E-2379-334B-B02E-ACA780830042}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{4170A8A7-9396-6C49-A20D-324947BC09FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1995,15 +1901,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -2174,6 +2071,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2181,14 +2087,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2207,6 +2105,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
   <ds:schemaRefs>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA79CCC-7A8E-AC44-9817-C34B7B0C6B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CB0A5-CF09-BB44-97F8-6AE373A7D66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26420" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="127960" yWindow="180" windowWidth="23140" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario4" sheetId="1" r:id="rId1"/>
@@ -572,9 +572,6 @@
     <t>In which country do you currently live?</t>
   </si>
   <si>
-    <t>proband@email.com</t>
-  </si>
-  <si>
     <t>I am completing this form for someone else</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   To submit your responses, you must continue in the questionnaire by clicking the forward arrow below.  
 The information you have provided will be reviewed by our study team.  If it is determined that you are eligible to participate in the RASopathy Study, you will receive an email with further details, including instructions to log in to a secure study portal. If the team decides that you are not eligible, you will receive an email explaining why. In the meantime, you should receive an email confirming this submission.
   Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
+  </si>
+  <si>
+    <t>probandScenario4@email.com</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>176</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1331,12 +1331,12 @@
         <v>35</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>54</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>36</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>55</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>57</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>12</v>
@@ -1499,7 +1499,7 @@
         <v>79</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>82</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="73" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>12</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>114</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B76" s="4">
         <v>1</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" s="4">
         <v>1999</v>
@@ -1696,15 +1696,15 @@
     </row>
     <row r="78" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>12</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>12</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>118</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>12</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="120" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2048,6 +2048,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -2218,15 +2227,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2234,6 +2234,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2248,14 +2256,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DFAA6-7CFF-0440-B9CE-E40F0F3286DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03316FD-8AA5-0D42-9CFC-B167B390F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27540" yWindow="500" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27080" yWindow="500" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="1953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="2133">
   <si>
     <t>Question</t>
   </si>
@@ -4878,53 +4878,15 @@
     <t>Do you have any issues with curving of the spine?  This would often be diagnosed or evaluated by an orthopaedic surgeon.  Examples include scoliosis and kyphosis.</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
-Please select all that apply. Option 1</t>
-  </si>
-  <si>
     <t>Scoliosis (curving of the spine from side to side)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
-Please select all that apply. Option 2</t>
-  </si>
-  <si>
     <t>Kyphosis (curving of the spine from front to back)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
-Please select all that apply. Option 3</t>
-  </si>
-  <si>
     <t>Kyphoscoliosis (curving of the spine both side to side and front to back)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
-Please select all that apply. Option 4</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 1</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 2</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 3</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 4</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 5</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 6</t>
-  </si>
-  <si>
-    <t>Has your neck been described as short or webbed?
-Individuals with a short, webbed neck may have a low hairline or extra skin where the neck meets the shoulders.</t>
-  </si>
-  <si>
     <t>Have you ever been diagnosed with joint issues?  These conditions are often diagnosed by neurologists, rheumatologists and orthopaedic surgeons.  Examples include ulnar deviation, Achilles tendon contracture, hip dysplasia.</t>
   </si>
   <si>
@@ -4961,75 +4923,9 @@
     <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 6</t>
   </si>
   <si>
-    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 1</t>
-  </si>
-  <si>
-    <t>cdvdfb</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg bfh g </t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 3</t>
-  </si>
-  <si>
-    <t>hnmn nymy</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 4</t>
-  </si>
-  <si>
-    <t>yukm66jk</t>
-  </si>
-  <si>
-    <t>lease complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 5</t>
-  </si>
-  <si>
-    <t>7j67ijntn</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 6</t>
-  </si>
-  <si>
-    <t>uyjumy</t>
-  </si>
-  <si>
-    <t>lease complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 7</t>
-  </si>
-  <si>
-    <t>7ujmy7ui79</t>
-  </si>
-  <si>
     <t>The next set of questions ask about blood disorders.  Blood disorders include immune system problems (white blood cells) or bleeding/clotting issues (platelets) or other bone marrow problems (where white blood cells, red blood cells and platelets are produced).</t>
   </si>
   <si>
-    <t>Have you ever had an evaluation by a hematologist or oncologist?  Hematologists are physicians who specialize in the blood system, including white blood cells, platelets, red blood cells and clotting factors.  Oncologists are physicians who specialize in cancer.</t>
-  </si>
-  <si>
-    <t>Please provide the information below for the hematologist/oncologist who completed your evaluation. Name</t>
-  </si>
-  <si>
-    <t>fnhumy7</t>
-  </si>
-  <si>
-    <t>Please provide the information below for the hematologist/oncologist who completed your evaluation. Location</t>
-  </si>
-  <si>
-    <t>9p/.iu.</t>
-  </si>
-  <si>
-    <t>Please provide the information below for the hematologist/oncologist who completed your evaluation. Hospital</t>
-  </si>
-  <si>
-    <t>o/kkk;/k</t>
-  </si>
-  <si>
-    <t>Do you have issues with bleeding or bruising?  Examples include easy bruising, poor blood clotting.  These conditions are often evaluated and diagnosed by a hematologist (a physician who specializes in the blood).</t>
-  </si>
-  <si>
     <t>Do you have any of the following issues with bleeding or bruising?  Please select all that apply. Option 1</t>
   </si>
   <si>
@@ -5040,57 +4936,6 @@
   </si>
   <si>
     <t>Do you have any of the following issues with bleeding or bruising?  Please select all that apply. Option 4</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 1</t>
-  </si>
-  <si>
-    <t>ghnyurmfy</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 2</t>
-  </si>
-  <si>
-    <t>uktum</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 3</t>
-  </si>
-  <si>
-    <t>9p79l689</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 4</t>
-  </si>
-  <si>
-    <t>0009p89</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 5</t>
-  </si>
-  <si>
-    <t>uolu,i.o</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 6</t>
-  </si>
-  <si>
-    <t>jk,l.pop/</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 7</t>
-  </si>
-  <si>
-    <t>op/o/o/p</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 8</t>
-  </si>
-  <si>
-    <t>hnngmyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have any known blood disorders or symptoms of blood disorders?  Examples include an enlarged spleen, leukemia, low platelets or low blood cells.  </t>
   </si>
   <si>
     <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 1</t>
@@ -6069,10 +5914,700 @@
     <t>Test438</t>
   </si>
   <si>
-    <t>Test439</t>
-  </si>
-  <si>
-    <t>Test440</t>
+    <t>Have you been diagnosed with any of the following skeletal findings in the thoracic area? The thoracic area includes the chest and ribs. Please select all that apply. Option 4 Other</t>
+  </si>
+  <si>
+    <t>Test441</t>
+  </si>
+  <si>
+    <t>Test444</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? Please select all that apply. Option 4 Other</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both). Other Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Test447</t>
+  </si>
+  <si>
+    <t>Test448</t>
+  </si>
+  <si>
+    <t>Test449</t>
+  </si>
+  <si>
+    <t>Test450</t>
+  </si>
+  <si>
+    <t>Test451</t>
+  </si>
+  <si>
+    <t>Test452</t>
+  </si>
+  <si>
+    <t>Test453</t>
+  </si>
+  <si>
+    <t>Test454</t>
+  </si>
+  <si>
+    <t>Test455</t>
+  </si>
+  <si>
+    <t>Test456</t>
+  </si>
+  <si>
+    <t>Test457</t>
+  </si>
+  <si>
+    <t>Test458</t>
+  </si>
+  <si>
+    <t>Test459</t>
+  </si>
+  <si>
+    <t>Test460</t>
+  </si>
+  <si>
+    <t>Test461</t>
+  </si>
+  <si>
+    <t>Test462</t>
+  </si>
+  <si>
+    <t>Test463</t>
+  </si>
+  <si>
+    <t>Test464</t>
+  </si>
+  <si>
+    <t>Test465</t>
+  </si>
+  <si>
+    <t>Test466</t>
+  </si>
+  <si>
+    <t>Test467</t>
+  </si>
+  <si>
+    <t>Test468</t>
+  </si>
+  <si>
+    <t>Test469</t>
+  </si>
+  <si>
+    <t>Test470</t>
+  </si>
+  <si>
+    <t>Test471</t>
+  </si>
+  <si>
+    <t>Test472</t>
+  </si>
+  <si>
+    <t>Has your neck been described as short or webbed?</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 6 Other</t>
+  </si>
+  <si>
+    <t>Test473</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 5 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 6 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 6 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 7 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed. Column 7 Option 6</t>
+  </si>
+  <si>
+    <t>Test474</t>
+  </si>
+  <si>
+    <t>Test475</t>
+  </si>
+  <si>
+    <t>Test476</t>
+  </si>
+  <si>
+    <t>Test477</t>
+  </si>
+  <si>
+    <t>Test478</t>
+  </si>
+  <si>
+    <t>Test479</t>
+  </si>
+  <si>
+    <t>Test480</t>
+  </si>
+  <si>
+    <t>Test481</t>
+  </si>
+  <si>
+    <t>Test482</t>
+  </si>
+  <si>
+    <t>Test483</t>
+  </si>
+  <si>
+    <t>Test484</t>
+  </si>
+  <si>
+    <t>Test485</t>
+  </si>
+  <si>
+    <t>Test486</t>
+  </si>
+  <si>
+    <t>Test487</t>
+  </si>
+  <si>
+    <t>Test488</t>
+  </si>
+  <si>
+    <t>Test489</t>
+  </si>
+  <si>
+    <t>Test490</t>
+  </si>
+  <si>
+    <t>Test491</t>
+  </si>
+  <si>
+    <t>Test492</t>
+  </si>
+  <si>
+    <t>Test493</t>
+  </si>
+  <si>
+    <t>Test494</t>
+  </si>
+  <si>
+    <t>Test495</t>
+  </si>
+  <si>
+    <t>Test496</t>
+  </si>
+  <si>
+    <t>Test497</t>
+  </si>
+  <si>
+    <t>Test498</t>
+  </si>
+  <si>
+    <t>Test499</t>
+  </si>
+  <si>
+    <t>Test500</t>
+  </si>
+  <si>
+    <t>Test501</t>
+  </si>
+  <si>
+    <t>Test502</t>
+  </si>
+  <si>
+    <t>Test503</t>
+  </si>
+  <si>
+    <t>Test504</t>
+  </si>
+  <si>
+    <t>Test505</t>
+  </si>
+  <si>
+    <t>Test506</t>
+  </si>
+  <si>
+    <t>Test507</t>
+  </si>
+  <si>
+    <t>Test508</t>
+  </si>
+  <si>
+    <t>Test509</t>
+  </si>
+  <si>
+    <t>Test510</t>
+  </si>
+  <si>
+    <t>Test511</t>
+  </si>
+  <si>
+    <t>Test512</t>
+  </si>
+  <si>
+    <t>Test513</t>
+  </si>
+  <si>
+    <t>Test514</t>
+  </si>
+  <si>
+    <t>Test515</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about blood disorders.</t>
+  </si>
+  <si>
+    <t>Have you ever had an evaluation by a hematologist or oncologist?</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the hematologist oncologist who completed your evaluation. Name</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the hematologist oncologist who completed your evaluation. Location</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the hematologist oncologist who completed your evaluation. Hospital</t>
+  </si>
+  <si>
+    <t>Test516</t>
+  </si>
+  <si>
+    <t>Test517</t>
+  </si>
+  <si>
+    <t>Test518</t>
+  </si>
+  <si>
+    <t>Do you have issues with bleeding or bruising?</t>
+  </si>
+  <si>
+    <t>Easy bruising (bruising with little or no trauma)</t>
+  </si>
+  <si>
+    <t>Platelet dysfunction (an issue with your blood clotting too slowly due to problems with platelets (a type of blood cell) not working correctly. It may also cause easy bleeding</t>
+  </si>
+  <si>
+    <t>Clotting disorder (an issue with your blood clotting too slow due to problems with coagulation or clotting factors, may cause easy or excessive bleeding; includes factor VIII deficiency, factor XI deficiency, factor XII deficiency)</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with bleeding or bruising?  Please select all that apply. Option 4 Other</t>
+  </si>
+  <si>
+    <t>Test519</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 8 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 8 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 8 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding bruising issues listed Column 8 Option 4</t>
+  </si>
+  <si>
+    <t>Test520</t>
+  </si>
+  <si>
+    <t>Test521</t>
+  </si>
+  <si>
+    <t>Test522</t>
+  </si>
+  <si>
+    <t>Test523</t>
+  </si>
+  <si>
+    <t>Test524</t>
+  </si>
+  <si>
+    <t>Test525</t>
+  </si>
+  <si>
+    <t>Test526</t>
+  </si>
+  <si>
+    <t>Test527</t>
+  </si>
+  <si>
+    <t>Test528</t>
+  </si>
+  <si>
+    <t>Test529</t>
+  </si>
+  <si>
+    <t>Test530</t>
+  </si>
+  <si>
+    <t>Test531</t>
+  </si>
+  <si>
+    <t>Test532</t>
+  </si>
+  <si>
+    <t>Test533</t>
+  </si>
+  <si>
+    <t>Test534</t>
+  </si>
+  <si>
+    <t>Test535</t>
+  </si>
+  <si>
+    <t>Test536</t>
+  </si>
+  <si>
+    <t>Test537</t>
+  </si>
+  <si>
+    <t>Test538</t>
+  </si>
+  <si>
+    <t>Test539</t>
+  </si>
+  <si>
+    <t>Test540</t>
+  </si>
+  <si>
+    <t>Test541</t>
+  </si>
+  <si>
+    <t>Test542</t>
+  </si>
+  <si>
+    <t>Test544</t>
+  </si>
+  <si>
+    <t>Test543</t>
+  </si>
+  <si>
+    <t>Test545</t>
+  </si>
+  <si>
+    <t>Test546</t>
+  </si>
+  <si>
+    <t>Test547</t>
+  </si>
+  <si>
+    <t>Test548</t>
+  </si>
+  <si>
+    <t>Test549</t>
+  </si>
+  <si>
+    <t>Test550</t>
+  </si>
+  <si>
+    <t>Test551</t>
+  </si>
+  <si>
+    <t>Do you have any known blood disorders or symptoms of blood disorders?</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 7 Other</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 8 Other</t>
+  </si>
+  <si>
+    <t>Test552</t>
+  </si>
+  <si>
+    <t>Test553</t>
   </si>
 </sst>
 </file>
@@ -7488,15 +8023,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF90E83-6BB8-1941-861C-D1AD2F062745}">
-  <dimension ref="A1:B990"/>
+  <dimension ref="A1:B1078"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
-      <selection activeCell="B794" sqref="B794"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A923" sqref="A923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.1640625" customWidth="1"/>
+    <col min="1" max="1" width="162.83203125" customWidth="1"/>
     <col min="2" max="2" width="94" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8702,10 +9237,10 @@
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>1929</v>
+        <v>1879</v>
       </c>
       <c r="B151" t="s">
-        <v>1930</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -9014,7 +9549,7 @@
         <v>507</v>
       </c>
       <c r="B190" t="s">
-        <v>1931</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -13489,7 +14024,7 @@
     </row>
     <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1932</v>
+        <v>1882</v>
       </c>
       <c r="B752" t="s">
         <v>12</v>
@@ -13500,7 +14035,7 @@
         <v>1524</v>
       </c>
       <c r="B753" t="s">
-        <v>1933</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13508,7 +14043,7 @@
         <v>1525</v>
       </c>
       <c r="B754" t="s">
-        <v>1934</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13516,7 +14051,7 @@
         <v>1526</v>
       </c>
       <c r="B755" t="s">
-        <v>1935</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13577,10 +14112,10 @@
     </row>
     <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1936</v>
+        <v>1886</v>
       </c>
       <c r="B763" t="s">
-        <v>1937</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13601,10 +14136,10 @@
     </row>
     <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1942</v>
+        <v>1892</v>
       </c>
       <c r="B766" t="s">
-        <v>1945</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13617,15 +14152,15 @@
     </row>
     <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1943</v>
+        <v>1893</v>
       </c>
       <c r="B768" t="s">
-        <v>1944</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1938</v>
+        <v>1888</v>
       </c>
       <c r="B769" t="s">
         <v>1543</v>
@@ -13673,15 +14208,15 @@
     </row>
     <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1940</v>
+        <v>1890</v>
       </c>
       <c r="B775" t="s">
-        <v>1941</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
-        <v>1939</v>
+        <v>1889</v>
       </c>
       <c r="B776" s="12" t="s">
         <v>1553</v>
@@ -13689,7 +14224,7 @@
     </row>
     <row r="777" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
-        <v>1946</v>
+        <v>1896</v>
       </c>
       <c r="B777" t="s">
         <v>12</v>
@@ -13700,7 +14235,7 @@
         <v>1554</v>
       </c>
       <c r="B778" t="s">
-        <v>1947</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13708,7 +14243,7 @@
         <v>1555</v>
       </c>
       <c r="B779" t="s">
-        <v>1948</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13716,7 +14251,7 @@
         <v>1556</v>
       </c>
       <c r="B780" t="s">
-        <v>1949</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -13753,1635 +14288,2346 @@
     </row>
     <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A786" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="B785" t="s">
+      <c r="B786" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A786" s="3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B786" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
-        <v>1567</v>
+        <v>1908</v>
       </c>
       <c r="B787" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
-        <v>1569</v>
+        <v>1907</v>
       </c>
       <c r="B788" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="789" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
-        <v>1571</v>
+        <v>1906</v>
       </c>
       <c r="B789" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A790" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B790" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="790" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A790" s="3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B790" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
-        <v>1573</v>
+        <v>1904</v>
       </c>
       <c r="B791" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
-        <v>1574</v>
+        <v>1909</v>
       </c>
       <c r="B792" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
-        <v>1575</v>
+        <v>1910</v>
       </c>
       <c r="B793" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
-        <v>1576</v>
+        <v>1911</v>
       </c>
       <c r="B794" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
-        <v>1577</v>
+        <v>1912</v>
       </c>
       <c r="B795" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
-        <v>1578</v>
+        <v>1913</v>
       </c>
       <c r="B796" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
-        <v>1579</v>
+        <v>1914</v>
       </c>
       <c r="B797" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
-        <v>1580</v>
+        <v>1915</v>
       </c>
       <c r="B798" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
-        <v>1582</v>
+        <v>1916</v>
       </c>
       <c r="B799" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
-        <v>1584</v>
+        <v>1917</v>
       </c>
       <c r="B800" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
-        <v>1586</v>
+        <v>1918</v>
       </c>
       <c r="B801" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
-        <v>1588</v>
+        <v>1919</v>
       </c>
       <c r="B802" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
-        <v>1590</v>
+        <v>1920</v>
       </c>
       <c r="B803" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
-        <v>1591</v>
+        <v>1921</v>
       </c>
       <c r="B804" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
-        <v>1593</v>
+        <v>1922</v>
       </c>
       <c r="B805" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
-        <v>1595</v>
+        <v>1923</v>
       </c>
       <c r="B806" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
-        <v>1597</v>
+        <v>1924</v>
       </c>
       <c r="B807" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A808" s="1" t="s">
-        <v>1599</v>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A808" s="3" t="s">
+        <v>1925</v>
       </c>
       <c r="B808" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
-        <v>1601</v>
+        <v>1926</v>
       </c>
       <c r="B809" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
-        <v>1603</v>
+        <v>1927</v>
       </c>
       <c r="B810" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
-        <v>1605</v>
+        <v>1928</v>
       </c>
       <c r="B811" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
-        <v>1606</v>
+        <v>1929</v>
       </c>
       <c r="B812" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
-        <v>1607</v>
+        <v>1930</v>
       </c>
       <c r="B813" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
-        <v>1609</v>
+        <v>1931</v>
       </c>
       <c r="B814" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
-        <v>1611</v>
+        <v>1932</v>
       </c>
       <c r="B815" t="s">
-        <v>1612</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
-        <v>1613</v>
+        <v>1933</v>
       </c>
       <c r="B816" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1934</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1935</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
-        <v>1616</v>
+        <v>1936</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A820" s="3" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1963</v>
+      </c>
+      <c r="B820" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
-        <v>1618</v>
+        <v>1568</v>
       </c>
       <c r="B821" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A822" s="3" t="s">
-        <v>1620</v>
+        <v>1569</v>
       </c>
       <c r="B822" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A823" s="3" t="s">
-        <v>1622</v>
+        <v>1571</v>
       </c>
       <c r="B823" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A824" s="3" t="s">
-        <v>1624</v>
+        <v>1573</v>
       </c>
       <c r="B824" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A825" s="3" t="s">
-        <v>1626</v>
+        <v>1575</v>
       </c>
       <c r="B825" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A826" s="3" t="s">
-        <v>1628</v>
+        <v>1577</v>
       </c>
       <c r="B826" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A827" s="3" t="s">
-        <v>1630</v>
+        <v>1579</v>
       </c>
       <c r="B827" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A828" s="3" t="s">
-        <v>1632</v>
+        <v>1964</v>
       </c>
       <c r="B828" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A829" s="3" t="s">
-        <v>1634</v>
+        <v>1966</v>
       </c>
       <c r="B829" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A830" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A831" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A832" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A833" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A834" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A835" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A836" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A837" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A838" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A839" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A840" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A841" s="7" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A842" s="7" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A843" s="7" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A844" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A845" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A846" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A847" s="7" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A848" s="7" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A849" s="7" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A850" s="7" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A851" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A852" s="7" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A853" s="7" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A854" s="7" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A855" s="7" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A856" s="7" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B856" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A857" s="7" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B857" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A858" s="7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B858" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A859" s="7" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A860" s="7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A861" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A862" s="7" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A863" s="7" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A864" s="7" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A865" s="7" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A866" s="7" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A867" s="7" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A868" s="7" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A869" s="7" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A870" s="7" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A871" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A872" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B872" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="830" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A830" s="3" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B830" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A831" s="3" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B831" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A832" s="3" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B832" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A833" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A834" s="3" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A835" s="3" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A836" s="3" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A837" s="3" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B837" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A838" s="3" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B838" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A839" s="3" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B839" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A840" s="3" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B840" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A841" s="3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B841" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A842" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B842" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A843" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B843" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A844" s="3" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A845" s="3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B845" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A846" s="3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A847" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A848" s="3" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B848" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A849" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B849" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A850" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A851" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B851" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A852" s="3" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A853" s="3" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A854" s="3" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A855" s="3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A856" s="3" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B856" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A857" s="3" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B857" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A858" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B858" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A859" s="3" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B859" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A860" s="3" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B860" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A861" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B861" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A862" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B862" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A863" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B863" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A864" s="3" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B864" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A865" s="3" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B865" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A866" s="3" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B866" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A867" s="3" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B867" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A868" s="3" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B868" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A869" s="3" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A870" s="3" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A871" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A872" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
-        <v>1715</v>
+        <v>2052</v>
       </c>
       <c r="B873" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A874" s="3" t="s">
-        <v>1717</v>
+        <v>2053</v>
       </c>
       <c r="B874" t="s">
-        <v>12</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
-        <v>1718</v>
+        <v>2054</v>
       </c>
       <c r="B875" t="s">
-        <v>1719</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A876" s="3" t="s">
-        <v>1720</v>
+        <v>2058</v>
       </c>
       <c r="B876" t="s">
-        <v>1721</v>
+        <v>12</v>
       </c>
     </row>
     <row r="877" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A877" s="3" t="s">
-        <v>1722</v>
+        <v>1581</v>
       </c>
       <c r="B877" t="s">
-        <v>1723</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A878" s="3" t="s">
-        <v>1724</v>
+        <v>1582</v>
       </c>
       <c r="B878" t="s">
-        <v>1725</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A879" s="3" t="s">
-        <v>1726</v>
+        <v>1583</v>
       </c>
       <c r="B879" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A880" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B880" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="880" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A880" s="3" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B880" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
-        <v>1729</v>
+        <v>2062</v>
       </c>
       <c r="B881" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A882" s="3" t="s">
-        <v>1731</v>
+        <v>2064</v>
       </c>
       <c r="B882" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
-        <v>1733</v>
+        <v>2066</v>
       </c>
       <c r="B883" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
-        <v>1735</v>
+        <v>2065</v>
       </c>
       <c r="B884" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
-        <v>1737</v>
+        <v>2067</v>
       </c>
       <c r="B885" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
-        <v>1739</v>
+        <v>2068</v>
       </c>
       <c r="B886" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
-        <v>1741</v>
+        <v>2069</v>
       </c>
       <c r="B887" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B888" s="12" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2070</v>
+      </c>
+      <c r="B888" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
-        <v>1744</v>
+        <v>2071</v>
       </c>
       <c r="B889" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A890" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A891" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A892" s="7" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A893" s="7" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B893" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A894" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A895" s="7" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A896" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A897" s="7" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A898" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A899" s="7" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B899" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A900" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B900" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A901" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B901" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A902" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A903" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B903" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A904" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A905" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A906" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A907" s="7" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A908" s="7" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A909" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A910" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A911" s="7" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A912" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A913" s="7" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A914" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B914" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="890" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A890" s="3" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B890" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A891" s="3" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B891" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A892" s="3" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A893" s="3" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B893" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A894" s="3" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B894" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A895" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B895" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A896" s="3" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A897" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A898" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A899" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B899" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A900" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A901" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B901" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A902" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B902" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A903" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B903" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A904" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B904" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A905" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B905" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A906" s="3" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B906" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A907" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B907" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A908" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B908" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A909" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A910" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A911" s="3" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B911" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A912" s="3" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B912" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A913" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B913" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A914" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B914" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
-        <v>1791</v>
+        <v>1585</v>
       </c>
       <c r="B915" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
-        <v>1793</v>
+        <v>1587</v>
       </c>
       <c r="B916" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
-        <v>1795</v>
+        <v>1589</v>
       </c>
       <c r="B917" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="918" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
-        <v>1797</v>
+        <v>1591</v>
       </c>
       <c r="B918" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
-        <v>1799</v>
+        <v>1593</v>
       </c>
       <c r="B919" t="s">
-        <v>1800</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="920" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
-        <v>1801</v>
+        <v>1595</v>
       </c>
       <c r="B920" t="s">
-        <v>12</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="921" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
-        <v>1802</v>
+        <v>1597</v>
       </c>
       <c r="B921" t="s">
-        <v>1803</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="922" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A922" s="3" t="s">
-        <v>1804</v>
+        <v>1599</v>
       </c>
       <c r="B922" t="s">
-        <v>1805</v>
+        <v>373</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
-        <v>1806</v>
+        <v>2129</v>
       </c>
       <c r="B923" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
-        <v>1808</v>
+        <v>2130</v>
       </c>
       <c r="B924" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
-        <v>1809</v>
+        <v>1600</v>
       </c>
       <c r="B925" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A926" s="3" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B926" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A926" s="3"/>
+    </row>
+    <row r="927" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
-        <v>1813</v>
+        <v>1602</v>
       </c>
       <c r="B927" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
-        <v>1815</v>
+        <v>1604</v>
       </c>
       <c r="B928" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
-        <v>1817</v>
+        <v>1606</v>
       </c>
       <c r="B929" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
-        <v>1819</v>
+        <v>1608</v>
       </c>
       <c r="B930" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
-        <v>1821</v>
+        <v>1610</v>
       </c>
       <c r="B931" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A932" s="3" t="s">
-        <v>1823</v>
+        <v>1612</v>
       </c>
       <c r="B932" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
-        <v>1825</v>
+        <v>1614</v>
       </c>
       <c r="B933" t="s">
-        <v>1826</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A934" s="3" t="s">
-        <v>1827</v>
+        <v>1616</v>
       </c>
       <c r="B934" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A935" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A936" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A937" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A938" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A939" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B939" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="935" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A935" s="3" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A936" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A937" s="3" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A938" s="3" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B938" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A939" s="3" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B939" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A940" s="3" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B940" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A941" s="3" t="s">
-        <v>1840</v>
+        <v>1628</v>
       </c>
       <c r="B941" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A942" s="3" t="s">
-        <v>1842</v>
+        <v>1630</v>
       </c>
       <c r="B942" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A943" s="3" t="s">
-        <v>1844</v>
+        <v>1632</v>
       </c>
       <c r="B943" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A944" s="3" t="s">
-        <v>1845</v>
+        <v>1634</v>
       </c>
       <c r="B944" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A945" s="3" t="s">
-        <v>1846</v>
+        <v>1636</v>
       </c>
       <c r="B945" t="s">
-        <v>12</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="946" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A946" s="3" t="s">
-        <v>1847</v>
+        <v>1638</v>
       </c>
       <c r="B946" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="947" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A947" s="3" t="s">
-        <v>1848</v>
+        <v>1639</v>
       </c>
       <c r="B947" t="s">
-        <v>1849</v>
+        <v>12</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A948" s="3" t="s">
-        <v>1850</v>
+        <v>1640</v>
       </c>
       <c r="B948" t="s">
-        <v>1851</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="949" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A949" s="3" t="s">
-        <v>1852</v>
+        <v>1642</v>
       </c>
       <c r="B949" t="s">
-        <v>1853</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="950" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A950" s="3" t="s">
-        <v>1854</v>
+        <v>1644</v>
       </c>
       <c r="B950" t="s">
-        <v>1855</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="951" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A951" s="3" t="s">
-        <v>1856</v>
+        <v>1646</v>
       </c>
       <c r="B951" t="s">
-        <v>1857</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A952" s="3" t="s">
-        <v>1858</v>
+        <v>1648</v>
       </c>
       <c r="B952" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A953" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B953" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A953" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B953" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="954" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A954" s="3" t="s">
-        <v>1861</v>
+        <v>1651</v>
       </c>
       <c r="B954" t="s">
-        <v>1862</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="955" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A955" s="3" t="s">
-        <v>1863</v>
+        <v>1653</v>
       </c>
       <c r="B955" t="s">
-        <v>1864</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="956" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A956" s="3" t="s">
-        <v>1865</v>
+        <v>1655</v>
       </c>
       <c r="B956" t="s">
-        <v>1866</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="957" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A957" s="3" t="s">
-        <v>1867</v>
+        <v>1657</v>
       </c>
       <c r="B957" t="s">
-        <v>1868</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="958" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A958" s="3" t="s">
-        <v>1869</v>
+        <v>1659</v>
       </c>
       <c r="B958" t="s">
-        <v>1870</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="959" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A959" s="3" t="s">
-        <v>1871</v>
+        <v>1661</v>
       </c>
       <c r="B959" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A960" s="3" t="s">
-        <v>1873</v>
+        <v>1663</v>
       </c>
       <c r="B960" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A961" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A962" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B962" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="961" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A961" s="3" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B961" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A962" s="3" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B962" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A963" s="3" t="s">
-        <v>1878</v>
+        <v>1668</v>
       </c>
       <c r="B963" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A964" s="3" t="s">
-        <v>1880</v>
+        <v>1670</v>
       </c>
       <c r="B964" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A965" s="3" t="s">
-        <v>1882</v>
+        <v>1672</v>
       </c>
       <c r="B965" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A966" s="3" t="s">
-        <v>1884</v>
+        <v>1674</v>
       </c>
       <c r="B966" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A967" s="3" t="s">
-        <v>1886</v>
+        <v>1676</v>
       </c>
       <c r="B967" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A968" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A969" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A970" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A971" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A972" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A973" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A974" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A975" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A976" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B976" s="12" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A977" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B977" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A968" s="3" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A969" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A970" s="3" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A971" s="3" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A972" s="3" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A973" s="3" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A974" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B974" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A975" s="3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A976" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B976" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A977" s="3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B977" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="978" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A978" s="3" t="s">
-        <v>1906</v>
+        <v>1695</v>
       </c>
       <c r="B978" t="s">
-        <v>1907</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="979" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A979" s="3" t="s">
-        <v>1908</v>
+        <v>1697</v>
       </c>
       <c r="B979" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A980" s="3" t="s">
-        <v>1909</v>
+        <v>1699</v>
       </c>
       <c r="B980" t="s">
-        <v>1910</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="981" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A981" s="3" t="s">
-        <v>1911</v>
+        <v>1701</v>
       </c>
       <c r="B981" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A982" s="3" t="s">
-        <v>1913</v>
+        <v>1702</v>
       </c>
       <c r="B982" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A983" s="3" t="s">
-        <v>1915</v>
+        <v>1704</v>
       </c>
       <c r="B983" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A984" s="3" t="s">
-        <v>1917</v>
+        <v>1706</v>
       </c>
       <c r="B984" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A985" s="3" t="s">
-        <v>1919</v>
+        <v>1708</v>
       </c>
       <c r="B985" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A986" s="3" t="s">
-        <v>1921</v>
+        <v>1710</v>
       </c>
       <c r="B986" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A987" s="1" t="s">
-        <v>1923</v>
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A987" s="3" t="s">
+        <v>1712</v>
       </c>
       <c r="B987" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="988" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A988" s="3" t="s">
-        <v>1925</v>
+        <v>1713</v>
       </c>
       <c r="B988" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A989" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A990" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A991" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A992" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A993" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A994" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A995" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A996" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B996" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A997" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A998" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A999" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1000" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1001" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1001" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="989" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A989" s="3" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A990" s="3" t="s">
-        <v>1928</v>
-      </c>
-      <c r="B990" s="12" t="s">
-        <v>1928</v>
+    <row r="1002" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1002" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1003" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1004" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1005" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1006" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1007" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1008" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1009" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1010" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1011" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1012" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1013" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1014" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1015" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1016" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1017" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1018" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1019" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1020" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1021" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1022" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1023" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1024" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1025" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1026" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1027" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1028" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1029" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1030" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1031" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1032" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1033" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1034" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1035" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1036" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1037" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1038" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1039" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1040" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1041" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1042" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1043" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1044" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1045" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1046" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1047" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1048" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1049" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1050" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1051" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1052" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1053" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1054" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1055" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1056" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1057" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1058" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1059" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1060" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1061" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1062" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1063" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1064" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1065" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1066" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1067" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1068" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1069" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1070" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1071" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1072" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1073" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1074" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1076" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1077" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A1078" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1078" s="12" t="s">
+        <v>1878</v>
       </c>
     </row>
   </sheetData>
@@ -15396,6 +16642,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -15566,15 +16821,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
   <ds:schemaRefs>
@@ -15593,6 +16839,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15611,14 +16865,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{14b77578-9773-42d5-8507-251ca2dc2b06}" enabled="0" method="" siteId="{14b77578-9773-42d5-8507-251ca2dc2b06}" removed="1"/>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03316FD-8AA5-0D42-9CFC-B167B390F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F12B3-8155-794D-9E51-528BD46B3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27080" yWindow="500" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24920" yWindow="500" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="2411">
   <si>
     <t>Question</t>
   </si>
@@ -4983,54 +4983,6 @@
     <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 8</t>
   </si>
   <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 1</t>
-  </si>
-  <si>
-    <t>gbgf</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 2</t>
-  </si>
-  <si>
-    <t>gjtumgjyu</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yhjcxc. </t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 4</t>
-  </si>
-  <si>
-    <t>vmj.j;,jh ,</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 5</t>
-  </si>
-  <si>
-    <t>jk..hgh vn g</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 6</t>
-  </si>
-  <si>
-    <t>n hg jkyukyj</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 7</t>
-  </si>
-  <si>
-    <t>fjhntutjh46</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 8</t>
-  </si>
-  <si>
-    <t>ger4y4bryj878</t>
-  </si>
-  <si>
     <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 1</t>
   </si>
   <si>
@@ -5064,39 +5016,6 @@
     <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 6</t>
   </si>
   <si>
-    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 1</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 2</t>
-  </si>
-  <si>
-    <t>fdvbgb</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 3</t>
-  </si>
-  <si>
-    <t>jmj hjm</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 4</t>
-  </si>
-  <si>
-    <t>jk,hjk,</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 5</t>
-  </si>
-  <si>
-    <t>/;/';][[plkkj</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 6</t>
-  </si>
-  <si>
-    <t>ghgmmyu</t>
-  </si>
-  <si>
     <t>Do you have a history of frequent infections (typically recurrent sinus infections or pneumonia) or immunodeficiency?</t>
   </si>
   <si>
@@ -5106,21 +5025,12 @@
     <t>Please provide the name of the immunologist/rheumatologist who completed your evaluation.Name</t>
   </si>
   <si>
-    <t>fgbfn</t>
-  </si>
-  <si>
     <t>Please provide the name of the immunologist/rheumatologist who completed your evaluation.Location</t>
   </si>
   <si>
-    <t>k,ylil.l/p</t>
-  </si>
-  <si>
     <t>Please provide the name of the immunologist/rheumatologist who completed your evaluation. Hospital</t>
   </si>
   <si>
-    <t>etbrytnutr</t>
-  </si>
-  <si>
     <t>How would you describe infection frequency and your immune system? Please select all that apply. Option 1</t>
   </si>
   <si>
@@ -5136,58 +5046,6 @@
     <t>How would you describe infection frequency and your immune system? Please select all that apply. Option 3</t>
   </si>
   <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hndgh </t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 2</t>
-  </si>
-  <si>
-    <t>,yjmyry8i578</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 3</t>
-  </si>
-  <si>
-    <t>5ty3wtrh3</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 4</t>
-  </si>
-  <si>
-    <t>trhj76jiull</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 5</t>
-  </si>
-  <si>
-    <t>rethr67rkjrtydnju</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 6</t>
-  </si>
-  <si>
-    <t>rthyumyruk</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  j,u,j jhmty</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 8</t>
-  </si>
-  <si>
-    <t>umyu,tukl987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Have you ever been diagnosed with an autoimmune disorder?  An autoimmune disorder is when the immune system attacks the body's own healthy tissues; can include Hashimoto thyroiditis, lupus, or autoimmune thrombocytopenia, etc.</t>
-  </si>
-  <si>
     <t>With what autoimmune disorder have you been diagnosed? Option 1</t>
   </si>
   <si>
@@ -5213,54 +5071,6 @@
   </si>
   <si>
     <t>With what autoimmune disorder have you been diagnosed? Option 5</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 1</t>
-  </si>
-  <si>
-    <t>hmnghdnfu</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 2</t>
-  </si>
-  <si>
-    <t>kturtyuik687k675</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 3</t>
-  </si>
-  <si>
-    <t>8778um gf</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 4</t>
-  </si>
-  <si>
-    <t>k785muyk6</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 5</t>
-  </si>
-  <si>
-    <t>uk76i</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 6</t>
-  </si>
-  <si>
-    <t>86u</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 7</t>
-  </si>
-  <si>
-    <t>87j686</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 8</t>
-  </si>
-  <si>
-    <t>8i79o9o7</t>
   </si>
   <si>
     <t>The next set of questions ask about conditions associated with the central nervous system. 
@@ -6608,6 +6418,1029 @@
   </si>
   <si>
     <t>Test553</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 1 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 2 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 3 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 4 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 5 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 6 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 7 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed. Column 8 Option 8</t>
+  </si>
+  <si>
+    <t>Test554</t>
+  </si>
+  <si>
+    <t>Test555</t>
+  </si>
+  <si>
+    <t>Test556</t>
+  </si>
+  <si>
+    <t>Test557</t>
+  </si>
+  <si>
+    <t>Test558</t>
+  </si>
+  <si>
+    <t>Test559</t>
+  </si>
+  <si>
+    <t>Test560</t>
+  </si>
+  <si>
+    <t>Test561</t>
+  </si>
+  <si>
+    <t>Test562</t>
+  </si>
+  <si>
+    <t>Test563</t>
+  </si>
+  <si>
+    <t>Test564</t>
+  </si>
+  <si>
+    <t>Test565</t>
+  </si>
+  <si>
+    <t>Test566</t>
+  </si>
+  <si>
+    <t>Test567</t>
+  </si>
+  <si>
+    <t>Test568</t>
+  </si>
+  <si>
+    <t>Test569</t>
+  </si>
+  <si>
+    <t>Test570</t>
+  </si>
+  <si>
+    <t>Test571</t>
+  </si>
+  <si>
+    <t>Test572</t>
+  </si>
+  <si>
+    <t>Test573</t>
+  </si>
+  <si>
+    <t>Test574</t>
+  </si>
+  <si>
+    <t>Test575</t>
+  </si>
+  <si>
+    <t>Test576</t>
+  </si>
+  <si>
+    <t>Test577</t>
+  </si>
+  <si>
+    <t>Test578</t>
+  </si>
+  <si>
+    <t>Test579</t>
+  </si>
+  <si>
+    <t>Test580</t>
+  </si>
+  <si>
+    <t>Test581</t>
+  </si>
+  <si>
+    <t>Test582</t>
+  </si>
+  <si>
+    <t>Test583</t>
+  </si>
+  <si>
+    <t>Test584</t>
+  </si>
+  <si>
+    <t>Test585</t>
+  </si>
+  <si>
+    <t>Test586</t>
+  </si>
+  <si>
+    <t>Test587</t>
+  </si>
+  <si>
+    <t>Test588</t>
+  </si>
+  <si>
+    <t>Test589</t>
+  </si>
+  <si>
+    <t>Test590</t>
+  </si>
+  <si>
+    <t>Test591</t>
+  </si>
+  <si>
+    <t>Test592</t>
+  </si>
+  <si>
+    <t>Test593</t>
+  </si>
+  <si>
+    <t>Test594</t>
+  </si>
+  <si>
+    <t>Test595</t>
+  </si>
+  <si>
+    <t>Test596</t>
+  </si>
+  <si>
+    <t>Test597</t>
+  </si>
+  <si>
+    <t>Test598</t>
+  </si>
+  <si>
+    <t>Test599</t>
+  </si>
+  <si>
+    <t>Test600</t>
+  </si>
+  <si>
+    <t>Test601</t>
+  </si>
+  <si>
+    <t>Test602</t>
+  </si>
+  <si>
+    <t>Test603</t>
+  </si>
+  <si>
+    <t>Test604</t>
+  </si>
+  <si>
+    <t>Test605</t>
+  </si>
+  <si>
+    <t>Test606</t>
+  </si>
+  <si>
+    <t>Test607</t>
+  </si>
+  <si>
+    <t>Test608</t>
+  </si>
+  <si>
+    <t>Test609</t>
+  </si>
+  <si>
+    <t>Test610</t>
+  </si>
+  <si>
+    <t>Test611</t>
+  </si>
+  <si>
+    <t>Test612</t>
+  </si>
+  <si>
+    <t>Test613</t>
+  </si>
+  <si>
+    <t>Test614</t>
+  </si>
+  <si>
+    <t>Test615</t>
+  </si>
+  <si>
+    <t>Test616</t>
+  </si>
+  <si>
+    <t>Test617</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 6 Other</t>
+  </si>
+  <si>
+    <t>Test618</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 5 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 6 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed. Column 6 Option 6</t>
+  </si>
+  <si>
+    <t>Test619</t>
+  </si>
+  <si>
+    <t>Test620</t>
+  </si>
+  <si>
+    <t>Test621</t>
+  </si>
+  <si>
+    <t>Test622</t>
+  </si>
+  <si>
+    <t>Test623</t>
+  </si>
+  <si>
+    <t>Test624</t>
+  </si>
+  <si>
+    <t>Test625</t>
+  </si>
+  <si>
+    <t>Test626</t>
+  </si>
+  <si>
+    <t>Test627</t>
+  </si>
+  <si>
+    <t>Test628</t>
+  </si>
+  <si>
+    <t>Test629</t>
+  </si>
+  <si>
+    <t>Test630</t>
+  </si>
+  <si>
+    <t>Test631</t>
+  </si>
+  <si>
+    <t>Test632</t>
+  </si>
+  <si>
+    <t>Test633</t>
+  </si>
+  <si>
+    <t>Test634</t>
+  </si>
+  <si>
+    <t>Test635</t>
+  </si>
+  <si>
+    <t>Test636</t>
+  </si>
+  <si>
+    <t>Test637</t>
+  </si>
+  <si>
+    <t>Test638</t>
+  </si>
+  <si>
+    <t>Test639</t>
+  </si>
+  <si>
+    <t>Test640</t>
+  </si>
+  <si>
+    <t>Test641</t>
+  </si>
+  <si>
+    <t>Test642</t>
+  </si>
+  <si>
+    <t>Test643</t>
+  </si>
+  <si>
+    <t>Test644</t>
+  </si>
+  <si>
+    <t>Test645</t>
+  </si>
+  <si>
+    <t>Test646</t>
+  </si>
+  <si>
+    <t>Test647</t>
+  </si>
+  <si>
+    <t>Test648</t>
+  </si>
+  <si>
+    <t>Test649</t>
+  </si>
+  <si>
+    <t>Test650</t>
+  </si>
+  <si>
+    <t>Test651</t>
+  </si>
+  <si>
+    <t>Test652</t>
+  </si>
+  <si>
+    <t>Test653</t>
+  </si>
+  <si>
+    <t>Test654</t>
+  </si>
+  <si>
+    <t>Test655</t>
+  </si>
+  <si>
+    <t>Test656</t>
+  </si>
+  <si>
+    <t>Test657</t>
+  </si>
+  <si>
+    <t>How would you describe infection frequency and your immune system? Please select all that apply. Option 3 Other</t>
+  </si>
+  <si>
+    <t>Test658</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 8 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 8 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed. Column 8 Option 3</t>
+  </si>
+  <si>
+    <t>Test659</t>
+  </si>
+  <si>
+    <t>Test660</t>
+  </si>
+  <si>
+    <t>Test661</t>
+  </si>
+  <si>
+    <t>Test662</t>
+  </si>
+  <si>
+    <t>Test663</t>
+  </si>
+  <si>
+    <t>Test664</t>
+  </si>
+  <si>
+    <t>Test665</t>
+  </si>
+  <si>
+    <t>Test666</t>
+  </si>
+  <si>
+    <t>Test667</t>
+  </si>
+  <si>
+    <t>Test668</t>
+  </si>
+  <si>
+    <t>Test669</t>
+  </si>
+  <si>
+    <t>Test670</t>
+  </si>
+  <si>
+    <t>Test671</t>
+  </si>
+  <si>
+    <t>Test672</t>
+  </si>
+  <si>
+    <t>Test673</t>
+  </si>
+  <si>
+    <t>Test674</t>
+  </si>
+  <si>
+    <t>Test675</t>
+  </si>
+  <si>
+    <t>Test676</t>
+  </si>
+  <si>
+    <t>Test677</t>
+  </si>
+  <si>
+    <t>Test678</t>
+  </si>
+  <si>
+    <t>Test679</t>
+  </si>
+  <si>
+    <t>Test680</t>
+  </si>
+  <si>
+    <t>Test681</t>
+  </si>
+  <si>
+    <t>Test682</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with an autoimmune disorder?  An autoimmune disorder is when the immune system attacks the body's own healthy tissues; can include Hashimoto thyroiditis, lupus, or autoimmune thrombocytopenia, etc.</t>
+  </si>
+  <si>
+    <t>With what autoimmune disorder have you been diagnosed? Option 5 Other</t>
+  </si>
+  <si>
+    <t>With what autoimmune disorder have you been diagnosed? Option 4 Other</t>
+  </si>
+  <si>
+    <t>Test683</t>
+  </si>
+  <si>
+    <t>Test684</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 6 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 7 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 8 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 8 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 8 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 8 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below. Column 8 Option 5</t>
+  </si>
+  <si>
+    <t>Test685</t>
+  </si>
+  <si>
+    <t>Test686</t>
+  </si>
+  <si>
+    <t>Test687</t>
+  </si>
+  <si>
+    <t>Test688</t>
+  </si>
+  <si>
+    <t>Test689</t>
+  </si>
+  <si>
+    <t>Test690</t>
+  </si>
+  <si>
+    <t>Test691</t>
+  </si>
+  <si>
+    <t>Test692</t>
+  </si>
+  <si>
+    <t>Test693</t>
+  </si>
+  <si>
+    <t>Test694</t>
+  </si>
+  <si>
+    <t>Test695</t>
+  </si>
+  <si>
+    <t>Test696</t>
+  </si>
+  <si>
+    <t>Test697</t>
+  </si>
+  <si>
+    <t>Test698</t>
+  </si>
+  <si>
+    <t>Test699</t>
+  </si>
+  <si>
+    <t>Test700</t>
+  </si>
+  <si>
+    <t>Test701</t>
+  </si>
+  <si>
+    <t>Test702</t>
+  </si>
+  <si>
+    <t>Test703</t>
+  </si>
+  <si>
+    <t>Test704</t>
+  </si>
+  <si>
+    <t>Test705</t>
+  </si>
+  <si>
+    <t>Test706</t>
+  </si>
+  <si>
+    <t>Test707</t>
+  </si>
+  <si>
+    <t>Test708</t>
+  </si>
+  <si>
+    <t>Test709</t>
+  </si>
+  <si>
+    <t>Test710</t>
+  </si>
+  <si>
+    <t>Test711</t>
+  </si>
+  <si>
+    <t>Test712</t>
+  </si>
+  <si>
+    <t>Test713</t>
+  </si>
+  <si>
+    <t>Test714</t>
+  </si>
+  <si>
+    <t>Test715</t>
+  </si>
+  <si>
+    <t>Test716</t>
+  </si>
+  <si>
+    <t>Test717</t>
+  </si>
+  <si>
+    <t>Test718</t>
+  </si>
+  <si>
+    <t>Test719</t>
+  </si>
+  <si>
+    <t>Test720</t>
+  </si>
+  <si>
+    <t>Test721</t>
+  </si>
+  <si>
+    <t>Test722</t>
+  </si>
+  <si>
+    <t>Test723</t>
+  </si>
+  <si>
+    <t>Test724</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about conditions associated with the central nervous system.</t>
   </si>
 </sst>
 </file>
@@ -8023,15 +8856,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF90E83-6BB8-1941-861C-D1AD2F062745}">
-  <dimension ref="A1:B1078"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A923" sqref="A923"/>
+    <sheetView tabSelected="1" topLeftCell="A1073" workbookViewId="0">
+      <selection activeCell="A1113" sqref="A1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.83203125" customWidth="1"/>
+    <col min="1" max="1" width="121.1640625" customWidth="1"/>
     <col min="2" max="2" width="94" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8051,7 +8884,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>205</v>
       </c>
@@ -8075,7 +8908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>210</v>
       </c>
@@ -8211,7 +9044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>236</v>
       </c>
@@ -8219,7 +9052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>237</v>
       </c>
@@ -8227,7 +9060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>238</v>
       </c>
@@ -8235,7 +9068,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>240</v>
       </c>
@@ -8243,7 +9076,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>242</v>
       </c>
@@ -8251,7 +9084,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>244</v>
       </c>
@@ -8259,7 +9092,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>246</v>
       </c>
@@ -8267,7 +9100,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>248</v>
       </c>
@@ -8275,7 +9108,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>250</v>
       </c>
@@ -8283,7 +9116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>252</v>
       </c>
@@ -8291,7 +9124,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>254</v>
       </c>
@@ -8299,7 +9132,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>256</v>
       </c>
@@ -8307,7 +9140,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>258</v>
       </c>
@@ -8315,7 +9148,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>259</v>
       </c>
@@ -8323,7 +9156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>260</v>
       </c>
@@ -8331,7 +9164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>261</v>
       </c>
@@ -8475,7 +9308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>294</v>
       </c>
@@ -8483,7 +9316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>295</v>
       </c>
@@ -8491,7 +9324,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>296</v>
       </c>
@@ -8499,7 +9332,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>297</v>
       </c>
@@ -8507,7 +9340,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>298</v>
       </c>
@@ -8515,7 +9348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>299</v>
       </c>
@@ -8523,7 +9356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>300</v>
       </c>
@@ -8531,7 +9364,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>302</v>
       </c>
@@ -8539,7 +9372,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>304</v>
       </c>
@@ -8547,7 +9380,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>306</v>
       </c>
@@ -8555,7 +9388,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>308</v>
       </c>
@@ -8563,7 +9396,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>310</v>
       </c>
@@ -8571,7 +9404,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>312</v>
       </c>
@@ -8579,7 +9412,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>314</v>
       </c>
@@ -8587,7 +9420,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>316</v>
       </c>
@@ -8595,7 +9428,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>317</v>
       </c>
@@ -8603,7 +9436,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>318</v>
       </c>
@@ -8611,7 +9444,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>319</v>
       </c>
@@ -8619,7 +9452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>320</v>
       </c>
@@ -8627,7 +9460,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>322</v>
       </c>
@@ -8635,7 +9468,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>324</v>
       </c>
@@ -8643,7 +9476,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>326</v>
       </c>
@@ -8651,7 +9484,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>328</v>
       </c>
@@ -8659,7 +9492,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>330</v>
       </c>
@@ -8667,7 +9500,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>332</v>
       </c>
@@ -8675,7 +9508,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>334</v>
       </c>
@@ -8683,7 +9516,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>336</v>
       </c>
@@ -8691,7 +9524,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>338</v>
       </c>
@@ -8699,7 +9532,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>340</v>
       </c>
@@ -8707,7 +9540,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>342</v>
       </c>
@@ -8715,7 +9548,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>344</v>
       </c>
@@ -8723,7 +9556,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>346</v>
       </c>
@@ -8731,7 +9564,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>348</v>
       </c>
@@ -8739,7 +9572,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>349</v>
       </c>
@@ -8747,7 +9580,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>350</v>
       </c>
@@ -8755,7 +9588,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>351</v>
       </c>
@@ -8763,7 +9596,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>352</v>
       </c>
@@ -8771,7 +9604,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>353</v>
       </c>
@@ -8779,7 +9612,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>354</v>
       </c>
@@ -8787,7 +9620,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>355</v>
       </c>
@@ -8795,7 +9628,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>356</v>
       </c>
@@ -8803,7 +9636,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>357</v>
       </c>
@@ -8811,7 +9644,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>358</v>
       </c>
@@ -8819,7 +9652,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>359</v>
       </c>
@@ -8827,7 +9660,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>360</v>
       </c>
@@ -9003,7 +9836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>397</v>
       </c>
@@ -9011,7 +9844,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>399</v>
       </c>
@@ -9019,7 +9852,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>401</v>
       </c>
@@ -9027,7 +9860,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>403</v>
       </c>
@@ -9035,7 +9868,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>405</v>
       </c>
@@ -9043,7 +9876,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>406</v>
       </c>
@@ -9155,7 +9988,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>430</v>
       </c>
@@ -9163,7 +9996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>431</v>
       </c>
@@ -9171,7 +10004,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>432</v>
       </c>
@@ -9179,7 +10012,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>433</v>
       </c>
@@ -9187,7 +10020,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>435</v>
       </c>
@@ -9195,7 +10028,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>436</v>
       </c>
@@ -9203,7 +10036,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>438</v>
       </c>
@@ -9211,7 +10044,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>440</v>
       </c>
@@ -9237,13 +10070,13 @@
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>1879</v>
+        <v>1816</v>
       </c>
       <c r="B151" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>444</v>
       </c>
@@ -9387,7 +10220,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>474</v>
       </c>
@@ -9395,7 +10228,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>475</v>
       </c>
@@ -9451,7 +10284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>486</v>
       </c>
@@ -9459,7 +10292,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>488</v>
       </c>
@@ -9475,7 +10308,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>491</v>
       </c>
@@ -9499,7 +10332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>497</v>
       </c>
@@ -9507,7 +10340,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>499</v>
       </c>
@@ -9515,7 +10348,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>501</v>
       </c>
@@ -9523,7 +10356,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>503</v>
       </c>
@@ -9531,7 +10364,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>504</v>
       </c>
@@ -9549,7 +10382,7 @@
         <v>507</v>
       </c>
       <c r="B190" t="s">
-        <v>1881</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -9584,7 +10417,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>515</v>
       </c>
@@ -9592,7 +10425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>516</v>
       </c>
@@ -9600,7 +10433,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>518</v>
       </c>
@@ -9608,7 +10441,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>520</v>
       </c>
@@ -9616,7 +10449,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>522</v>
       </c>
@@ -9624,7 +10457,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>524</v>
       </c>
@@ -9632,7 +10465,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>526</v>
       </c>
@@ -9640,7 +10473,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>527</v>
       </c>
@@ -9736,7 +10569,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>551</v>
       </c>
@@ -9744,7 +10577,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>553</v>
       </c>
@@ -9752,7 +10585,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>555</v>
       </c>
@@ -9760,7 +10593,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>557</v>
       </c>
@@ -9768,7 +10601,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>559</v>
       </c>
@@ -9776,7 +10609,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>561</v>
       </c>
@@ -9784,7 +10617,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>563</v>
       </c>
@@ -9792,7 +10625,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>565</v>
       </c>
@@ -9800,7 +10633,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>567</v>
       </c>
@@ -9808,7 +10641,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>569</v>
       </c>
@@ -9816,7 +10649,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>571</v>
       </c>
@@ -9824,7 +10657,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>573</v>
       </c>
@@ -9832,7 +10665,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>575</v>
       </c>
@@ -9840,7 +10673,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>577</v>
       </c>
@@ -9848,7 +10681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>579</v>
       </c>
@@ -9856,7 +10689,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>581</v>
       </c>
@@ -9864,7 +10697,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>583</v>
       </c>
@@ -9872,7 +10705,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>585</v>
       </c>
@@ -9880,7 +10713,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>587</v>
       </c>
@@ -9888,7 +10721,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>589</v>
       </c>
@@ -9896,7 +10729,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>591</v>
       </c>
@@ -9904,7 +10737,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>593</v>
       </c>
@@ -9912,7 +10745,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>595</v>
       </c>
@@ -9920,7 +10753,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>597</v>
       </c>
@@ -9928,7 +10761,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>599</v>
       </c>
@@ -9936,7 +10769,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>601</v>
       </c>
@@ -9944,7 +10777,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>603</v>
       </c>
@@ -9952,7 +10785,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>605</v>
       </c>
@@ -9960,7 +10793,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>607</v>
       </c>
@@ -9968,7 +10801,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>609</v>
       </c>
@@ -9976,7 +10809,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>611</v>
       </c>
@@ -9984,7 +10817,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>613</v>
       </c>
@@ -9992,7 +10825,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>615</v>
       </c>
@@ -10000,7 +10833,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>617</v>
       </c>
@@ -10008,7 +10841,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>619</v>
       </c>
@@ -10016,7 +10849,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>621</v>
       </c>
@@ -10024,7 +10857,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>623</v>
       </c>
@@ -10032,7 +10865,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>625</v>
       </c>
@@ -10040,7 +10873,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>627</v>
       </c>
@@ -10048,7 +10881,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>629</v>
       </c>
@@ -10056,7 +10889,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>631</v>
       </c>
@@ -10064,7 +10897,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>633</v>
       </c>
@@ -10072,7 +10905,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>635</v>
       </c>
@@ -10080,7 +10913,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>637</v>
       </c>
@@ -10088,7 +10921,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>639</v>
       </c>
@@ -10096,7 +10929,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>641</v>
       </c>
@@ -10104,7 +10937,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>643</v>
       </c>
@@ -10112,7 +10945,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>645</v>
       </c>
@@ -10120,7 +10953,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>647</v>
       </c>
@@ -10128,7 +10961,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>649</v>
       </c>
@@ -10136,7 +10969,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>651</v>
       </c>
@@ -10144,7 +10977,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>653</v>
       </c>
@@ -10152,7 +10985,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>655</v>
       </c>
@@ -10160,7 +10993,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>657</v>
       </c>
@@ -10168,7 +11001,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>659</v>
       </c>
@@ -10176,7 +11009,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>661</v>
       </c>
@@ -10184,7 +11017,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>663</v>
       </c>
@@ -10192,7 +11025,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>665</v>
       </c>
@@ -10200,7 +11033,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>667</v>
       </c>
@@ -10208,7 +11041,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>669</v>
       </c>
@@ -10216,7 +11049,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>671</v>
       </c>
@@ -10224,7 +11057,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>673</v>
       </c>
@@ -10232,7 +11065,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>675</v>
       </c>
@@ -10240,7 +11073,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>677</v>
       </c>
@@ -10248,7 +11081,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>679</v>
       </c>
@@ -10256,7 +11089,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>681</v>
       </c>
@@ -10264,7 +11097,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>683</v>
       </c>
@@ -10272,7 +11105,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>685</v>
       </c>
@@ -10280,7 +11113,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>687</v>
       </c>
@@ -10288,7 +11121,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>689</v>
       </c>
@@ -10296,7 +11129,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>691</v>
       </c>
@@ -10304,7 +11137,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>693</v>
       </c>
@@ -10312,7 +11145,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>695</v>
       </c>
@@ -10320,7 +11153,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>697</v>
       </c>
@@ -10328,7 +11161,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>699</v>
       </c>
@@ -10336,7 +11169,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>701</v>
       </c>
@@ -10344,7 +11177,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>703</v>
       </c>
@@ -10352,7 +11185,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>705</v>
       </c>
@@ -10360,7 +11193,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>707</v>
       </c>
@@ -10368,7 +11201,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>709</v>
       </c>
@@ -10376,7 +11209,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>711</v>
       </c>
@@ -10384,7 +11217,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>713</v>
       </c>
@@ -10392,7 +11225,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>715</v>
       </c>
@@ -10400,7 +11233,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>717</v>
       </c>
@@ -10408,7 +11241,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>718</v>
       </c>
@@ -10416,7 +11249,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>719</v>
       </c>
@@ -10424,7 +11257,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>721</v>
       </c>
@@ -10432,7 +11265,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>723</v>
       </c>
@@ -10440,7 +11273,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>725</v>
       </c>
@@ -10480,7 +11313,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>733</v>
       </c>
@@ -10488,7 +11321,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>735</v>
       </c>
@@ -10496,7 +11329,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>737</v>
       </c>
@@ -10504,7 +11337,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>739</v>
       </c>
@@ -10512,7 +11345,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>741</v>
       </c>
@@ -10520,7 +11353,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>743</v>
       </c>
@@ -10528,7 +11361,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>745</v>
       </c>
@@ -10536,7 +11369,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>747</v>
       </c>
@@ -10544,7 +11377,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>749</v>
       </c>
@@ -10552,7 +11385,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>751</v>
       </c>
@@ -10560,7 +11393,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>753</v>
       </c>
@@ -10568,7 +11401,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>755</v>
       </c>
@@ -10576,7 +11409,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>757</v>
       </c>
@@ -10584,7 +11417,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>759</v>
       </c>
@@ -10592,7 +11425,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>761</v>
       </c>
@@ -10600,7 +11433,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>763</v>
       </c>
@@ -10608,7 +11441,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>765</v>
       </c>
@@ -10616,7 +11449,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>767</v>
       </c>
@@ -10624,7 +11457,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>769</v>
       </c>
@@ -10632,7 +11465,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>771</v>
       </c>
@@ -10640,7 +11473,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>773</v>
       </c>
@@ -10648,7 +11481,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>775</v>
       </c>
@@ -10656,7 +11489,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>777</v>
       </c>
@@ -10664,7 +11497,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>779</v>
       </c>
@@ -10672,7 +11505,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>781</v>
       </c>
@@ -10680,7 +11513,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>783</v>
       </c>
@@ -10688,7 +11521,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>785</v>
       </c>
@@ -10696,7 +11529,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>787</v>
       </c>
@@ -10704,7 +11537,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>789</v>
       </c>
@@ -10712,7 +11545,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>791</v>
       </c>
@@ -10720,7 +11553,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>793</v>
       </c>
@@ -10728,7 +11561,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>795</v>
       </c>
@@ -10736,7 +11569,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>797</v>
       </c>
@@ -10744,7 +11577,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>799</v>
       </c>
@@ -10760,7 +11593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>802</v>
       </c>
@@ -10768,7 +11601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>803</v>
       </c>
@@ -10776,7 +11609,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>805</v>
       </c>
@@ -10784,7 +11617,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>807</v>
       </c>
@@ -10792,7 +11625,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>809</v>
       </c>
@@ -10800,7 +11633,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>811</v>
       </c>
@@ -10808,7 +11641,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>813</v>
       </c>
@@ -10816,7 +11649,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>815</v>
       </c>
@@ -10824,7 +11657,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>817</v>
       </c>
@@ -10832,7 +11665,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>819</v>
       </c>
@@ -10840,7 +11673,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>821</v>
       </c>
@@ -10848,7 +11681,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>823</v>
       </c>
@@ -10856,7 +11689,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>825</v>
       </c>
@@ -10864,7 +11697,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>827</v>
       </c>
@@ -10872,7 +11705,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>829</v>
       </c>
@@ -10880,7 +11713,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>831</v>
       </c>
@@ -10888,7 +11721,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>833</v>
       </c>
@@ -10896,7 +11729,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>835</v>
       </c>
@@ -10904,7 +11737,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>837</v>
       </c>
@@ -10912,7 +11745,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>839</v>
       </c>
@@ -10920,7 +11753,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>841</v>
       </c>
@@ -10928,7 +11761,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>843</v>
       </c>
@@ -10936,7 +11769,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>845</v>
       </c>
@@ -10944,7 +11777,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>847</v>
       </c>
@@ -10952,7 +11785,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>849</v>
       </c>
@@ -10960,7 +11793,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>851</v>
       </c>
@@ -10968,7 +11801,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>853</v>
       </c>
@@ -10976,7 +11809,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>855</v>
       </c>
@@ -10984,7 +11817,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>857</v>
       </c>
@@ -10992,7 +11825,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>859</v>
       </c>
@@ -11000,7 +11833,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>861</v>
       </c>
@@ -11008,7 +11841,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>863</v>
       </c>
@@ -11016,7 +11849,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>865</v>
       </c>
@@ -11024,7 +11857,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>867</v>
       </c>
@@ -11032,7 +11865,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>869</v>
       </c>
@@ -11040,7 +11873,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>871</v>
       </c>
@@ -11048,7 +11881,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>873</v>
       </c>
@@ -11056,7 +11889,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>875</v>
       </c>
@@ -11072,7 +11905,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>878</v>
       </c>
@@ -11080,7 +11913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>879</v>
       </c>
@@ -11088,7 +11921,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>881</v>
       </c>
@@ -11096,7 +11929,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>883</v>
       </c>
@@ -11104,7 +11937,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>885</v>
       </c>
@@ -11112,7 +11945,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>887</v>
       </c>
@@ -11120,7 +11953,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>889</v>
       </c>
@@ -11128,7 +11961,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>891</v>
       </c>
@@ -11136,7 +11969,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>893</v>
       </c>
@@ -11144,7 +11977,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>895</v>
       </c>
@@ -11152,7 +11985,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>896</v>
       </c>
@@ -11168,7 +12001,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>899</v>
       </c>
@@ -11200,12 +12033,12 @@
         <v>905</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A398" s="12" t="s">
         <v>907</v>
       </c>
@@ -11213,7 +12046,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A399" s="12" t="s">
         <v>909</v>
       </c>
@@ -11221,7 +12054,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A400" s="12" t="s">
         <v>911</v>
       </c>
@@ -11229,7 +12062,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A401" s="12" t="s">
         <v>913</v>
       </c>
@@ -11237,7 +12070,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>915</v>
       </c>
@@ -11245,7 +12078,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>917</v>
       </c>
@@ -11501,7 +12334,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>975</v>
       </c>
@@ -12950,7 +13783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>1294</v>
       </c>
@@ -12958,7 +13791,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1295</v>
       </c>
@@ -13158,7 +13991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>1325</v>
       </c>
@@ -13166,7 +13999,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>1327</v>
       </c>
@@ -13174,7 +14007,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>1329</v>
       </c>
@@ -13182,7 +14015,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>1331</v>
       </c>
@@ -13190,7 +14023,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>1333</v>
       </c>
@@ -13198,7 +14031,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>1335</v>
       </c>
@@ -13206,7 +14039,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>1337</v>
       </c>
@@ -13214,7 +14047,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>1338</v>
       </c>
@@ -13710,7 +14543,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>1459</v>
       </c>
@@ -14024,7 +14857,7 @@
     </row>
     <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1882</v>
+        <v>1819</v>
       </c>
       <c r="B752" t="s">
         <v>12</v>
@@ -14035,7 +14868,7 @@
         <v>1524</v>
       </c>
       <c r="B753" t="s">
-        <v>1883</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14043,7 +14876,7 @@
         <v>1525</v>
       </c>
       <c r="B754" t="s">
-        <v>1884</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14051,7 +14884,7 @@
         <v>1526</v>
       </c>
       <c r="B755" t="s">
-        <v>1885</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14112,10 +14945,10 @@
     </row>
     <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1886</v>
+        <v>1823</v>
       </c>
       <c r="B763" t="s">
-        <v>1887</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14136,10 +14969,10 @@
     </row>
     <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1892</v>
+        <v>1829</v>
       </c>
       <c r="B766" t="s">
-        <v>1895</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14152,15 +14985,15 @@
     </row>
     <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1893</v>
+        <v>1830</v>
       </c>
       <c r="B768" t="s">
-        <v>1894</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1888</v>
+        <v>1825</v>
       </c>
       <c r="B769" t="s">
         <v>1543</v>
@@ -14208,15 +15041,15 @@
     </row>
     <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1890</v>
+        <v>1827</v>
       </c>
       <c r="B775" t="s">
-        <v>1891</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
-        <v>1889</v>
+        <v>1826</v>
       </c>
       <c r="B776" s="12" t="s">
         <v>1553</v>
@@ -14224,7 +15057,7 @@
     </row>
     <row r="777" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
-        <v>1896</v>
+        <v>1833</v>
       </c>
       <c r="B777" t="s">
         <v>12</v>
@@ -14235,7 +15068,7 @@
         <v>1554</v>
       </c>
       <c r="B778" t="s">
-        <v>1897</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14243,7 +15076,7 @@
         <v>1555</v>
       </c>
       <c r="B779" t="s">
-        <v>1898</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14251,7 +15084,7 @@
         <v>1556</v>
       </c>
       <c r="B780" t="s">
-        <v>1899</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14288,10 +15121,10 @@
     </row>
     <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>1901</v>
+        <v>1838</v>
       </c>
       <c r="B785" t="s">
-        <v>1902</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14302,279 +15135,279 @@
         <v>12</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
-        <v>1908</v>
+        <v>1845</v>
       </c>
       <c r="B787" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
-        <v>1907</v>
+        <v>1844</v>
       </c>
       <c r="B788" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
-        <v>1906</v>
+        <v>1843</v>
       </c>
       <c r="B789" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="790" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
-        <v>1905</v>
+        <v>1842</v>
       </c>
       <c r="B790" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="791" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
-        <v>1904</v>
+        <v>1841</v>
       </c>
       <c r="B791" t="s">
-        <v>1891</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="B792" t="s">
-        <v>1900</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
-        <v>1910</v>
+        <v>1847</v>
       </c>
       <c r="B793" t="s">
-        <v>1903</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
-        <v>1911</v>
+        <v>1848</v>
       </c>
       <c r="B794" t="s">
-        <v>1937</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
-        <v>1912</v>
+        <v>1849</v>
       </c>
       <c r="B795" t="s">
-        <v>1938</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
-        <v>1913</v>
+        <v>1850</v>
       </c>
       <c r="B796" t="s">
-        <v>1939</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="797" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
-        <v>1914</v>
+        <v>1851</v>
       </c>
       <c r="B797" t="s">
-        <v>1940</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
-        <v>1915</v>
+        <v>1852</v>
       </c>
       <c r="B798" t="s">
-        <v>1941</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
-        <v>1916</v>
+        <v>1853</v>
       </c>
       <c r="B799" t="s">
-        <v>1942</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
-        <v>1917</v>
+        <v>1854</v>
       </c>
       <c r="B800" t="s">
-        <v>1943</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
-        <v>1918</v>
+        <v>1855</v>
       </c>
       <c r="B801" t="s">
-        <v>1944</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
-        <v>1919</v>
+        <v>1856</v>
       </c>
       <c r="B802" t="s">
-        <v>1945</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
-        <v>1920</v>
+        <v>1857</v>
       </c>
       <c r="B803" t="s">
-        <v>1946</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
-        <v>1921</v>
+        <v>1858</v>
       </c>
       <c r="B804" t="s">
-        <v>1947</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
-        <v>1922</v>
+        <v>1859</v>
       </c>
       <c r="B805" t="s">
-        <v>1948</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
-        <v>1923</v>
+        <v>1860</v>
       </c>
       <c r="B806" t="s">
-        <v>1949</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
-        <v>1924</v>
+        <v>1861</v>
       </c>
       <c r="B807" t="s">
-        <v>1950</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
-        <v>1925</v>
+        <v>1862</v>
       </c>
       <c r="B808" t="s">
-        <v>1951</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
-        <v>1926</v>
+        <v>1863</v>
       </c>
       <c r="B809" t="s">
-        <v>1952</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
-        <v>1927</v>
+        <v>1864</v>
       </c>
       <c r="B810" t="s">
-        <v>1953</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
-        <v>1928</v>
+        <v>1865</v>
       </c>
       <c r="B811" t="s">
-        <v>1954</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
-        <v>1929</v>
+        <v>1866</v>
       </c>
       <c r="B812" t="s">
-        <v>1955</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
-        <v>1930</v>
+        <v>1867</v>
       </c>
       <c r="B813" t="s">
-        <v>1956</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
-        <v>1931</v>
+        <v>1868</v>
       </c>
       <c r="B814" t="s">
-        <v>1957</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
-        <v>1932</v>
+        <v>1869</v>
       </c>
       <c r="B815" t="s">
-        <v>1958</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
-        <v>1933</v>
+        <v>1870</v>
       </c>
       <c r="B816" t="s">
-        <v>1959</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
-        <v>1934</v>
+        <v>1871</v>
       </c>
       <c r="B817" t="s">
-        <v>1960</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
-        <v>1935</v>
+        <v>1872</v>
       </c>
       <c r="B818" t="s">
-        <v>1961</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
-        <v>1936</v>
+        <v>1873</v>
       </c>
       <c r="B819" t="s">
-        <v>1962</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A820" s="3" t="s">
-        <v>1963</v>
+        <v>1900</v>
       </c>
       <c r="B820" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="821" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
         <v>1568</v>
       </c>
@@ -14632,351 +15465,351 @@
     </row>
     <row r="828" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A828" s="3" t="s">
-        <v>1964</v>
+        <v>1901</v>
       </c>
       <c r="B828" t="s">
-        <v>1965</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A829" s="3" t="s">
-        <v>1966</v>
+        <v>1903</v>
       </c>
       <c r="B829" t="s">
-        <v>2008</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A830" s="3" t="s">
-        <v>1967</v>
+        <v>1904</v>
       </c>
       <c r="B830" t="s">
-        <v>2009</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A831" s="3" t="s">
-        <v>1968</v>
+        <v>1905</v>
       </c>
       <c r="B831" t="s">
-        <v>2010</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A832" s="3" t="s">
-        <v>1969</v>
+        <v>1906</v>
       </c>
       <c r="B832" t="s">
-        <v>2011</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A833" s="3" t="s">
-        <v>1970</v>
+        <v>1907</v>
       </c>
       <c r="B833" t="s">
-        <v>2012</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A834" s="3" t="s">
-        <v>1971</v>
+        <v>1908</v>
       </c>
       <c r="B834" t="s">
-        <v>2013</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A835" s="3" t="s">
-        <v>1972</v>
+        <v>1909</v>
       </c>
       <c r="B835" t="s">
-        <v>2014</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A836" s="3" t="s">
-        <v>1973</v>
+        <v>1910</v>
       </c>
       <c r="B836" t="s">
-        <v>2015</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A837" s="3" t="s">
-        <v>1974</v>
+        <v>1911</v>
       </c>
       <c r="B837" t="s">
-        <v>2016</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A838" s="3" t="s">
-        <v>1975</v>
+        <v>1912</v>
       </c>
       <c r="B838" t="s">
-        <v>2017</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A839" s="3" t="s">
-        <v>1976</v>
+        <v>1913</v>
       </c>
       <c r="B839" t="s">
-        <v>2018</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
-        <v>1977</v>
+        <v>1914</v>
       </c>
       <c r="B840" t="s">
-        <v>2019</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
-        <v>1978</v>
+        <v>1915</v>
       </c>
       <c r="B841" t="s">
-        <v>2020</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
-        <v>1979</v>
+        <v>1916</v>
       </c>
       <c r="B842" t="s">
-        <v>2021</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
-        <v>1980</v>
+        <v>1917</v>
       </c>
       <c r="B843" t="s">
-        <v>2022</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
-        <v>1981</v>
+        <v>1918</v>
       </c>
       <c r="B844" t="s">
-        <v>2023</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
-        <v>1982</v>
+        <v>1919</v>
       </c>
       <c r="B845" t="s">
-        <v>2024</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A846" s="7" t="s">
-        <v>1983</v>
+        <v>1920</v>
       </c>
       <c r="B846" t="s">
-        <v>2025</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="847" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A847" s="7" t="s">
-        <v>1984</v>
+        <v>1921</v>
       </c>
       <c r="B847" t="s">
-        <v>2026</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
-        <v>1985</v>
+        <v>1922</v>
       </c>
       <c r="B848" t="s">
-        <v>2027</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
-        <v>1986</v>
+        <v>1923</v>
       </c>
       <c r="B849" t="s">
-        <v>2028</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
-        <v>1987</v>
+        <v>1924</v>
       </c>
       <c r="B850" t="s">
-        <v>2029</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
-        <v>1988</v>
+        <v>1925</v>
       </c>
       <c r="B851" t="s">
-        <v>2030</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
-        <v>1989</v>
+        <v>1926</v>
       </c>
       <c r="B852" t="s">
-        <v>2031</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="853" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
-        <v>1990</v>
+        <v>1927</v>
       </c>
       <c r="B853" t="s">
-        <v>2032</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
-        <v>1991</v>
+        <v>1928</v>
       </c>
       <c r="B854" t="s">
-        <v>2033</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="855" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
-        <v>1992</v>
+        <v>1929</v>
       </c>
       <c r="B855" t="s">
-        <v>2034</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
-        <v>1993</v>
+        <v>1930</v>
       </c>
       <c r="B856" t="s">
-        <v>2035</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="857" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
-        <v>1994</v>
+        <v>1931</v>
       </c>
       <c r="B857" t="s">
-        <v>2036</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="858" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
-        <v>1995</v>
+        <v>1932</v>
       </c>
       <c r="B858" t="s">
-        <v>2037</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="859" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
-        <v>1996</v>
+        <v>1933</v>
       </c>
       <c r="B859" t="s">
-        <v>2038</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
-        <v>1997</v>
+        <v>1934</v>
       </c>
       <c r="B860" t="s">
-        <v>2039</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="861" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
-        <v>1998</v>
+        <v>1935</v>
       </c>
       <c r="B861" t="s">
-        <v>2040</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
-        <v>1999</v>
+        <v>1936</v>
       </c>
       <c r="B862" t="s">
-        <v>2041</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="863" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
-        <v>2000</v>
+        <v>1937</v>
       </c>
       <c r="B863" t="s">
-        <v>2042</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
-        <v>2001</v>
+        <v>1938</v>
       </c>
       <c r="B864" t="s">
-        <v>2043</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
-        <v>2002</v>
+        <v>1939</v>
       </c>
       <c r="B865" t="s">
-        <v>2044</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
-        <v>2003</v>
+        <v>1940</v>
       </c>
       <c r="B866" t="s">
-        <v>2045</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="867" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
-        <v>2004</v>
+        <v>1941</v>
       </c>
       <c r="B867" t="s">
-        <v>2046</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
-        <v>2005</v>
+        <v>1942</v>
       </c>
       <c r="B868" t="s">
-        <v>2047</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="869" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
-        <v>2006</v>
+        <v>1943</v>
       </c>
       <c r="B869" t="s">
-        <v>2048</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="870" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
-        <v>2007</v>
+        <v>1944</v>
       </c>
       <c r="B870" t="s">
-        <v>2049</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="871" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A871" s="3" t="s">
-        <v>2050</v>
+        <v>1987</v>
       </c>
       <c r="B871" t="s">
         <v>1580</v>
@@ -14984,7 +15817,7 @@
     </row>
     <row r="872" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A872" s="3" t="s">
-        <v>2051</v>
+        <v>1988</v>
       </c>
       <c r="B872" t="s">
         <v>12</v>
@@ -14992,31 +15825,31 @@
     </row>
     <row r="873" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
-        <v>2052</v>
+        <v>1989</v>
       </c>
       <c r="B873" t="s">
-        <v>2055</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A874" s="3" t="s">
-        <v>2053</v>
+        <v>1990</v>
       </c>
       <c r="B874" t="s">
-        <v>2056</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
-        <v>2054</v>
+        <v>1991</v>
       </c>
       <c r="B875" t="s">
-        <v>2057</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A876" s="3" t="s">
-        <v>2058</v>
+        <v>1995</v>
       </c>
       <c r="B876" t="s">
         <v>12</v>
@@ -15027,7 +15860,7 @@
         <v>1581</v>
       </c>
       <c r="B877" t="s">
-        <v>2059</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -15035,7 +15868,7 @@
         <v>1582</v>
       </c>
       <c r="B878" t="s">
-        <v>2060</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -15043,7 +15876,7 @@
         <v>1583</v>
       </c>
       <c r="B879" t="s">
-        <v>2061</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="880" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -15056,277 +15889,277 @@
     </row>
     <row r="881" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
-        <v>2062</v>
+        <v>1999</v>
       </c>
       <c r="B881" t="s">
-        <v>2063</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="882" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A882" s="3" t="s">
-        <v>2064</v>
+        <v>2001</v>
       </c>
       <c r="B882" t="s">
-        <v>2096</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="883" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
-        <v>2066</v>
+        <v>2003</v>
       </c>
       <c r="B883" t="s">
-        <v>2097</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="884" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
-        <v>2065</v>
+        <v>2002</v>
       </c>
       <c r="B884" t="s">
-        <v>2098</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
-        <v>2067</v>
+        <v>2004</v>
       </c>
       <c r="B885" t="s">
-        <v>2099</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="886" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
-        <v>2068</v>
+        <v>2005</v>
       </c>
       <c r="B886" t="s">
-        <v>2100</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="887" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
-        <v>2069</v>
+        <v>2006</v>
       </c>
       <c r="B887" t="s">
-        <v>2101</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="888" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
-        <v>2070</v>
+        <v>2007</v>
       </c>
       <c r="B888" t="s">
-        <v>2102</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
-        <v>2071</v>
+        <v>2008</v>
       </c>
       <c r="B889" t="s">
-        <v>2103</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
-        <v>2072</v>
+        <v>2009</v>
       </c>
       <c r="B890" t="s">
-        <v>2104</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="891" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
-        <v>2073</v>
+        <v>2010</v>
       </c>
       <c r="B891" t="s">
-        <v>2105</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="892" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
-        <v>2074</v>
+        <v>2011</v>
       </c>
       <c r="B892" t="s">
-        <v>2106</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="893" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
-        <v>2075</v>
+        <v>2012</v>
       </c>
       <c r="B893" t="s">
-        <v>2107</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
-        <v>2076</v>
+        <v>2013</v>
       </c>
       <c r="B894" t="s">
-        <v>2108</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="895" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
-        <v>2077</v>
+        <v>2014</v>
       </c>
       <c r="B895" t="s">
-        <v>2109</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
-        <v>2078</v>
+        <v>2015</v>
       </c>
       <c r="B896" t="s">
-        <v>2110</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
-        <v>2079</v>
+        <v>2016</v>
       </c>
       <c r="B897" t="s">
-        <v>2111</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="898" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
-        <v>2080</v>
+        <v>2017</v>
       </c>
       <c r="B898" t="s">
-        <v>2112</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
-        <v>2081</v>
+        <v>2018</v>
       </c>
       <c r="B899" t="s">
-        <v>2113</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="900" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
-        <v>2082</v>
+        <v>2019</v>
       </c>
       <c r="B900" t="s">
-        <v>2114</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
-        <v>2083</v>
+        <v>2020</v>
       </c>
       <c r="B901" t="s">
-        <v>2115</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
-        <v>2084</v>
+        <v>2021</v>
       </c>
       <c r="B902" t="s">
-        <v>2116</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
-        <v>2085</v>
+        <v>2022</v>
       </c>
       <c r="B903" t="s">
-        <v>2117</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="904" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
-        <v>2086</v>
+        <v>2023</v>
       </c>
       <c r="B904" t="s">
-        <v>2118</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="905" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
-        <v>2087</v>
+        <v>2024</v>
       </c>
       <c r="B905" t="s">
-        <v>2120</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
-        <v>2088</v>
+        <v>2025</v>
       </c>
       <c r="B906" t="s">
-        <v>2119</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
-        <v>2089</v>
+        <v>2026</v>
       </c>
       <c r="B907" t="s">
-        <v>2121</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="908" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
-        <v>2090</v>
+        <v>2027</v>
       </c>
       <c r="B908" t="s">
-        <v>2122</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="909" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
-        <v>2091</v>
+        <v>2028</v>
       </c>
       <c r="B909" t="s">
-        <v>2123</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
-        <v>2092</v>
+        <v>2029</v>
       </c>
       <c r="B910" t="s">
-        <v>2124</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
-        <v>2093</v>
+        <v>2030</v>
       </c>
       <c r="B911" t="s">
-        <v>2125</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
-        <v>2094</v>
+        <v>2031</v>
       </c>
       <c r="B912" t="s">
-        <v>2126</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
-        <v>2095</v>
+        <v>2032</v>
       </c>
       <c r="B913" t="s">
-        <v>2127</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A914" s="3" t="s">
-        <v>2128</v>
+        <v>2065</v>
       </c>
       <c r="B914" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="915" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
         <v>1585</v>
       </c>
@@ -15334,7 +16167,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="916" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
         <v>1587</v>
       </c>
@@ -15342,7 +16175,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="917" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
         <v>1589</v>
       </c>
@@ -15350,7 +16183,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="918" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
         <v>1591</v>
       </c>
@@ -15358,7 +16191,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="919" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
         <v>1593</v>
       </c>
@@ -15366,7 +16199,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="920" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
         <v>1595</v>
       </c>
@@ -15392,1242 +16225,2346 @@
     </row>
     <row r="923" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
-        <v>2129</v>
+        <v>2066</v>
       </c>
       <c r="B923" t="s">
-        <v>2131</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="924" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
-        <v>2130</v>
+        <v>2067</v>
       </c>
       <c r="B924" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
-        <v>1600</v>
+        <v>2070</v>
       </c>
       <c r="B925" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A926" s="3"/>
-    </row>
-    <row r="927" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A926" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B926" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
-        <v>1602</v>
+        <v>2072</v>
       </c>
       <c r="B927" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="928" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
-        <v>1604</v>
+        <v>2073</v>
       </c>
       <c r="B928" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
-        <v>1606</v>
+        <v>2074</v>
       </c>
       <c r="B929" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
-        <v>1608</v>
+        <v>2075</v>
       </c>
       <c r="B930" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
-        <v>1610</v>
+        <v>2076</v>
       </c>
       <c r="B931" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A932" s="3" t="s">
-        <v>1612</v>
+        <v>2077</v>
       </c>
       <c r="B932" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
-        <v>1614</v>
+        <v>2078</v>
       </c>
       <c r="B933" t="s">
-        <v>1615</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A934" s="3" t="s">
-        <v>1616</v>
+        <v>2084</v>
       </c>
       <c r="B934" t="s">
-        <v>1617</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="935" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A935" s="3" t="s">
-        <v>1618</v>
+        <v>2085</v>
       </c>
       <c r="B935" t="s">
-        <v>1619</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A936" s="3" t="s">
-        <v>1620</v>
+        <v>2086</v>
       </c>
       <c r="B936" t="s">
-        <v>1621</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="937" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A937" s="3" t="s">
-        <v>1622</v>
+        <v>2087</v>
       </c>
       <c r="B937" t="s">
-        <v>1623</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="938" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A938" s="3" t="s">
-        <v>1624</v>
+        <v>2088</v>
       </c>
       <c r="B938" t="s">
-        <v>1625</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="939" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A939" s="3" t="s">
-        <v>1626</v>
+        <v>2089</v>
       </c>
       <c r="B939" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A940" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B940" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A941" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B941" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A942" s="7" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B942" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A943" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B943" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A944" s="7" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A945" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B945" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A946" s="7" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B946" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A947" s="7" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A948" s="7" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A949" s="7" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A950" s="7" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B950" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A951" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A952" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B952" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A953" s="7" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B953" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A954" s="7" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B954" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A955" s="7" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B955" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A956" s="7" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B956" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A957" s="7" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A958" s="7" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A959" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A960" s="7" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A961" s="7" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A962" s="7" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B962" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A963" s="7" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A964" s="7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B964" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A965" s="7" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B965" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A966" s="7" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B966" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A967" s="7" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B967" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A968" s="7" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B968" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A969" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B969" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A970" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B970" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A971" s="7" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B971" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A972" s="7" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B972" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A973" s="7" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B973" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A974" s="7" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B974" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A975" s="7" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B975" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A976" s="7" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B976" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A977" s="7" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B977" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A978" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B978" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A979" s="7" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B979" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A980" s="7" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B980" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A981" s="7" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B981" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A982" s="7" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B982" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A983" s="7" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B983" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A984" s="7" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A985" s="7" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B985" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A986" s="7" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B986" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A987" s="7" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B987" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A988" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B988" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A989" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A990" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A991" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A992" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A993" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A994" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B994" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="940" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A940" s="3" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A941" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B941" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A942" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A943" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B943" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A944" s="3" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B944" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A945" s="3" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B945" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A946" s="3" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B946" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A947" s="3" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B947" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A948" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B948" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A949" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A950" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A951" s="3" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A952" s="3" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A953" s="3" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B953" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A954" s="3" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B954" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A955" s="3" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B955" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A956" s="3" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A957" s="3" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A958" s="3" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A959" s="3" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A960" s="3" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A961" s="3" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B961" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A962" s="3" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B962" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A963" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B963" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A964" s="3" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B964" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A965" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A966" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A967" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B967" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A968" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A969" s="3" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A970" s="3" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A971" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A972" s="3" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A973" s="3" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A974" s="3" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A975" s="3" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A976" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B976" s="12" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A977" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B977" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A978" s="3" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B978" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A979" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A980" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B980" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A981" s="3" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B981" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A982" s="3" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B982" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A983" s="3" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B983" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A984" s="3" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A985" s="3" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B985" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A986" s="3" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A987" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B987" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="988" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A988" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A989" s="3" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A990" s="3" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B990" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A991" s="3" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B991" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A992" s="3" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A993" s="3" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B993" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A994" s="3" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B994" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A995" s="3" t="s">
-        <v>1727</v>
+        <v>2198</v>
       </c>
       <c r="B995" t="s">
-        <v>1728</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="996" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A996" s="3" t="s">
-        <v>1729</v>
+        <v>2200</v>
       </c>
       <c r="B996" t="s">
-        <v>12</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A997" s="3" t="s">
-        <v>1730</v>
+        <v>2202</v>
       </c>
       <c r="B997" t="s">
-        <v>1731</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="998" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A998" s="3" t="s">
-        <v>1732</v>
+        <v>2203</v>
       </c>
       <c r="B998" t="s">
-        <v>1733</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="999" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A999" s="3" t="s">
-        <v>1734</v>
+        <v>2204</v>
       </c>
       <c r="B999" t="s">
-        <v>1735</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1000" s="3" t="s">
-        <v>1736</v>
+        <v>2205</v>
       </c>
       <c r="B1000" t="s">
-        <v>1737</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1001" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1001" s="3" t="s">
-        <v>1738</v>
+        <v>2201</v>
       </c>
       <c r="B1001" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1002" s="3" t="s">
-        <v>1739</v>
+        <v>2206</v>
       </c>
       <c r="B1002" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1003" s="3" t="s">
-        <v>1741</v>
+        <v>2207</v>
       </c>
       <c r="B1003" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1004" s="3" t="s">
-        <v>1743</v>
+        <v>2208</v>
       </c>
       <c r="B1004" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1005" s="3" t="s">
-        <v>1745</v>
+        <v>2209</v>
       </c>
       <c r="B1005" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1006" s="3" t="s">
-        <v>1747</v>
+        <v>2210</v>
       </c>
       <c r="B1006" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1007" s="3" t="s">
-        <v>1749</v>
+        <v>2211</v>
       </c>
       <c r="B1007" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1008" s="3" t="s">
-        <v>1751</v>
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1008" s="7" t="s">
+        <v>2212</v>
       </c>
       <c r="B1008" t="s">
-        <v>12</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1009" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1009" s="3" t="s">
-        <v>1752</v>
+      <c r="A1009" s="7" t="s">
+        <v>2213</v>
       </c>
       <c r="B1009" t="s">
-        <v>1753</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1010" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1010" s="3" t="s">
-        <v>1754</v>
+      <c r="A1010" s="7" t="s">
+        <v>2214</v>
       </c>
       <c r="B1010" t="s">
-        <v>1755</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1011" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1011" s="3" t="s">
-        <v>1756</v>
+      <c r="A1011" s="7" t="s">
+        <v>2215</v>
       </c>
       <c r="B1011" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1012" s="3" t="s">
-        <v>1758</v>
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1012" s="7" t="s">
+        <v>2216</v>
       </c>
       <c r="B1012" t="s">
-        <v>12</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1013" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1013" s="3" t="s">
-        <v>1759</v>
+      <c r="A1013" s="7" t="s">
+        <v>2217</v>
       </c>
       <c r="B1013" t="s">
-        <v>1760</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1014" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1014" s="3" t="s">
-        <v>1761</v>
+      <c r="A1014" s="7" t="s">
+        <v>2218</v>
       </c>
       <c r="B1014" t="s">
-        <v>1762</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1015" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1015" s="3" t="s">
-        <v>1763</v>
+      <c r="A1015" s="7" t="s">
+        <v>2219</v>
       </c>
       <c r="B1015" t="s">
-        <v>1764</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1016" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1016" s="3" t="s">
-        <v>1765</v>
+      <c r="A1016" s="7" t="s">
+        <v>2220</v>
       </c>
       <c r="B1016" t="s">
-        <v>1766</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1017" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1017" s="3" t="s">
-        <v>1767</v>
+      <c r="A1017" s="7" t="s">
+        <v>2221</v>
       </c>
       <c r="B1017" t="s">
-        <v>1768</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1018" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1018" s="3" t="s">
-        <v>1769</v>
+      <c r="A1018" s="7" t="s">
+        <v>2222</v>
       </c>
       <c r="B1018" t="s">
-        <v>1770</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1019" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1019" s="3" t="s">
-        <v>1771</v>
+      <c r="A1019" s="7" t="s">
+        <v>2223</v>
       </c>
       <c r="B1019" t="s">
-        <v>1772</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1020" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1020" s="3" t="s">
-        <v>1773</v>
+      <c r="A1020" s="7" t="s">
+        <v>2224</v>
       </c>
       <c r="B1020" t="s">
-        <v>1774</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1021" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1021" s="3" t="s">
-        <v>1775</v>
+      <c r="A1021" s="7" t="s">
+        <v>2225</v>
       </c>
       <c r="B1021" t="s">
-        <v>1776</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1022" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1022" s="3" t="s">
-        <v>1777</v>
+      <c r="A1022" s="7" t="s">
+        <v>2226</v>
       </c>
       <c r="B1022" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A1023" s="3" t="s">
-        <v>1778</v>
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1023" s="7" t="s">
+        <v>2227</v>
       </c>
       <c r="B1023" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1024" s="3" t="s">
-        <v>1780</v>
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1024" s="7" t="s">
+        <v>2228</v>
       </c>
       <c r="B1024" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1025" s="3" t="s">
-        <v>1782</v>
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1025" s="7" t="s">
+        <v>2229</v>
       </c>
       <c r="B1025" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1026" s="3" t="s">
-        <v>1784</v>
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1026" s="7" t="s">
+        <v>2230</v>
       </c>
       <c r="B1026" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1027" s="3" t="s">
-        <v>1786</v>
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1027" s="7" t="s">
+        <v>2231</v>
       </c>
       <c r="B1027" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1028" s="3" t="s">
-        <v>1788</v>
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1028" s="7" t="s">
+        <v>2232</v>
       </c>
       <c r="B1028" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1029" s="3" t="s">
-        <v>1790</v>
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1029" s="7" t="s">
+        <v>2233</v>
       </c>
       <c r="B1029" t="s">
-        <v>1791</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1030" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1030" s="3" t="s">
-        <v>1792</v>
+      <c r="A1030" s="7" t="s">
+        <v>2234</v>
       </c>
       <c r="B1030" t="s">
-        <v>1793</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1031" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1031" s="3" t="s">
-        <v>1794</v>
+      <c r="A1031" s="7" t="s">
+        <v>2235</v>
       </c>
       <c r="B1031" t="s">
-        <v>1794</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1032" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1032" s="3" t="s">
-        <v>1795</v>
+        <v>1611</v>
       </c>
       <c r="B1032" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1033" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
-        <v>1796</v>
+        <v>1612</v>
       </c>
       <c r="B1033" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1034" s="3" t="s">
-        <v>1797</v>
+        <v>1613</v>
       </c>
       <c r="B1034" t="s">
-        <v>12</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1035" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
-        <v>1798</v>
+        <v>1614</v>
       </c>
       <c r="B1035" t="s">
-        <v>1799</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1036" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1036" s="3" t="s">
-        <v>1800</v>
+        <v>1615</v>
       </c>
       <c r="B1036" t="s">
-        <v>1801</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1037" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1037" s="3" t="s">
-        <v>1802</v>
+        <v>1616</v>
       </c>
       <c r="B1037" t="s">
-        <v>1803</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1038" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1038" s="3" t="s">
-        <v>1804</v>
+        <v>1618</v>
       </c>
       <c r="B1038" t="s">
-        <v>1805</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1039" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1039" s="3" t="s">
-        <v>1806</v>
+        <v>1620</v>
       </c>
       <c r="B1039" t="s">
-        <v>1807</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1040" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1040" s="3" t="s">
-        <v>1808</v>
+        <v>2275</v>
       </c>
       <c r="B1040" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1041" s="3" t="s">
-        <v>1809</v>
+        <v>2277</v>
       </c>
       <c r="B1041" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1042" s="3" t="s">
-        <v>1811</v>
+        <v>2278</v>
       </c>
       <c r="B1042" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1043" s="3" t="s">
-        <v>1813</v>
+        <v>2279</v>
       </c>
       <c r="B1043" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1044" s="3" t="s">
-        <v>1815</v>
+        <v>2280</v>
       </c>
       <c r="B1044" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1045" s="3" t="s">
-        <v>1817</v>
+        <v>2281</v>
       </c>
       <c r="B1045" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1046" s="3" t="s">
-        <v>1819</v>
+        <v>2282</v>
       </c>
       <c r="B1046" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1047" s="3" t="s">
-        <v>1821</v>
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1047" s="7" t="s">
+        <v>2283</v>
       </c>
       <c r="B1047" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1048" s="3" t="s">
-        <v>1823</v>
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1048" s="7" t="s">
+        <v>2284</v>
       </c>
       <c r="B1048" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1049" s="7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1050" s="7" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1051" s="7" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1052" s="7" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1053" s="7" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1054" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1055" s="7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1056" s="7" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1057" s="7" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1058" s="7" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1059" s="7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1060" s="7" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1061" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1062" s="7" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1063" s="7" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1064" s="7" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1065" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1065" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1049" s="3" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1050" s="3" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1051" s="3" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1052" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1053" s="3" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1054" s="3" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1055" s="3" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1056" s="3" t="s">
-        <v>1837</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1057" s="3" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1058" s="3" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1059" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1060" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1061" s="3" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1062" s="3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1063" s="3" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1064" s="3" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1065" s="3" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="1066" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1066" s="3" t="s">
-        <v>1856</v>
+        <v>1621</v>
       </c>
       <c r="B1066" t="s">
-        <v>1857</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1067" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1067" s="3" t="s">
-        <v>1858</v>
+        <v>1623</v>
       </c>
       <c r="B1067" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1068" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1069" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1070" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1070" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="1068" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1068" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1069" s="3" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1070" s="3" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1071" s="3" t="s">
-        <v>1865</v>
+        <v>2327</v>
       </c>
       <c r="B1071" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1072" s="3" t="s">
-        <v>1867</v>
+        <v>2326</v>
       </c>
       <c r="B1072" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1073" s="3" t="s">
-        <v>1869</v>
+        <v>2330</v>
       </c>
       <c r="B1073" t="s">
-        <v>1870</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1074" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1074" s="3" t="s">
-        <v>1871</v>
+        <v>2331</v>
       </c>
       <c r="B1074" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1075" s="1" t="s">
-        <v>1873</v>
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1075" s="3" t="s">
+        <v>2332</v>
       </c>
       <c r="B1075" t="s">
-        <v>1874</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1076" s="3" t="s">
-        <v>1875</v>
+        <v>2333</v>
       </c>
       <c r="B1076" t="s">
-        <v>373</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1077" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1077" s="3" t="s">
-        <v>1876</v>
+        <v>2334</v>
       </c>
       <c r="B1077" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1078" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B1078" s="12" t="s">
-        <v>1878</v>
+        <v>2335</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1079" s="3" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1080" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1081" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1082" s="3" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1083" s="7" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1084" s="7" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1085" s="7" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1086" s="7" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1087" s="7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1088" s="7" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1089" s="7" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1090" s="7" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1091" s="7" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1092" s="7" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1093" s="7" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1094" s="7" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1095" s="7" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1096" s="7" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1097" s="7" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1098" s="7" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1099" s="7" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1100" s="7" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1101" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1102" s="7" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1103" s="7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1104" s="7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1105" s="7" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1106" s="7" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1107" s="7" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1108" s="7" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1109" s="7" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1110" s="7" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1111" s="7" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1112" s="7" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1113" s="3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1113" s="12" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1114" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1115" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1116" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1117" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1118" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1119" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1120" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1121" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1122" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1123" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1124" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1125" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1126" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1127" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1128" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1129" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1130" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1131" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1132" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1133" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1134" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1135" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1136" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1137" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1138" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1139" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1140" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1141" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1142" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1143" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1144" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1145" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1146" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1147" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1148" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1149" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1150" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1151" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1152" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1153" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1154" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1155" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1156" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1157" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1158" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1159" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1160" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1161" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1162" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1163" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1164" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1165" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1166" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1167" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1168" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1169" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1170" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1171" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1172" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1173" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1174" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1175" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1176" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1177" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1178" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1179" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1180" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1181" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1182" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1183" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1184" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1185" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1186" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1187" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1188" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1189" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1190" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1191" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1192" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1193" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1194" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1195" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1196" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1197" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1198" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1199" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1200" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1201" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1202" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1203" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1204" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1205" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1206" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1207" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1208" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1209" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1210" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1211" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1213" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1214" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A1215" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1215" s="12" t="s">
+        <v>1815</v>
       </c>
     </row>
   </sheetData>
@@ -16636,21 +18573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -16821,32 +18743,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33"/>
-    <ds:schemaRef ds:uri="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16865,6 +18777,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33"/>
+    <ds:schemaRef ds:uri="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{14b77578-9773-42d5-8507-251ca2dc2b06}" enabled="0" method="" siteId="{14b77578-9773-42d5-8507-251ca2dc2b06}" removed="1"/>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F12B3-8155-794D-9E51-528BD46B3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A90D2F9-D38F-054C-8978-BE04ACAADC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24920" yWindow="500" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28160" yWindow="500" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="2669">
   <si>
     <t>Question</t>
   </si>
@@ -5077,136 +5077,30 @@
 The central nervous system includes the brain and spinal cord.</t>
   </si>
   <si>
-    <t>Have you ever been evaluated by a neurologist or neurosurgeon?  These are physicians who specialize in the brain and spinal cord.  They diagnose conditions such as seizures, brain tumors, and brain malformations.</t>
-  </si>
-  <si>
     <t>Please provide the information for the neurologist or neurosurgeon who completed your evaluation. Name</t>
   </si>
   <si>
-    <t xml:space="preserve">b ff </t>
-  </si>
-  <si>
     <t>Please provide the information for the neurologist or neurosurgeon who completed your evaluation. Location</t>
   </si>
   <si>
-    <t xml:space="preserve">h gh g </t>
-  </si>
-  <si>
     <t>Please provide the information for the neurologist or neurosurgeon who completed your evaluation.Hospital</t>
   </si>
   <si>
-    <t>gmh,hk,kj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you ever been diagnosed with a structural brain abnormality?  Examples include Chiari 1 malformation, hydrocephalus, tethered spinal cord.  These conditions are often diagnosed using a CT or MRI scan and evaluated by neurosurgeons.  </t>
-  </si>
-  <si>
-    <t>Have you ever been diagnosed with any of the following issues of the brain?
-Please select all that apply. Option 1</t>
-  </si>
-  <si>
     <t>Chiari 1 malformation or cerebellar tonsillar ectopia (when part of the cerebellum, known as the cerebellar tonsils, bulges out of the normal opening at the base of the skull)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following issues of the brain?
-Please select all that apply. Option 2</t>
-  </si>
-  <si>
     <t>Hydrocephalus (extra cerebrospinal fluid, CSF, builds up within the brain)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following issues of the brain?
-Please select all that apply. Option 3</t>
-  </si>
-  <si>
     <t>Syringomyelia (when cerebrospinal fluid, CSF, forms a cyst in your spinal cord, often casued by Chiari malformation)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following issues of the brain?
-Please select all that apply. Option 4</t>
-  </si>
-  <si>
     <t>Tethered spinal cord (when movement of the spinal cord is limited due to a connection with tissue around the spinal column)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following issues of the brain?
-Please select all that apply. Option 5</t>
-  </si>
-  <si>
     <t>Cortical atrophy (when the outer layer of the brain, cortex, deteriorates and may affect memory, thinking, and vision)</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with any of the following issues of the brain?
-Please select all that apply. Option 6</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 1</t>
-  </si>
-  <si>
-    <t>gfjgyjuyky</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 2</t>
-  </si>
-  <si>
-    <t>l895r67i5</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 3</t>
-  </si>
-  <si>
-    <t>t5jny5j</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 4</t>
-  </si>
-  <si>
-    <t>57j65jhy</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 5</t>
-  </si>
-  <si>
-    <t>jtjutn ttmy</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 6</t>
-  </si>
-  <si>
-    <t>tty5uhb4</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 7</t>
-  </si>
-  <si>
-    <t>nteheh54jeaEEFe</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
-Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
-Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 8</t>
-  </si>
-  <si>
-    <t>grtggtgth5h y5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have a history of seizures?  </t>
-  </si>
-  <si>
     <t>Please select all seizure disorders for which you have been diagnosed. Option 1</t>
   </si>
   <si>
@@ -5234,66 +5128,15 @@
     <t>Please select all seizure disorders for which you have been diagnosed. Option 5</t>
   </si>
   <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 1</t>
-  </si>
-  <si>
-    <t>jrjk567jk5</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 2</t>
-  </si>
-  <si>
-    <t>7eynek5</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 3</t>
-  </si>
-  <si>
-    <t>t7i6knryj6u</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 4</t>
-  </si>
-  <si>
-    <t>5ye5u4fghrty</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 5</t>
-  </si>
-  <si>
-    <t>rjrujrj</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 6</t>
-  </si>
-  <si>
-    <t>ryukjyujr</t>
-  </si>
-  <si>
-    <t>Have you ever been evaluated by a psychiatrist, psychologist or behavioral pediatrician?   These medical providers often diagnose conditions such as depression, anxiety, learning difficulties, and developmental disorders.</t>
-  </si>
-  <si>
     <t>Please provide the information listed below for the medical providers who completed your evaluation. Name</t>
   </si>
   <si>
-    <t>gfnfh ng</t>
-  </si>
-  <si>
     <t>Please provide the information listed below for the medical providers who completed your evaluation.Location</t>
   </si>
   <si>
-    <t>h  gjk. G</t>
-  </si>
-  <si>
     <t>Please provide the information listed below for the medical providers who completed your evaluation. Hospital</t>
   </si>
   <si>
-    <t>kghnfngfh yt</t>
-  </si>
-  <si>
-    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Examples include mood disorders (depression), self-harm acts, anxiety, bipolar disorder, autism spectrum disorder, aggression.</t>
-  </si>
-  <si>
     <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 1</t>
   </si>
   <si>
@@ -5349,55 +5192,6 @@
   </si>
   <si>
     <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 1</t>
-  </si>
-  <si>
-    <t>12e1wdqe</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 2</t>
-  </si>
-  <si>
-    <t>ewfwecef</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 3</t>
-  </si>
-  <si>
-    <t>wrt4f24t</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 4</t>
-  </si>
-  <si>
-    <t>5hgvdfvh45</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 5</t>
-  </si>
-  <si>
-    <t>fgh45geb</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 6</t>
-  </si>
-  <si>
-    <t>rhhrbrthjj</t>
-  </si>
-  <si>
-    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 7</t>
-  </si>
-  <si>
-    <t>j776i68i68i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please list and describe any additional neurologic conditions here that were not covered by the previous questions.  </t>
-  </si>
-  <si>
-    <t>dgbdbadafd</t>
   </si>
   <si>
     <t>The next set of questions ask about vision and hearing.</t>
@@ -7441,6 +7235,963 @@
   </si>
   <si>
     <t>The next set of questions ask about conditions associated with the central nervous system.</t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by a neurologist or neurosurgeon?</t>
+  </si>
+  <si>
+    <t>Test725</t>
+  </si>
+  <si>
+    <t>Test726</t>
+  </si>
+  <si>
+    <t>Test727</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a structural brain abnormality?</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain? Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain? Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain? Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain? Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain? Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain? Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain? Please select all that apply. Option 6 Other</t>
+  </si>
+  <si>
+    <t>Test728</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 5 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 6 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 6 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 7 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 7 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Brain Issues Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Test729</t>
+  </si>
+  <si>
+    <t>Test730</t>
+  </si>
+  <si>
+    <t>Test731</t>
+  </si>
+  <si>
+    <t>Test732</t>
+  </si>
+  <si>
+    <t>Test733</t>
+  </si>
+  <si>
+    <t>Test734</t>
+  </si>
+  <si>
+    <t>Test735</t>
+  </si>
+  <si>
+    <t>Test736</t>
+  </si>
+  <si>
+    <t>Test737</t>
+  </si>
+  <si>
+    <t>Test738</t>
+  </si>
+  <si>
+    <t>Test739</t>
+  </si>
+  <si>
+    <t>Test740</t>
+  </si>
+  <si>
+    <t>Test741</t>
+  </si>
+  <si>
+    <t>Test742</t>
+  </si>
+  <si>
+    <t>Test743</t>
+  </si>
+  <si>
+    <t>Test744</t>
+  </si>
+  <si>
+    <t>Test745</t>
+  </si>
+  <si>
+    <t>Test746</t>
+  </si>
+  <si>
+    <t>Test747</t>
+  </si>
+  <si>
+    <t>Test748</t>
+  </si>
+  <si>
+    <t>Test749</t>
+  </si>
+  <si>
+    <t>Test750</t>
+  </si>
+  <si>
+    <t>Test751</t>
+  </si>
+  <si>
+    <t>Test752</t>
+  </si>
+  <si>
+    <t>Test753</t>
+  </si>
+  <si>
+    <t>Test754</t>
+  </si>
+  <si>
+    <t>Test755</t>
+  </si>
+  <si>
+    <t>Test756</t>
+  </si>
+  <si>
+    <t>Test757</t>
+  </si>
+  <si>
+    <t>Test758</t>
+  </si>
+  <si>
+    <t>Test759</t>
+  </si>
+  <si>
+    <t>Test760</t>
+  </si>
+  <si>
+    <t>Test761</t>
+  </si>
+  <si>
+    <t>Test762</t>
+  </si>
+  <si>
+    <t>Test763</t>
+  </si>
+  <si>
+    <t>Test764</t>
+  </si>
+  <si>
+    <t>Test765</t>
+  </si>
+  <si>
+    <t>Test766</t>
+  </si>
+  <si>
+    <t>Test767</t>
+  </si>
+  <si>
+    <t>Test768</t>
+  </si>
+  <si>
+    <t>Test769</t>
+  </si>
+  <si>
+    <t>Test770</t>
+  </si>
+  <si>
+    <t>Do you have a history of seizures?</t>
+  </si>
+  <si>
+    <t>Please select all seizure disorders for which you have been diagnosed. Option 5 Other</t>
+  </si>
+  <si>
+    <t>Test771</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 6 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed. Seizure Disorders Column 7 Option 5</t>
+  </si>
+  <si>
+    <t>Test772</t>
+  </si>
+  <si>
+    <t>Test773</t>
+  </si>
+  <si>
+    <t>Test774</t>
+  </si>
+  <si>
+    <t>Test775</t>
+  </si>
+  <si>
+    <t>Test776</t>
+  </si>
+  <si>
+    <t>Test777</t>
+  </si>
+  <si>
+    <t>Test778</t>
+  </si>
+  <si>
+    <t>Test779</t>
+  </si>
+  <si>
+    <t>Test780</t>
+  </si>
+  <si>
+    <t>Test781</t>
+  </si>
+  <si>
+    <t>Test782</t>
+  </si>
+  <si>
+    <t>Test783</t>
+  </si>
+  <si>
+    <t>Test784</t>
+  </si>
+  <si>
+    <t>Test785</t>
+  </si>
+  <si>
+    <t>Test786</t>
+  </si>
+  <si>
+    <t>Test787</t>
+  </si>
+  <si>
+    <t>Test788</t>
+  </si>
+  <si>
+    <t>Test789</t>
+  </si>
+  <si>
+    <t>Test790</t>
+  </si>
+  <si>
+    <t>Test791</t>
+  </si>
+  <si>
+    <t>Test792</t>
+  </si>
+  <si>
+    <t>Test793</t>
+  </si>
+  <si>
+    <t>Test794</t>
+  </si>
+  <si>
+    <t>Test795</t>
+  </si>
+  <si>
+    <t>Test796</t>
+  </si>
+  <si>
+    <t>Test797</t>
+  </si>
+  <si>
+    <t>Test798</t>
+  </si>
+  <si>
+    <t>Test799</t>
+  </si>
+  <si>
+    <t>Test800</t>
+  </si>
+  <si>
+    <t>Test801</t>
+  </si>
+  <si>
+    <t>Test802</t>
+  </si>
+  <si>
+    <t>Test803</t>
+  </si>
+  <si>
+    <t>Test804</t>
+  </si>
+  <si>
+    <t>Test805</t>
+  </si>
+  <si>
+    <t>Test806</t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by a psychiatrist, psychologist or behavioral pediatrician?</t>
+  </si>
+  <si>
+    <t>Test807</t>
+  </si>
+  <si>
+    <t>Test808</t>
+  </si>
+  <si>
+    <t>Test809</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 10 Other</t>
+  </si>
+  <si>
+    <t>Test810</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 9</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 1 Option 10</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 10</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 9</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 10</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 9</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 9</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 4 Option 10</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 10</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 9</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 9</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 6 Option 10</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 8</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 9</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and psychiatric conditions listed.  Column 7 Option 10</t>
+  </si>
+  <si>
+    <t>Test811</t>
+  </si>
+  <si>
+    <t>Test812</t>
+  </si>
+  <si>
+    <t>Test813</t>
+  </si>
+  <si>
+    <t>Test814</t>
+  </si>
+  <si>
+    <t>Test815</t>
+  </si>
+  <si>
+    <t>Test816</t>
+  </si>
+  <si>
+    <t>Test817</t>
+  </si>
+  <si>
+    <t>Test818</t>
+  </si>
+  <si>
+    <t>Test819</t>
+  </si>
+  <si>
+    <t>Test820</t>
+  </si>
+  <si>
+    <t>Test821</t>
+  </si>
+  <si>
+    <t>Test822</t>
+  </si>
+  <si>
+    <t>Test823</t>
+  </si>
+  <si>
+    <t>Test824</t>
+  </si>
+  <si>
+    <t>Test825</t>
+  </si>
+  <si>
+    <t>Test826</t>
+  </si>
+  <si>
+    <t>Test827</t>
+  </si>
+  <si>
+    <t>Test828</t>
+  </si>
+  <si>
+    <t>Test829</t>
+  </si>
+  <si>
+    <t>Test830</t>
+  </si>
+  <si>
+    <t>Test831</t>
+  </si>
+  <si>
+    <t>Test832</t>
+  </si>
+  <si>
+    <t>Test833</t>
+  </si>
+  <si>
+    <t>Test834</t>
+  </si>
+  <si>
+    <t>Test835</t>
+  </si>
+  <si>
+    <t>Test836</t>
+  </si>
+  <si>
+    <t>Test837</t>
+  </si>
+  <si>
+    <t>Test838</t>
+  </si>
+  <si>
+    <t>Test839</t>
+  </si>
+  <si>
+    <t>Test840</t>
+  </si>
+  <si>
+    <t>Test841</t>
+  </si>
+  <si>
+    <t>Test842</t>
+  </si>
+  <si>
+    <t>Test843</t>
+  </si>
+  <si>
+    <t>Test844</t>
+  </si>
+  <si>
+    <t>Test845</t>
+  </si>
+  <si>
+    <t>Test846</t>
+  </si>
+  <si>
+    <t>Test847</t>
+  </si>
+  <si>
+    <t>Test848</t>
+  </si>
+  <si>
+    <t>Test849</t>
+  </si>
+  <si>
+    <t>Test850</t>
+  </si>
+  <si>
+    <t>Test851</t>
+  </si>
+  <si>
+    <t>Test852</t>
+  </si>
+  <si>
+    <t>Test853</t>
+  </si>
+  <si>
+    <t>Test854</t>
+  </si>
+  <si>
+    <t>Test855</t>
+  </si>
+  <si>
+    <t>Test856</t>
+  </si>
+  <si>
+    <t>Test857</t>
+  </si>
+  <si>
+    <t>Test858</t>
+  </si>
+  <si>
+    <t>Test859</t>
+  </si>
+  <si>
+    <t>Test860</t>
+  </si>
+  <si>
+    <t>Test861</t>
+  </si>
+  <si>
+    <t>Test862</t>
+  </si>
+  <si>
+    <t>Test863</t>
+  </si>
+  <si>
+    <t>Test864</t>
+  </si>
+  <si>
+    <t>Test865</t>
+  </si>
+  <si>
+    <t>Test866</t>
+  </si>
+  <si>
+    <t>Test867</t>
+  </si>
+  <si>
+    <t>Test868</t>
+  </si>
+  <si>
+    <t>Test869</t>
+  </si>
+  <si>
+    <t>Test870</t>
+  </si>
+  <si>
+    <t>Test871</t>
+  </si>
+  <si>
+    <t>Test872</t>
+  </si>
+  <si>
+    <t>Test873</t>
+  </si>
+  <si>
+    <t>Test874</t>
+  </si>
+  <si>
+    <t>Test875</t>
+  </si>
+  <si>
+    <t>Test876</t>
+  </si>
+  <si>
+    <t>Test877</t>
+  </si>
+  <si>
+    <t>Test878</t>
+  </si>
+  <si>
+    <t>Test879</t>
+  </si>
+  <si>
+    <t>Test880</t>
+  </si>
+  <si>
+    <t>Test881</t>
+  </si>
+  <si>
+    <t>Please list and describe any additional neurologic conditions here that were not covered by the previous questions.</t>
   </si>
 </sst>
 </file>
@@ -8856,10 +9607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF90E83-6BB8-1941-861C-D1AD2F062745}">
-  <dimension ref="A1:B1215"/>
+  <dimension ref="A1:B1344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1073" workbookViewId="0">
-      <selection activeCell="A1113" sqref="A1113"/>
+    <sheetView tabSelected="1" topLeftCell="A1092" workbookViewId="0">
+      <selection activeCell="A1125" sqref="A1125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9060,7 +9811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>238</v>
       </c>
@@ -9068,7 +9819,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>240</v>
       </c>
@@ -9076,7 +9827,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>242</v>
       </c>
@@ -9084,7 +9835,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>244</v>
       </c>
@@ -9092,7 +9843,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>246</v>
       </c>
@@ -9100,7 +9851,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>248</v>
       </c>
@@ -9108,7 +9859,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>250</v>
       </c>
@@ -9116,7 +9867,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>252</v>
       </c>
@@ -9124,7 +9875,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>254</v>
       </c>
@@ -9132,7 +9883,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>256</v>
       </c>
@@ -9140,7 +9891,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>258</v>
       </c>
@@ -9148,7 +9899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>259</v>
       </c>
@@ -9156,7 +9907,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>260</v>
       </c>
@@ -9988,7 +10739,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>430</v>
       </c>
@@ -10036,7 +10787,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>438</v>
       </c>
@@ -10044,7 +10795,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>440</v>
       </c>
@@ -10070,13 +10821,13 @@
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>1816</v>
+        <v>1755</v>
       </c>
       <c r="B151" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>444</v>
       </c>
@@ -10220,7 +10971,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>474</v>
       </c>
@@ -10382,7 +11133,7 @@
         <v>507</v>
       </c>
       <c r="B190" t="s">
-        <v>1818</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -10417,7 +11168,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>515</v>
       </c>
@@ -10425,7 +11176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>516</v>
       </c>
@@ -10433,7 +11184,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>518</v>
       </c>
@@ -10441,7 +11192,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>520</v>
       </c>
@@ -10449,7 +11200,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>522</v>
       </c>
@@ -10457,7 +11208,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>524</v>
       </c>
@@ -10465,7 +11216,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>526</v>
       </c>
@@ -10473,7 +11224,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>527</v>
       </c>
@@ -10569,7 +11320,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>551</v>
       </c>
@@ -10577,7 +11328,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>553</v>
       </c>
@@ -10585,7 +11336,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>555</v>
       </c>
@@ -10593,7 +11344,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>557</v>
       </c>
@@ -10601,7 +11352,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>559</v>
       </c>
@@ -10609,7 +11360,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>561</v>
       </c>
@@ -10617,7 +11368,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>563</v>
       </c>
@@ -10625,7 +11376,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>565</v>
       </c>
@@ -10633,7 +11384,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>567</v>
       </c>
@@ -10641,7 +11392,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>569</v>
       </c>
@@ -10649,7 +11400,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>571</v>
       </c>
@@ -10657,7 +11408,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>573</v>
       </c>
@@ -10665,7 +11416,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>575</v>
       </c>
@@ -10673,7 +11424,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>577</v>
       </c>
@@ -10681,7 +11432,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>579</v>
       </c>
@@ -10689,7 +11440,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>581</v>
       </c>
@@ -10697,7 +11448,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>583</v>
       </c>
@@ -10705,7 +11456,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>585</v>
       </c>
@@ -10713,7 +11464,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>587</v>
       </c>
@@ -10721,7 +11472,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>589</v>
       </c>
@@ -10729,7 +11480,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>591</v>
       </c>
@@ -10737,7 +11488,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>593</v>
       </c>
@@ -10833,7 +11584,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>617</v>
       </c>
@@ -10841,7 +11592,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>619</v>
       </c>
@@ -10849,7 +11600,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>621</v>
       </c>
@@ -10857,7 +11608,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>623</v>
       </c>
@@ -10865,7 +11616,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>625</v>
       </c>
@@ -10873,7 +11624,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>627</v>
       </c>
@@ -10881,7 +11632,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>629</v>
       </c>
@@ -10889,7 +11640,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>631</v>
       </c>
@@ -10897,7 +11648,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>633</v>
       </c>
@@ -10905,7 +11656,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>635</v>
       </c>
@@ -10913,7 +11664,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>637</v>
       </c>
@@ -10921,7 +11672,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>639</v>
       </c>
@@ -10929,7 +11680,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>641</v>
       </c>
@@ -10937,7 +11688,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>643</v>
       </c>
@@ -10945,7 +11696,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>645</v>
       </c>
@@ -10953,7 +11704,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>647</v>
       </c>
@@ -10961,7 +11712,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>649</v>
       </c>
@@ -10969,7 +11720,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>651</v>
       </c>
@@ -10977,7 +11728,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>653</v>
       </c>
@@ -10985,7 +11736,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>655</v>
       </c>
@@ -10993,7 +11744,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>657</v>
       </c>
@@ -11001,7 +11752,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>659</v>
       </c>
@@ -11009,7 +11760,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>661</v>
       </c>
@@ -11017,7 +11768,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>663</v>
       </c>
@@ -11025,7 +11776,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>665</v>
       </c>
@@ -11033,7 +11784,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>667</v>
       </c>
@@ -11041,7 +11792,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>669</v>
       </c>
@@ -11049,7 +11800,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>671</v>
       </c>
@@ -11057,7 +11808,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>673</v>
       </c>
@@ -11065,7 +11816,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>675</v>
       </c>
@@ -11073,7 +11824,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>677</v>
       </c>
@@ -11081,7 +11832,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>679</v>
       </c>
@@ -11089,7 +11840,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>681</v>
       </c>
@@ -11185,7 +11936,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>705</v>
       </c>
@@ -11193,7 +11944,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>707</v>
       </c>
@@ -11201,7 +11952,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>709</v>
       </c>
@@ -11209,7 +11960,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>711</v>
       </c>
@@ -11217,7 +11968,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>713</v>
       </c>
@@ -11225,7 +11976,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>715</v>
       </c>
@@ -11233,7 +11984,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>717</v>
       </c>
@@ -11241,7 +11992,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>718</v>
       </c>
@@ -11249,7 +12000,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>719</v>
       </c>
@@ -11329,7 +12080,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>737</v>
       </c>
@@ -11337,7 +12088,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>739</v>
       </c>
@@ -11345,7 +12096,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>741</v>
       </c>
@@ -11353,7 +12104,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>743</v>
       </c>
@@ -11361,7 +12112,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>745</v>
       </c>
@@ -11369,7 +12120,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>747</v>
       </c>
@@ -11377,7 +12128,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>749</v>
       </c>
@@ -11385,7 +12136,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>751</v>
       </c>
@@ -11393,7 +12144,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>753</v>
       </c>
@@ -11401,7 +12152,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>755</v>
       </c>
@@ -11409,7 +12160,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>757</v>
       </c>
@@ -11417,7 +12168,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>759</v>
       </c>
@@ -11425,7 +12176,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>761</v>
       </c>
@@ -11433,7 +12184,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>763</v>
       </c>
@@ -11441,7 +12192,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>765</v>
       </c>
@@ -11449,7 +12200,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>767</v>
       </c>
@@ -11457,7 +12208,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>769</v>
       </c>
@@ -11465,7 +12216,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>771</v>
       </c>
@@ -11473,7 +12224,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>773</v>
       </c>
@@ -11481,7 +12232,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>775</v>
       </c>
@@ -11489,7 +12240,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>777</v>
       </c>
@@ -11497,7 +12248,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>779</v>
       </c>
@@ -11505,7 +12256,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>781</v>
       </c>
@@ -11513,7 +12264,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>783</v>
       </c>
@@ -11521,7 +12272,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>785</v>
       </c>
@@ -11529,7 +12280,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>787</v>
       </c>
@@ -11537,7 +12288,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>789</v>
       </c>
@@ -11545,7 +12296,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>791</v>
       </c>
@@ -11553,7 +12304,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>793</v>
       </c>
@@ -11561,7 +12312,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>795</v>
       </c>
@@ -11569,7 +12320,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>797</v>
       </c>
@@ -11577,7 +12328,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>799</v>
       </c>
@@ -11593,7 +12344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>802</v>
       </c>
@@ -11601,7 +12352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>803</v>
       </c>
@@ -11609,7 +12360,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>805</v>
       </c>
@@ -11617,7 +12368,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>807</v>
       </c>
@@ -11625,7 +12376,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>809</v>
       </c>
@@ -11633,7 +12384,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>811</v>
       </c>
@@ -11641,7 +12392,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>813</v>
       </c>
@@ -11649,7 +12400,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>815</v>
       </c>
@@ -11657,7 +12408,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>817</v>
       </c>
@@ -11665,7 +12416,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>819</v>
       </c>
@@ -11673,7 +12424,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>821</v>
       </c>
@@ -11681,7 +12432,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>823</v>
       </c>
@@ -11689,7 +12440,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>825</v>
       </c>
@@ -11697,7 +12448,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>827</v>
       </c>
@@ -11705,7 +12456,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>829</v>
       </c>
@@ -11713,7 +12464,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>831</v>
       </c>
@@ -11721,7 +12472,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>833</v>
       </c>
@@ -11729,7 +12480,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>835</v>
       </c>
@@ -11737,7 +12488,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>837</v>
       </c>
@@ -11745,7 +12496,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>839</v>
       </c>
@@ -11753,7 +12504,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>841</v>
       </c>
@@ -11761,7 +12512,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>843</v>
       </c>
@@ -11769,7 +12520,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>845</v>
       </c>
@@ -11777,7 +12528,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>847</v>
       </c>
@@ -11785,7 +12536,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>849</v>
       </c>
@@ -11793,7 +12544,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>851</v>
       </c>
@@ -11801,7 +12552,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>853</v>
       </c>
@@ -11809,7 +12560,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>855</v>
       </c>
@@ -11817,7 +12568,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>857</v>
       </c>
@@ -11825,7 +12576,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>859</v>
       </c>
@@ -11833,7 +12584,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>861</v>
       </c>
@@ -11841,7 +12592,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>863</v>
       </c>
@@ -11849,7 +12600,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>865</v>
       </c>
@@ -11857,7 +12608,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>867</v>
       </c>
@@ -11865,7 +12616,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>869</v>
       </c>
@@ -11873,7 +12624,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>871</v>
       </c>
@@ -11881,7 +12632,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>873</v>
       </c>
@@ -11889,7 +12640,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>875</v>
       </c>
@@ -11905,7 +12656,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>878</v>
       </c>
@@ -12001,7 +12752,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>899</v>
       </c>
@@ -12033,7 +12784,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>906</v>
       </c>
@@ -12334,7 +13085,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>975</v>
       </c>
@@ -13783,7 +14534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>1294</v>
       </c>
@@ -13791,7 +14542,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>1295</v>
       </c>
@@ -13991,7 +14742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>1325</v>
       </c>
@@ -13999,7 +14750,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>1327</v>
       </c>
@@ -14007,7 +14758,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>1329</v>
       </c>
@@ -14015,7 +14766,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>1331</v>
       </c>
@@ -14023,7 +14774,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>1333</v>
       </c>
@@ -14031,7 +14782,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>1335</v>
       </c>
@@ -14039,7 +14790,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>1337</v>
       </c>
@@ -14047,7 +14798,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>1338</v>
       </c>
@@ -14543,7 +15294,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>1459</v>
       </c>
@@ -14857,7 +15608,7 @@
     </row>
     <row r="752" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1819</v>
+        <v>1758</v>
       </c>
       <c r="B752" t="s">
         <v>12</v>
@@ -14868,7 +15619,7 @@
         <v>1524</v>
       </c>
       <c r="B753" t="s">
-        <v>1820</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14876,7 +15627,7 @@
         <v>1525</v>
       </c>
       <c r="B754" t="s">
-        <v>1821</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14884,7 +15635,7 @@
         <v>1526</v>
       </c>
       <c r="B755" t="s">
-        <v>1822</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14945,10 +15696,10 @@
     </row>
     <row r="763" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1823</v>
+        <v>1762</v>
       </c>
       <c r="B763" t="s">
-        <v>1824</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14969,10 +15720,10 @@
     </row>
     <row r="766" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1829</v>
+        <v>1768</v>
       </c>
       <c r="B766" t="s">
-        <v>1832</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -14985,15 +15736,15 @@
     </row>
     <row r="768" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1830</v>
+        <v>1769</v>
       </c>
       <c r="B768" t="s">
-        <v>1831</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1825</v>
+        <v>1764</v>
       </c>
       <c r="B769" t="s">
         <v>1543</v>
@@ -15041,15 +15792,15 @@
     </row>
     <row r="775" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1827</v>
+        <v>1766</v>
       </c>
       <c r="B775" t="s">
-        <v>1828</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
-        <v>1826</v>
+        <v>1765</v>
       </c>
       <c r="B776" s="12" t="s">
         <v>1553</v>
@@ -15057,7 +15808,7 @@
     </row>
     <row r="777" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
-        <v>1833</v>
+        <v>1772</v>
       </c>
       <c r="B777" t="s">
         <v>12</v>
@@ -15068,7 +15819,7 @@
         <v>1554</v>
       </c>
       <c r="B778" t="s">
-        <v>1834</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -15076,7 +15827,7 @@
         <v>1555</v>
       </c>
       <c r="B779" t="s">
-        <v>1835</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -15084,7 +15835,7 @@
         <v>1556</v>
       </c>
       <c r="B780" t="s">
-        <v>1836</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -15121,10 +15872,10 @@
     </row>
     <row r="785" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>1838</v>
+        <v>1777</v>
       </c>
       <c r="B785" t="s">
-        <v>1839</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -15137,7 +15888,7 @@
     </row>
     <row r="787" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
-        <v>1845</v>
+        <v>1784</v>
       </c>
       <c r="B787" t="s">
         <v>1565</v>
@@ -15145,7 +15896,7 @@
     </row>
     <row r="788" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
-        <v>1844</v>
+        <v>1783</v>
       </c>
       <c r="B788" t="s">
         <v>1566</v>
@@ -15153,7 +15904,7 @@
     </row>
     <row r="789" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
-        <v>1843</v>
+        <v>1782</v>
       </c>
       <c r="B789" t="s">
         <v>1567</v>
@@ -15161,7 +15912,7 @@
     </row>
     <row r="790" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
-        <v>1842</v>
+        <v>1781</v>
       </c>
       <c r="B790" t="s">
         <v>373</v>
@@ -15169,239 +15920,239 @@
     </row>
     <row r="791" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
-        <v>1841</v>
+        <v>1780</v>
       </c>
       <c r="B791" t="s">
-        <v>1828</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
-        <v>1846</v>
+        <v>1785</v>
       </c>
       <c r="B792" t="s">
-        <v>1837</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
-        <v>1847</v>
+        <v>1786</v>
       </c>
       <c r="B793" t="s">
-        <v>1840</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
-        <v>1848</v>
+        <v>1787</v>
       </c>
       <c r="B794" t="s">
-        <v>1874</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
-        <v>1849</v>
+        <v>1788</v>
       </c>
       <c r="B795" t="s">
-        <v>1875</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
-        <v>1850</v>
+        <v>1789</v>
       </c>
       <c r="B796" t="s">
-        <v>1876</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="797" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
-        <v>1851</v>
+        <v>1790</v>
       </c>
       <c r="B797" t="s">
-        <v>1877</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
-        <v>1852</v>
+        <v>1791</v>
       </c>
       <c r="B798" t="s">
-        <v>1878</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
-        <v>1853</v>
+        <v>1792</v>
       </c>
       <c r="B799" t="s">
-        <v>1879</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
-        <v>1854</v>
+        <v>1793</v>
       </c>
       <c r="B800" t="s">
-        <v>1880</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
-        <v>1855</v>
+        <v>1794</v>
       </c>
       <c r="B801" t="s">
-        <v>1881</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
-        <v>1856</v>
+        <v>1795</v>
       </c>
       <c r="B802" t="s">
-        <v>1882</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
-        <v>1857</v>
+        <v>1796</v>
       </c>
       <c r="B803" t="s">
-        <v>1883</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
-        <v>1858</v>
+        <v>1797</v>
       </c>
       <c r="B804" t="s">
-        <v>1884</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
-        <v>1859</v>
+        <v>1798</v>
       </c>
       <c r="B805" t="s">
-        <v>1885</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
-        <v>1860</v>
+        <v>1799</v>
       </c>
       <c r="B806" t="s">
-        <v>1886</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
-        <v>1861</v>
+        <v>1800</v>
       </c>
       <c r="B807" t="s">
-        <v>1887</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
-        <v>1862</v>
+        <v>1801</v>
       </c>
       <c r="B808" t="s">
-        <v>1888</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
-        <v>1863</v>
+        <v>1802</v>
       </c>
       <c r="B809" t="s">
-        <v>1889</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
-        <v>1864</v>
+        <v>1803</v>
       </c>
       <c r="B810" t="s">
-        <v>1890</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
-        <v>1865</v>
+        <v>1804</v>
       </c>
       <c r="B811" t="s">
-        <v>1891</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
-        <v>1866</v>
+        <v>1805</v>
       </c>
       <c r="B812" t="s">
-        <v>1892</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
-        <v>1867</v>
+        <v>1806</v>
       </c>
       <c r="B813" t="s">
-        <v>1893</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
-        <v>1868</v>
+        <v>1807</v>
       </c>
       <c r="B814" t="s">
-        <v>1894</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
-        <v>1869</v>
+        <v>1808</v>
       </c>
       <c r="B815" t="s">
-        <v>1895</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A816" s="3" t="s">
-        <v>1870</v>
+        <v>1809</v>
       </c>
       <c r="B816" t="s">
-        <v>1896</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
-        <v>1871</v>
+        <v>1810</v>
       </c>
       <c r="B817" t="s">
-        <v>1897</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A818" s="3" t="s">
-        <v>1872</v>
+        <v>1811</v>
       </c>
       <c r="B818" t="s">
-        <v>1898</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
-        <v>1873</v>
+        <v>1812</v>
       </c>
       <c r="B819" t="s">
-        <v>1899</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A820" s="3" t="s">
-        <v>1900</v>
+        <v>1839</v>
       </c>
       <c r="B820" t="s">
         <v>12</v>
@@ -15465,351 +16216,351 @@
     </row>
     <row r="828" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A828" s="3" t="s">
-        <v>1901</v>
+        <v>1840</v>
       </c>
       <c r="B828" t="s">
-        <v>1902</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A829" s="3" t="s">
-        <v>1903</v>
+        <v>1842</v>
       </c>
       <c r="B829" t="s">
-        <v>1945</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A830" s="3" t="s">
-        <v>1904</v>
+        <v>1843</v>
       </c>
       <c r="B830" t="s">
-        <v>1946</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A831" s="3" t="s">
-        <v>1905</v>
+        <v>1844</v>
       </c>
       <c r="B831" t="s">
-        <v>1947</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A832" s="3" t="s">
-        <v>1906</v>
+        <v>1845</v>
       </c>
       <c r="B832" t="s">
-        <v>1948</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A833" s="3" t="s">
-        <v>1907</v>
+        <v>1846</v>
       </c>
       <c r="B833" t="s">
-        <v>1949</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A834" s="3" t="s">
-        <v>1908</v>
+        <v>1847</v>
       </c>
       <c r="B834" t="s">
-        <v>1950</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A835" s="3" t="s">
-        <v>1909</v>
+        <v>1848</v>
       </c>
       <c r="B835" t="s">
-        <v>1951</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A836" s="3" t="s">
-        <v>1910</v>
+        <v>1849</v>
       </c>
       <c r="B836" t="s">
-        <v>1952</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A837" s="3" t="s">
-        <v>1911</v>
+        <v>1850</v>
       </c>
       <c r="B837" t="s">
-        <v>1953</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A838" s="3" t="s">
-        <v>1912</v>
+        <v>1851</v>
       </c>
       <c r="B838" t="s">
-        <v>1954</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A839" s="3" t="s">
-        <v>1913</v>
+        <v>1852</v>
       </c>
       <c r="B839" t="s">
-        <v>1955</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
-        <v>1914</v>
+        <v>1853</v>
       </c>
       <c r="B840" t="s">
-        <v>1956</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
-        <v>1915</v>
+        <v>1854</v>
       </c>
       <c r="B841" t="s">
-        <v>1957</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
-        <v>1916</v>
+        <v>1855</v>
       </c>
       <c r="B842" t="s">
-        <v>1958</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
-        <v>1917</v>
+        <v>1856</v>
       </c>
       <c r="B843" t="s">
-        <v>1959</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
-        <v>1918</v>
+        <v>1857</v>
       </c>
       <c r="B844" t="s">
-        <v>1960</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
-        <v>1919</v>
+        <v>1858</v>
       </c>
       <c r="B845" t="s">
-        <v>1961</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A846" s="7" t="s">
-        <v>1920</v>
+        <v>1859</v>
       </c>
       <c r="B846" t="s">
-        <v>1962</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="847" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A847" s="7" t="s">
-        <v>1921</v>
+        <v>1860</v>
       </c>
       <c r="B847" t="s">
-        <v>1963</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
-        <v>1922</v>
+        <v>1861</v>
       </c>
       <c r="B848" t="s">
-        <v>1964</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
-        <v>1923</v>
+        <v>1862</v>
       </c>
       <c r="B849" t="s">
-        <v>1965</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
-        <v>1924</v>
+        <v>1863</v>
       </c>
       <c r="B850" t="s">
-        <v>1966</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
-        <v>1925</v>
+        <v>1864</v>
       </c>
       <c r="B851" t="s">
-        <v>1967</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
-        <v>1926</v>
+        <v>1865</v>
       </c>
       <c r="B852" t="s">
-        <v>1968</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="853" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
-        <v>1927</v>
+        <v>1866</v>
       </c>
       <c r="B853" t="s">
-        <v>1969</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
-        <v>1928</v>
+        <v>1867</v>
       </c>
       <c r="B854" t="s">
-        <v>1970</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="855" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
-        <v>1929</v>
+        <v>1868</v>
       </c>
       <c r="B855" t="s">
-        <v>1971</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
-        <v>1930</v>
+        <v>1869</v>
       </c>
       <c r="B856" t="s">
-        <v>1972</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="857" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
-        <v>1931</v>
+        <v>1870</v>
       </c>
       <c r="B857" t="s">
-        <v>1973</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="858" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
-        <v>1932</v>
+        <v>1871</v>
       </c>
       <c r="B858" t="s">
-        <v>1974</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="859" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
-        <v>1933</v>
+        <v>1872</v>
       </c>
       <c r="B859" t="s">
-        <v>1975</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
-        <v>1934</v>
+        <v>1873</v>
       </c>
       <c r="B860" t="s">
-        <v>1976</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="861" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
-        <v>1935</v>
+        <v>1874</v>
       </c>
       <c r="B861" t="s">
-        <v>1977</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
-        <v>1936</v>
+        <v>1875</v>
       </c>
       <c r="B862" t="s">
-        <v>1978</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="863" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
-        <v>1937</v>
+        <v>1876</v>
       </c>
       <c r="B863" t="s">
-        <v>1979</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
-        <v>1938</v>
+        <v>1877</v>
       </c>
       <c r="B864" t="s">
-        <v>1980</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
-        <v>1939</v>
+        <v>1878</v>
       </c>
       <c r="B865" t="s">
-        <v>1981</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
-        <v>1940</v>
+        <v>1879</v>
       </c>
       <c r="B866" t="s">
-        <v>1982</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="867" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
-        <v>1941</v>
+        <v>1880</v>
       </c>
       <c r="B867" t="s">
-        <v>1983</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
-        <v>1942</v>
+        <v>1881</v>
       </c>
       <c r="B868" t="s">
-        <v>1984</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="869" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
-        <v>1943</v>
+        <v>1882</v>
       </c>
       <c r="B869" t="s">
-        <v>1985</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="870" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
-        <v>1944</v>
+        <v>1883</v>
       </c>
       <c r="B870" t="s">
-        <v>1986</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="871" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A871" s="3" t="s">
-        <v>1987</v>
+        <v>1926</v>
       </c>
       <c r="B871" t="s">
         <v>1580</v>
@@ -15817,7 +16568,7 @@
     </row>
     <row r="872" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A872" s="3" t="s">
-        <v>1988</v>
+        <v>1927</v>
       </c>
       <c r="B872" t="s">
         <v>12</v>
@@ -15825,31 +16576,31 @@
     </row>
     <row r="873" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
-        <v>1989</v>
+        <v>1928</v>
       </c>
       <c r="B873" t="s">
-        <v>1992</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A874" s="3" t="s">
-        <v>1990</v>
+        <v>1929</v>
       </c>
       <c r="B874" t="s">
-        <v>1993</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
-        <v>1991</v>
+        <v>1930</v>
       </c>
       <c r="B875" t="s">
-        <v>1994</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A876" s="3" t="s">
-        <v>1995</v>
+        <v>1934</v>
       </c>
       <c r="B876" t="s">
         <v>12</v>
@@ -15860,7 +16611,7 @@
         <v>1581</v>
       </c>
       <c r="B877" t="s">
-        <v>1996</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -15868,7 +16619,7 @@
         <v>1582</v>
       </c>
       <c r="B878" t="s">
-        <v>1997</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -15876,7 +16627,7 @@
         <v>1583</v>
       </c>
       <c r="B879" t="s">
-        <v>1998</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="880" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -15889,277 +16640,277 @@
     </row>
     <row r="881" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
-        <v>1999</v>
+        <v>1938</v>
       </c>
       <c r="B881" t="s">
-        <v>2000</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="882" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A882" s="3" t="s">
-        <v>2001</v>
+        <v>1940</v>
       </c>
       <c r="B882" t="s">
-        <v>2033</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="883" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
-        <v>2003</v>
+        <v>1942</v>
       </c>
       <c r="B883" t="s">
-        <v>2034</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="884" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
-        <v>2002</v>
+        <v>1941</v>
       </c>
       <c r="B884" t="s">
-        <v>2035</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
-        <v>2004</v>
+        <v>1943</v>
       </c>
       <c r="B885" t="s">
-        <v>2036</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="886" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
-        <v>2005</v>
+        <v>1944</v>
       </c>
       <c r="B886" t="s">
-        <v>2037</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="887" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
-        <v>2006</v>
+        <v>1945</v>
       </c>
       <c r="B887" t="s">
-        <v>2038</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="888" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
-        <v>2007</v>
+        <v>1946</v>
       </c>
       <c r="B888" t="s">
-        <v>2039</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
-        <v>2008</v>
+        <v>1947</v>
       </c>
       <c r="B889" t="s">
-        <v>2040</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
-        <v>2009</v>
+        <v>1948</v>
       </c>
       <c r="B890" t="s">
-        <v>2041</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="891" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
-        <v>2010</v>
+        <v>1949</v>
       </c>
       <c r="B891" t="s">
-        <v>2042</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="892" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
-        <v>2011</v>
+        <v>1950</v>
       </c>
       <c r="B892" t="s">
-        <v>2043</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="893" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
-        <v>2012</v>
+        <v>1951</v>
       </c>
       <c r="B893" t="s">
-        <v>2044</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
-        <v>2013</v>
+        <v>1952</v>
       </c>
       <c r="B894" t="s">
-        <v>2045</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="895" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
-        <v>2014</v>
+        <v>1953</v>
       </c>
       <c r="B895" t="s">
-        <v>2046</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
-        <v>2015</v>
+        <v>1954</v>
       </c>
       <c r="B896" t="s">
-        <v>2047</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
-        <v>2016</v>
+        <v>1955</v>
       </c>
       <c r="B897" t="s">
-        <v>2048</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="898" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
-        <v>2017</v>
+        <v>1956</v>
       </c>
       <c r="B898" t="s">
-        <v>2049</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
-        <v>2018</v>
+        <v>1957</v>
       </c>
       <c r="B899" t="s">
-        <v>2050</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="900" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
-        <v>2019</v>
+        <v>1958</v>
       </c>
       <c r="B900" t="s">
-        <v>2051</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
-        <v>2020</v>
+        <v>1959</v>
       </c>
       <c r="B901" t="s">
-        <v>2052</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
-        <v>2021</v>
+        <v>1960</v>
       </c>
       <c r="B902" t="s">
-        <v>2053</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
-        <v>2022</v>
+        <v>1961</v>
       </c>
       <c r="B903" t="s">
-        <v>2054</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="904" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
-        <v>2023</v>
+        <v>1962</v>
       </c>
       <c r="B904" t="s">
-        <v>2055</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="905" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
-        <v>2024</v>
+        <v>1963</v>
       </c>
       <c r="B905" t="s">
-        <v>2057</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
-        <v>2025</v>
+        <v>1964</v>
       </c>
       <c r="B906" t="s">
-        <v>2056</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
-        <v>2026</v>
+        <v>1965</v>
       </c>
       <c r="B907" t="s">
-        <v>2058</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="908" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
-        <v>2027</v>
+        <v>1966</v>
       </c>
       <c r="B908" t="s">
-        <v>2059</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="909" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
-        <v>2028</v>
+        <v>1967</v>
       </c>
       <c r="B909" t="s">
-        <v>2060</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
-        <v>2029</v>
+        <v>1968</v>
       </c>
       <c r="B910" t="s">
-        <v>2061</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
-        <v>2030</v>
+        <v>1969</v>
       </c>
       <c r="B911" t="s">
-        <v>2062</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
-        <v>2031</v>
+        <v>1970</v>
       </c>
       <c r="B912" t="s">
-        <v>2063</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
-        <v>2032</v>
+        <v>1971</v>
       </c>
       <c r="B913" t="s">
-        <v>2064</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A914" s="3" t="s">
-        <v>2065</v>
+        <v>2004</v>
       </c>
       <c r="B914" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="915" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
         <v>1585</v>
       </c>
@@ -16167,7 +16918,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="916" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A916" s="3" t="s">
         <v>1587</v>
       </c>
@@ -16175,7 +16926,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="917" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
         <v>1589</v>
       </c>
@@ -16183,7 +16934,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="918" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A918" s="3" t="s">
         <v>1591</v>
       </c>
@@ -16191,7 +16942,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="919" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
         <v>1593</v>
       </c>
@@ -16199,7 +16950,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="920" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A920" s="3" t="s">
         <v>1595</v>
       </c>
@@ -16207,7 +16958,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="921" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
         <v>1597</v>
       </c>
@@ -16215,7 +16966,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="922" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A922" s="3" t="s">
         <v>1599</v>
       </c>
@@ -16223,532 +16974,532 @@
         <v>373</v>
       </c>
     </row>
-    <row r="923" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
-        <v>2066</v>
+        <v>2005</v>
       </c>
       <c r="B923" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A924" s="3" t="s">
-        <v>2067</v>
+        <v>2006</v>
       </c>
       <c r="B924" t="s">
-        <v>2069</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="925" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
-        <v>2070</v>
+        <v>2009</v>
       </c>
       <c r="B925" t="s">
-        <v>2134</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A926" s="3" t="s">
-        <v>2071</v>
+        <v>2010</v>
       </c>
       <c r="B926" t="s">
-        <v>2135</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="927" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
-        <v>2072</v>
+        <v>2011</v>
       </c>
       <c r="B927" t="s">
-        <v>2136</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="928" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
-        <v>2073</v>
+        <v>2012</v>
       </c>
       <c r="B928" t="s">
-        <v>2137</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="929" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
-        <v>2074</v>
+        <v>2013</v>
       </c>
       <c r="B929" t="s">
-        <v>2138</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="930" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
-        <v>2075</v>
+        <v>2014</v>
       </c>
       <c r="B930" t="s">
-        <v>2139</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="931" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
-        <v>2076</v>
+        <v>2015</v>
       </c>
       <c r="B931" t="s">
-        <v>2140</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="932" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A932" s="3" t="s">
-        <v>2077</v>
+        <v>2016</v>
       </c>
       <c r="B932" t="s">
-        <v>2141</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="933" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
-        <v>2078</v>
+        <v>2017</v>
       </c>
       <c r="B933" t="s">
-        <v>2142</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A934" s="3" t="s">
-        <v>2084</v>
+        <v>2023</v>
       </c>
       <c r="B934" t="s">
-        <v>2143</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="935" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A935" s="3" t="s">
-        <v>2085</v>
+        <v>2024</v>
       </c>
       <c r="B935" t="s">
-        <v>2144</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A936" s="3" t="s">
-        <v>2086</v>
+        <v>2025</v>
       </c>
       <c r="B936" t="s">
-        <v>2145</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="937" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A937" s="3" t="s">
-        <v>2087</v>
+        <v>2026</v>
       </c>
       <c r="B937" t="s">
-        <v>2146</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="938" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A938" s="3" t="s">
-        <v>2088</v>
+        <v>2027</v>
       </c>
       <c r="B938" t="s">
-        <v>2147</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="939" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A939" s="3" t="s">
-        <v>2089</v>
+        <v>2028</v>
       </c>
       <c r="B939" t="s">
-        <v>2148</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A940" s="3" t="s">
-        <v>2090</v>
+        <v>2029</v>
       </c>
       <c r="B940" t="s">
-        <v>2149</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="941" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
-        <v>2091</v>
+        <v>2030</v>
       </c>
       <c r="B941" t="s">
-        <v>2150</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="942" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
-        <v>2079</v>
+        <v>2018</v>
       </c>
       <c r="B942" t="s">
-        <v>2151</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="943" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
-        <v>2092</v>
+        <v>2031</v>
       </c>
       <c r="B943" t="s">
-        <v>2152</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
-        <v>2093</v>
+        <v>2032</v>
       </c>
       <c r="B944" t="s">
-        <v>2153</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="945" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
-        <v>2094</v>
+        <v>2033</v>
       </c>
       <c r="B945" t="s">
-        <v>2154</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="946" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
-        <v>2095</v>
+        <v>2034</v>
       </c>
       <c r="B946" t="s">
-        <v>2155</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="947" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A947" s="7" t="s">
-        <v>2096</v>
+        <v>2035</v>
       </c>
       <c r="B947" t="s">
-        <v>2156</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A948" s="7" t="s">
-        <v>2097</v>
+        <v>2036</v>
       </c>
       <c r="B948" t="s">
-        <v>2157</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="949" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
-        <v>2098</v>
+        <v>2037</v>
       </c>
       <c r="B949" t="s">
-        <v>2158</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="950" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
-        <v>2099</v>
+        <v>2038</v>
       </c>
       <c r="B950" t="s">
-        <v>2159</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="951" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
-        <v>2080</v>
+        <v>2019</v>
       </c>
       <c r="B951" t="s">
-        <v>2160</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B952" t="s">
         <v>2100</v>
-      </c>
-      <c r="B952" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="953" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B953" t="s">
         <v>2101</v>
-      </c>
-      <c r="B953" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="954" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B954" t="s">
         <v>2102</v>
-      </c>
-      <c r="B954" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="955" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B955" t="s">
         <v>2103</v>
-      </c>
-      <c r="B955" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="956" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B956" t="s">
         <v>2104</v>
-      </c>
-      <c r="B956" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="957" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B957" t="s">
         <v>2105</v>
-      </c>
-      <c r="B957" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="958" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B958" t="s">
         <v>2106</v>
-      </c>
-      <c r="B958" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="959" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B959" t="s">
         <v>2107</v>
-      </c>
-      <c r="B959" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="960" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
-        <v>2081</v>
+        <v>2020</v>
       </c>
       <c r="B960" t="s">
-        <v>2169</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="961" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
-        <v>2108</v>
+        <v>2047</v>
       </c>
       <c r="B961" t="s">
-        <v>2170</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="962" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
-        <v>2109</v>
+        <v>2048</v>
       </c>
       <c r="B962" t="s">
-        <v>2171</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="963" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
-        <v>2110</v>
+        <v>2049</v>
       </c>
       <c r="B963" t="s">
-        <v>2172</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="964" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
-        <v>2111</v>
+        <v>2050</v>
       </c>
       <c r="B964" t="s">
-        <v>2173</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="965" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
-        <v>2112</v>
+        <v>2051</v>
       </c>
       <c r="B965" t="s">
-        <v>2174</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="966" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
-        <v>2113</v>
+        <v>2052</v>
       </c>
       <c r="B966" t="s">
-        <v>2175</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="967" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
-        <v>2114</v>
+        <v>2053</v>
       </c>
       <c r="B967" t="s">
-        <v>2176</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="968" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
-        <v>2115</v>
+        <v>2054</v>
       </c>
       <c r="B968" t="s">
-        <v>2177</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="969" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
-        <v>2082</v>
+        <v>2021</v>
       </c>
       <c r="B969" t="s">
-        <v>2178</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="970" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A970" s="7" t="s">
-        <v>2116</v>
+        <v>2055</v>
       </c>
       <c r="B970" t="s">
-        <v>2179</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="971" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
-        <v>2117</v>
+        <v>2056</v>
       </c>
       <c r="B971" t="s">
-        <v>2180</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="972" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
-        <v>2118</v>
+        <v>2057</v>
       </c>
       <c r="B972" t="s">
-        <v>2181</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="973" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
-        <v>2119</v>
+        <v>2058</v>
       </c>
       <c r="B973" t="s">
-        <v>2182</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="974" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
-        <v>2120</v>
+        <v>2059</v>
       </c>
       <c r="B974" t="s">
-        <v>2183</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="975" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
-        <v>2121</v>
+        <v>2060</v>
       </c>
       <c r="B975" t="s">
-        <v>2184</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="976" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
-        <v>2122</v>
+        <v>2061</v>
       </c>
       <c r="B976" t="s">
-        <v>2185</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="977" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
-        <v>2123</v>
+        <v>2062</v>
       </c>
       <c r="B977" t="s">
-        <v>2186</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="978" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
-        <v>2083</v>
+        <v>2022</v>
       </c>
       <c r="B978" t="s">
-        <v>2187</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="979" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
-        <v>2124</v>
+        <v>2063</v>
       </c>
       <c r="B979" t="s">
-        <v>2188</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="980" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
-        <v>2125</v>
+        <v>2064</v>
       </c>
       <c r="B980" t="s">
-        <v>2189</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="981" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
-        <v>2126</v>
+        <v>2065</v>
       </c>
       <c r="B981" t="s">
-        <v>2190</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="982" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
-        <v>2127</v>
+        <v>2066</v>
       </c>
       <c r="B982" t="s">
-        <v>2191</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="983" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
-        <v>2128</v>
+        <v>2067</v>
       </c>
       <c r="B983" t="s">
-        <v>2192</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="984" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
-        <v>2129</v>
+        <v>2068</v>
       </c>
       <c r="B984" t="s">
-        <v>2193</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="985" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
-        <v>2130</v>
+        <v>2069</v>
       </c>
       <c r="B985" t="s">
-        <v>2194</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="986" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
-        <v>2131</v>
+        <v>2070</v>
       </c>
       <c r="B986" t="s">
-        <v>2195</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="987" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
-        <v>2132</v>
+        <v>2071</v>
       </c>
       <c r="B987" t="s">
-        <v>2196</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="988" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
-        <v>2133</v>
+        <v>2072</v>
       </c>
       <c r="B988" t="s">
-        <v>2197</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="989" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -16801,298 +17552,298 @@
     </row>
     <row r="995" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A995" s="3" t="s">
-        <v>2198</v>
+        <v>2137</v>
       </c>
       <c r="B995" t="s">
-        <v>2199</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="996" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A996" s="3" t="s">
-        <v>2200</v>
+        <v>2139</v>
       </c>
       <c r="B996" t="s">
-        <v>2236</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A997" s="3" t="s">
-        <v>2202</v>
+        <v>2141</v>
       </c>
       <c r="B997" t="s">
-        <v>2237</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="998" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A998" s="3" t="s">
-        <v>2203</v>
+        <v>2142</v>
       </c>
       <c r="B998" t="s">
-        <v>2238</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="999" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A999" s="3" t="s">
-        <v>2204</v>
+        <v>2143</v>
       </c>
       <c r="B999" t="s">
-        <v>2239</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1000" s="3" t="s">
-        <v>2205</v>
+        <v>2144</v>
       </c>
       <c r="B1000" t="s">
-        <v>2240</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1001" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1001" s="3" t="s">
-        <v>2201</v>
+        <v>2140</v>
       </c>
       <c r="B1001" t="s">
-        <v>2241</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1002" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1002" s="3" t="s">
-        <v>2206</v>
+        <v>2145</v>
       </c>
       <c r="B1002" t="s">
-        <v>2242</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1003" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1003" s="3" t="s">
-        <v>2207</v>
+        <v>2146</v>
       </c>
       <c r="B1003" t="s">
-        <v>2243</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1004" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1004" s="3" t="s">
-        <v>2208</v>
+        <v>2147</v>
       </c>
       <c r="B1004" t="s">
-        <v>2244</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1005" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1005" s="3" t="s">
-        <v>2209</v>
+        <v>2148</v>
       </c>
       <c r="B1005" t="s">
-        <v>2245</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1006" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1006" s="3" t="s">
-        <v>2210</v>
+        <v>2149</v>
       </c>
       <c r="B1006" t="s">
-        <v>2246</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1007" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1007" s="3" t="s">
-        <v>2211</v>
+        <v>2150</v>
       </c>
       <c r="B1007" t="s">
-        <v>2247</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1008" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1008" s="7" t="s">
-        <v>2212</v>
+        <v>2151</v>
       </c>
       <c r="B1008" t="s">
-        <v>2248</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1009" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1009" s="7" t="s">
-        <v>2213</v>
+        <v>2152</v>
       </c>
       <c r="B1009" t="s">
-        <v>2249</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1010" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1010" s="7" t="s">
-        <v>2214</v>
+        <v>2153</v>
       </c>
       <c r="B1010" t="s">
-        <v>2250</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1011" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1011" s="7" t="s">
-        <v>2215</v>
+        <v>2154</v>
       </c>
       <c r="B1011" t="s">
-        <v>2251</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1012" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1012" s="7" t="s">
-        <v>2216</v>
+        <v>2155</v>
       </c>
       <c r="B1012" t="s">
-        <v>2252</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1013" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1013" s="7" t="s">
-        <v>2217</v>
+        <v>2156</v>
       </c>
       <c r="B1013" t="s">
-        <v>2253</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1014" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1014" s="7" t="s">
-        <v>2218</v>
+        <v>2157</v>
       </c>
       <c r="B1014" t="s">
-        <v>2254</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1015" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1015" s="7" t="s">
-        <v>2219</v>
+        <v>2158</v>
       </c>
       <c r="B1015" t="s">
-        <v>2255</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1016" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1016" s="7" t="s">
-        <v>2220</v>
+        <v>2159</v>
       </c>
       <c r="B1016" t="s">
-        <v>2256</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1017" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1017" s="7" t="s">
-        <v>2221</v>
+        <v>2160</v>
       </c>
       <c r="B1017" t="s">
-        <v>2257</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1018" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1018" s="7" t="s">
-        <v>2222</v>
+        <v>2161</v>
       </c>
       <c r="B1018" t="s">
-        <v>2258</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1019" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1019" s="7" t="s">
-        <v>2223</v>
+        <v>2162</v>
       </c>
       <c r="B1019" t="s">
-        <v>2259</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1020" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1020" s="7" t="s">
-        <v>2224</v>
+        <v>2163</v>
       </c>
       <c r="B1020" t="s">
-        <v>2260</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1021" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1021" s="7" t="s">
-        <v>2225</v>
+        <v>2164</v>
       </c>
       <c r="B1021" t="s">
-        <v>2261</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1022" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1022" s="7" t="s">
-        <v>2226</v>
+        <v>2165</v>
       </c>
       <c r="B1022" t="s">
-        <v>2262</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1023" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1023" s="7" t="s">
-        <v>2227</v>
+        <v>2166</v>
       </c>
       <c r="B1023" t="s">
-        <v>2263</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1024" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1024" s="7" t="s">
-        <v>2228</v>
+        <v>2167</v>
       </c>
       <c r="B1024" t="s">
-        <v>2264</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1025" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1025" s="7" t="s">
-        <v>2229</v>
+        <v>2168</v>
       </c>
       <c r="B1025" t="s">
-        <v>2265</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1026" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1026" s="7" t="s">
-        <v>2230</v>
+        <v>2169</v>
       </c>
       <c r="B1026" t="s">
-        <v>2266</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1027" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1027" s="7" t="s">
-        <v>2231</v>
+        <v>2170</v>
       </c>
       <c r="B1027" t="s">
-        <v>2267</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1028" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1028" s="7" t="s">
-        <v>2232</v>
+        <v>2171</v>
       </c>
       <c r="B1028" t="s">
-        <v>2268</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1029" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1029" s="7" t="s">
-        <v>2233</v>
+        <v>2172</v>
       </c>
       <c r="B1029" t="s">
-        <v>2269</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1030" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1030" s="7" t="s">
-        <v>2234</v>
+        <v>2173</v>
       </c>
       <c r="B1030" t="s">
-        <v>2270</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1031" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1031" s="7" t="s">
-        <v>2235</v>
+        <v>2174</v>
       </c>
       <c r="B1031" t="s">
-        <v>2271</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1032" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -17116,7 +17867,7 @@
         <v>1613</v>
       </c>
       <c r="B1034" t="s">
-        <v>2272</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1035" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -17124,7 +17875,7 @@
         <v>1614</v>
       </c>
       <c r="B1035" t="s">
-        <v>2273</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1036" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -17132,7 +17883,7 @@
         <v>1615</v>
       </c>
       <c r="B1036" t="s">
-        <v>2274</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1037" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -17161,207 +17912,207 @@
     </row>
     <row r="1040" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1040" s="3" t="s">
-        <v>2275</v>
+        <v>2214</v>
       </c>
       <c r="B1040" t="s">
-        <v>2276</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1041" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1041" s="3" t="s">
-        <v>2277</v>
+        <v>2216</v>
       </c>
       <c r="B1041" t="s">
-        <v>2301</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1042" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1042" s="3" t="s">
-        <v>2278</v>
+        <v>2217</v>
       </c>
       <c r="B1042" t="s">
-        <v>2302</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1043" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1043" s="3" t="s">
-        <v>2279</v>
+        <v>2218</v>
       </c>
       <c r="B1043" t="s">
-        <v>2303</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1044" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1044" s="3" t="s">
-        <v>2280</v>
+        <v>2219</v>
       </c>
       <c r="B1044" t="s">
-        <v>2304</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1045" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1045" s="3" t="s">
-        <v>2281</v>
+        <v>2220</v>
       </c>
       <c r="B1045" t="s">
-        <v>2305</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1046" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1046" s="3" t="s">
-        <v>2282</v>
+        <v>2221</v>
       </c>
       <c r="B1046" t="s">
-        <v>2306</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1047" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1047" s="7" t="s">
-        <v>2283</v>
+        <v>2222</v>
       </c>
       <c r="B1047" t="s">
-        <v>2307</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1048" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1048" s="7" t="s">
-        <v>2284</v>
+        <v>2223</v>
       </c>
       <c r="B1048" t="s">
-        <v>2308</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1049" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1049" s="7" t="s">
-        <v>2285</v>
+        <v>2224</v>
       </c>
       <c r="B1049" t="s">
-        <v>2309</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1050" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1050" s="7" t="s">
-        <v>2286</v>
+        <v>2225</v>
       </c>
       <c r="B1050" t="s">
-        <v>2310</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1051" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1051" s="7" t="s">
-        <v>2287</v>
+        <v>2226</v>
       </c>
       <c r="B1051" t="s">
-        <v>2311</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1052" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1052" s="7" t="s">
-        <v>2288</v>
+        <v>2227</v>
       </c>
       <c r="B1052" t="s">
-        <v>2312</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1053" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1053" s="7" t="s">
-        <v>2289</v>
+        <v>2228</v>
       </c>
       <c r="B1053" t="s">
-        <v>2313</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1054" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1054" s="7" t="s">
-        <v>2290</v>
+        <v>2229</v>
       </c>
       <c r="B1054" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1055" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1055" s="7" t="s">
-        <v>2291</v>
+        <v>2230</v>
       </c>
       <c r="B1055" t="s">
-        <v>2315</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1056" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1056" s="7" t="s">
-        <v>2292</v>
+        <v>2231</v>
       </c>
       <c r="B1056" t="s">
-        <v>2316</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1057" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1057" s="7" t="s">
-        <v>2293</v>
+        <v>2232</v>
       </c>
       <c r="B1057" t="s">
-        <v>2317</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1058" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1058" s="7" t="s">
-        <v>2294</v>
+        <v>2233</v>
       </c>
       <c r="B1058" t="s">
-        <v>2318</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1059" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1059" s="7" t="s">
-        <v>2295</v>
+        <v>2234</v>
       </c>
       <c r="B1059" t="s">
-        <v>2319</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1060" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1060" s="7" t="s">
-        <v>2296</v>
+        <v>2235</v>
       </c>
       <c r="B1060" t="s">
-        <v>2320</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1061" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1061" s="7" t="s">
-        <v>2297</v>
+        <v>2236</v>
       </c>
       <c r="B1061" t="s">
-        <v>2321</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1062" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1062" s="7" t="s">
-        <v>2298</v>
+        <v>2237</v>
       </c>
       <c r="B1062" t="s">
-        <v>2322</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1063" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1063" s="7" t="s">
-        <v>2299</v>
+        <v>2238</v>
       </c>
       <c r="B1063" t="s">
-        <v>2323</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1064" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1064" s="7" t="s">
-        <v>2300</v>
+        <v>2239</v>
       </c>
       <c r="B1064" t="s">
-        <v>2324</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1065" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A1065" s="3" t="s">
-        <v>2325</v>
+        <v>2264</v>
       </c>
       <c r="B1065" t="s">
         <v>12</v>
@@ -17409,351 +18160,351 @@
     </row>
     <row r="1071" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1071" s="3" t="s">
-        <v>2327</v>
+        <v>2266</v>
       </c>
       <c r="B1071" t="s">
-        <v>2328</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1072" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1072" s="3" t="s">
-        <v>2326</v>
+        <v>2265</v>
       </c>
       <c r="B1072" t="s">
-        <v>2329</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1073" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1073" s="3" t="s">
-        <v>2330</v>
+        <v>2269</v>
       </c>
       <c r="B1073" t="s">
-        <v>2370</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1074" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1074" s="3" t="s">
-        <v>2331</v>
+        <v>2270</v>
       </c>
       <c r="B1074" t="s">
-        <v>2371</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1075" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1075" s="3" t="s">
-        <v>2332</v>
+        <v>2271</v>
       </c>
       <c r="B1075" t="s">
-        <v>2372</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1076" s="3" t="s">
-        <v>2333</v>
+        <v>2272</v>
       </c>
       <c r="B1076" t="s">
-        <v>2373</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1077" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1077" s="3" t="s">
-        <v>2334</v>
+        <v>2273</v>
       </c>
       <c r="B1077" t="s">
-        <v>2374</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1078" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1078" s="3" t="s">
-        <v>2335</v>
+        <v>2274</v>
       </c>
       <c r="B1078" t="s">
-        <v>2375</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1079" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1079" s="3" t="s">
-        <v>2336</v>
+        <v>2275</v>
       </c>
       <c r="B1079" t="s">
-        <v>2376</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1080" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1080" s="3" t="s">
-        <v>2337</v>
+        <v>2276</v>
       </c>
       <c r="B1080" t="s">
-        <v>2377</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1081" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1081" s="3" t="s">
-        <v>2338</v>
+        <v>2277</v>
       </c>
       <c r="B1081" t="s">
-        <v>2378</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1082" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1082" s="3" t="s">
-        <v>2339</v>
+        <v>2278</v>
       </c>
       <c r="B1082" t="s">
-        <v>2379</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1083" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1083" s="7" t="s">
-        <v>2340</v>
+        <v>2279</v>
       </c>
       <c r="B1083" t="s">
-        <v>2380</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1084" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1084" s="7" t="s">
-        <v>2341</v>
+        <v>2280</v>
       </c>
       <c r="B1084" t="s">
-        <v>2381</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1085" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1085" s="7" t="s">
-        <v>2342</v>
+        <v>2281</v>
       </c>
       <c r="B1085" t="s">
-        <v>2382</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1086" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1086" s="7" t="s">
-        <v>2343</v>
+        <v>2282</v>
       </c>
       <c r="B1086" t="s">
-        <v>2383</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1087" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1087" s="7" t="s">
-        <v>2344</v>
+        <v>2283</v>
       </c>
       <c r="B1087" t="s">
-        <v>2384</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1088" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1088" s="7" t="s">
-        <v>2345</v>
+        <v>2284</v>
       </c>
       <c r="B1088" t="s">
-        <v>2385</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1089" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1089" s="7" t="s">
-        <v>2346</v>
+        <v>2285</v>
       </c>
       <c r="B1089" t="s">
-        <v>2386</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1090" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1090" s="7" t="s">
-        <v>2347</v>
+        <v>2286</v>
       </c>
       <c r="B1090" t="s">
-        <v>2387</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1091" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1091" s="7" t="s">
-        <v>2348</v>
+        <v>2287</v>
       </c>
       <c r="B1091" t="s">
-        <v>2388</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1092" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1092" s="7" t="s">
-        <v>2349</v>
+        <v>2288</v>
       </c>
       <c r="B1092" t="s">
-        <v>2389</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1093" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1093" s="7" t="s">
-        <v>2350</v>
+        <v>2289</v>
       </c>
       <c r="B1093" t="s">
-        <v>2390</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1094" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1094" s="7" t="s">
-        <v>2351</v>
+        <v>2290</v>
       </c>
       <c r="B1094" t="s">
-        <v>2391</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1095" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1095" s="7" t="s">
-        <v>2352</v>
+        <v>2291</v>
       </c>
       <c r="B1095" t="s">
-        <v>2392</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1096" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1096" s="7" t="s">
-        <v>2353</v>
+        <v>2292</v>
       </c>
       <c r="B1096" t="s">
-        <v>2393</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1097" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1097" s="7" t="s">
-        <v>2354</v>
+        <v>2293</v>
       </c>
       <c r="B1097" t="s">
-        <v>2394</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1098" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1098" s="7" t="s">
-        <v>2355</v>
+        <v>2294</v>
       </c>
       <c r="B1098" t="s">
-        <v>2395</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1099" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1099" s="7" t="s">
-        <v>2356</v>
+        <v>2295</v>
       </c>
       <c r="B1099" t="s">
-        <v>2396</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1100" s="7" t="s">
-        <v>2357</v>
+        <v>2296</v>
       </c>
       <c r="B1100" t="s">
-        <v>2397</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1101" s="7" t="s">
-        <v>2358</v>
+        <v>2297</v>
       </c>
       <c r="B1101" t="s">
-        <v>2398</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1102" s="7" t="s">
-        <v>2359</v>
+        <v>2298</v>
       </c>
       <c r="B1102" t="s">
-        <v>2399</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1103" s="7" t="s">
-        <v>2360</v>
+        <v>2299</v>
       </c>
       <c r="B1103" t="s">
-        <v>2400</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1104" s="7" t="s">
-        <v>2361</v>
+        <v>2300</v>
       </c>
       <c r="B1104" t="s">
-        <v>2401</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1105" s="7" t="s">
-        <v>2362</v>
+        <v>2301</v>
       </c>
       <c r="B1105" t="s">
-        <v>2402</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1106" s="7" t="s">
-        <v>2363</v>
+        <v>2302</v>
       </c>
       <c r="B1106" t="s">
-        <v>2403</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1107" s="7" t="s">
-        <v>2364</v>
+        <v>2303</v>
       </c>
       <c r="B1107" t="s">
-        <v>2404</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1108" s="7" t="s">
-        <v>2365</v>
+        <v>2304</v>
       </c>
       <c r="B1108" t="s">
-        <v>2405</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1109" s="7" t="s">
-        <v>2366</v>
+        <v>2305</v>
       </c>
       <c r="B1109" t="s">
-        <v>2406</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1110" s="7" t="s">
-        <v>2367</v>
+        <v>2306</v>
       </c>
       <c r="B1110" t="s">
-        <v>2407</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1111" s="7" t="s">
-        <v>2368</v>
+        <v>2307</v>
       </c>
       <c r="B1111" t="s">
-        <v>2408</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1112" s="7" t="s">
-        <v>2369</v>
+        <v>2308</v>
       </c>
       <c r="B1112" t="s">
-        <v>2409</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1113" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A1113" s="3" t="s">
-        <v>2410</v>
+        <v>2349</v>
       </c>
       <c r="B1113" s="12" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="1114" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1114" s="3" t="s">
-        <v>1631</v>
+        <v>2350</v>
       </c>
       <c r="B1114" t="s">
         <v>12</v>
@@ -17761,810 +18512,1842 @@
     </row>
     <row r="1115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1115" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B1115" t="s">
-        <v>1633</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1116" s="3" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B1116" t="s">
-        <v>1635</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1117" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B1117" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1118" s="3" t="s">
-        <v>1638</v>
+        <v>2354</v>
       </c>
       <c r="B1118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1119" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1119" s="3" t="s">
-        <v>1639</v>
+        <v>2355</v>
       </c>
       <c r="B1119" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1120" s="3" t="s">
-        <v>1641</v>
+        <v>2356</v>
       </c>
       <c r="B1120" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1121" s="3" t="s">
-        <v>1643</v>
+        <v>2357</v>
       </c>
       <c r="B1121" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1122" s="3" t="s">
-        <v>1645</v>
+        <v>2358</v>
       </c>
       <c r="B1122" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1123" s="3" t="s">
-        <v>1647</v>
+        <v>2359</v>
       </c>
       <c r="B1123" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1124" s="3" t="s">
-        <v>1649</v>
+        <v>2360</v>
       </c>
       <c r="B1124" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="1125" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1125" s="3" t="s">
-        <v>1650</v>
+        <v>2361</v>
       </c>
       <c r="B1125" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1126" s="3" t="s">
-        <v>1652</v>
+        <v>2363</v>
       </c>
       <c r="B1126" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1127" s="3" t="s">
-        <v>1654</v>
+        <v>2364</v>
       </c>
       <c r="B1127" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1128" s="3" t="s">
-        <v>1656</v>
+        <v>2365</v>
       </c>
       <c r="B1128" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1129" s="3" t="s">
-        <v>1658</v>
+        <v>2366</v>
       </c>
       <c r="B1129" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1130" s="3" t="s">
-        <v>1660</v>
+        <v>2367</v>
       </c>
       <c r="B1130" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1131" s="3" t="s">
-        <v>1662</v>
+        <v>2368</v>
       </c>
       <c r="B1131" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1132" s="3" t="s">
-        <v>1664</v>
+        <v>2370</v>
       </c>
       <c r="B1132" t="s">
-        <v>1665</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1133" s="3" t="s">
-        <v>1666</v>
+        <v>2371</v>
       </c>
       <c r="B1133" t="s">
-        <v>12</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1134" s="3" t="s">
-        <v>1667</v>
+        <v>2372</v>
       </c>
       <c r="B1134" t="s">
-        <v>1668</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1135" s="3" t="s">
-        <v>1669</v>
+        <v>2373</v>
       </c>
       <c r="B1135" t="s">
-        <v>1670</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1136" s="3" t="s">
-        <v>1671</v>
+        <v>2374</v>
       </c>
       <c r="B1136" t="s">
-        <v>1672</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1137" s="3" t="s">
-        <v>1673</v>
+        <v>2369</v>
       </c>
       <c r="B1137" t="s">
-        <v>1674</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1138" s="3" t="s">
-        <v>1675</v>
+      <c r="A1138" s="7" t="s">
+        <v>2375</v>
       </c>
       <c r="B1138" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1139" s="3" t="s">
-        <v>1676</v>
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1139" s="7" t="s">
+        <v>2376</v>
       </c>
       <c r="B1139" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1140" s="3" t="s">
-        <v>1678</v>
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1140" s="7" t="s">
+        <v>2377</v>
       </c>
       <c r="B1140" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1141" s="3" t="s">
-        <v>1680</v>
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1141" s="7" t="s">
+        <v>2378</v>
       </c>
       <c r="B1141" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1142" s="3" t="s">
-        <v>1682</v>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1142" s="7" t="s">
+        <v>2379</v>
       </c>
       <c r="B1142" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1143" s="3" t="s">
-        <v>1684</v>
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1143" s="7" t="s">
+        <v>2380</v>
       </c>
       <c r="B1143" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1144" s="3" t="s">
-        <v>1686</v>
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1144" s="7" t="s">
+        <v>2381</v>
       </c>
       <c r="B1144" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1145" s="3" t="s">
-        <v>1688</v>
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1145" s="7" t="s">
+        <v>2382</v>
       </c>
       <c r="B1145" t="s">
-        <v>12</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1146" s="3" t="s">
-        <v>1689</v>
+      <c r="A1146" s="7" t="s">
+        <v>2383</v>
       </c>
       <c r="B1146" t="s">
-        <v>1690</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1147" s="3" t="s">
-        <v>1691</v>
+      <c r="A1147" s="7" t="s">
+        <v>2384</v>
       </c>
       <c r="B1147" t="s">
-        <v>1692</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1148" s="3" t="s">
-        <v>1693</v>
+      <c r="A1148" s="7" t="s">
+        <v>2385</v>
       </c>
       <c r="B1148" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1149" s="3" t="s">
-        <v>1695</v>
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1149" s="7" t="s">
+        <v>2386</v>
       </c>
       <c r="B1149" t="s">
-        <v>12</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1150" s="3" t="s">
-        <v>1696</v>
+      <c r="A1150" s="7" t="s">
+        <v>2392</v>
       </c>
       <c r="B1150" t="s">
-        <v>1697</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1151" s="3" t="s">
-        <v>1698</v>
+      <c r="A1151" s="7" t="s">
+        <v>2391</v>
       </c>
       <c r="B1151" t="s">
-        <v>1699</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1152" s="3" t="s">
-        <v>1700</v>
+      <c r="A1152" s="7" t="s">
+        <v>2390</v>
       </c>
       <c r="B1152" t="s">
-        <v>1701</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1153" s="3" t="s">
-        <v>1702</v>
+      <c r="A1153" s="7" t="s">
+        <v>2389</v>
       </c>
       <c r="B1153" t="s">
-        <v>1703</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1154" s="3" t="s">
-        <v>1704</v>
+      <c r="A1154" s="7" t="s">
+        <v>2388</v>
       </c>
       <c r="B1154" t="s">
-        <v>1705</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1155" s="3" t="s">
-        <v>1706</v>
+      <c r="A1155" s="7" t="s">
+        <v>2387</v>
       </c>
       <c r="B1155" t="s">
-        <v>1707</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1156" s="3" t="s">
-        <v>1708</v>
+      <c r="A1156" s="7" t="s">
+        <v>2398</v>
       </c>
       <c r="B1156" t="s">
-        <v>1709</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1157" s="3" t="s">
-        <v>1710</v>
+      <c r="A1157" s="7" t="s">
+        <v>2397</v>
       </c>
       <c r="B1157" t="s">
-        <v>1711</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1158" s="3" t="s">
-        <v>1712</v>
+      <c r="A1158" s="7" t="s">
+        <v>2396</v>
       </c>
       <c r="B1158" t="s">
-        <v>1713</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1159" s="3" t="s">
-        <v>1714</v>
+      <c r="A1159" s="7" t="s">
+        <v>2395</v>
       </c>
       <c r="B1159" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1160" s="3" t="s">
-        <v>1715</v>
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1160" s="7" t="s">
+        <v>2394</v>
       </c>
       <c r="B1160" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1161" s="3" t="s">
-        <v>1717</v>
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1161" s="7" t="s">
+        <v>2393</v>
       </c>
       <c r="B1161" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1162" s="3" t="s">
-        <v>1719</v>
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1162" s="7" t="s">
+        <v>2404</v>
       </c>
       <c r="B1162" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1163" s="3" t="s">
-        <v>1721</v>
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1163" s="7" t="s">
+        <v>2403</v>
       </c>
       <c r="B1163" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1164" s="3" t="s">
-        <v>1723</v>
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1164" s="7" t="s">
+        <v>2402</v>
       </c>
       <c r="B1164" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1165" s="3" t="s">
-        <v>1725</v>
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1165" s="7" t="s">
+        <v>2401</v>
       </c>
       <c r="B1165" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1166" s="3" t="s">
-        <v>1727</v>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1166" s="7" t="s">
+        <v>2400</v>
       </c>
       <c r="B1166" t="s">
-        <v>1728</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1167" s="3" t="s">
-        <v>1729</v>
+      <c r="A1167" s="7" t="s">
+        <v>2399</v>
       </c>
       <c r="B1167" t="s">
-        <v>1730</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1168" s="3" t="s">
-        <v>1731</v>
+        <v>2447</v>
       </c>
       <c r="B1168" t="s">
-        <v>1731</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1169" s="3" t="s">
-        <v>1732</v>
+        <v>1639</v>
       </c>
       <c r="B1169" t="s">
-        <v>12</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1170" s="3" t="s">
-        <v>1733</v>
+        <v>1641</v>
       </c>
       <c r="B1170" t="s">
-        <v>12</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1171" s="3" t="s">
-        <v>1734</v>
+        <v>1643</v>
       </c>
       <c r="B1171" t="s">
-        <v>12</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1172" s="3" t="s">
-        <v>1735</v>
+        <v>1645</v>
       </c>
       <c r="B1172" t="s">
-        <v>1736</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1173" s="3" t="s">
-        <v>1737</v>
+        <v>1647</v>
       </c>
       <c r="B1173" t="s">
-        <v>1738</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1174" s="3" t="s">
-        <v>1739</v>
+        <v>2448</v>
       </c>
       <c r="B1174" t="s">
-        <v>1740</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1175" s="3" t="s">
-        <v>1741</v>
+        <v>2450</v>
       </c>
       <c r="B1175" t="s">
-        <v>1742</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1176" s="3" t="s">
-        <v>1743</v>
+        <v>2451</v>
       </c>
       <c r="B1176" t="s">
-        <v>1744</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1177" s="3" t="s">
-        <v>1745</v>
+        <v>2452</v>
       </c>
       <c r="B1177" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1178" s="3" t="s">
-        <v>1746</v>
+        <v>2453</v>
       </c>
       <c r="B1178" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1179" s="3" t="s">
-        <v>1748</v>
+        <v>2454</v>
       </c>
       <c r="B1179" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1180" s="3" t="s">
-        <v>1750</v>
+        <v>2455</v>
       </c>
       <c r="B1180" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1181" s="3" t="s">
-        <v>1752</v>
+        <v>2456</v>
       </c>
       <c r="B1181" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1182" s="3" t="s">
-        <v>1754</v>
+        <v>2457</v>
       </c>
       <c r="B1182" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1183" s="3" t="s">
-        <v>1756</v>
+        <v>2458</v>
       </c>
       <c r="B1183" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1184" s="3" t="s">
-        <v>1758</v>
+        <v>2459</v>
       </c>
       <c r="B1184" t="s">
-        <v>1759</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1185" s="3" t="s">
-        <v>1760</v>
+      <c r="A1185" s="7" t="s">
+        <v>2460</v>
       </c>
       <c r="B1185" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1186" s="7" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1187" s="7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1188" s="7" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1189" s="7" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1190" s="7" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1191" s="7" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1192" s="7" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1193" s="7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1194" s="7" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1195" s="7" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1196" s="7" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1197" s="7" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1198" s="7" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1199" s="7" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1200" s="7" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1201" s="7" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1202" s="7" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1203" s="7" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1204" s="7" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1205" s="7" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1206" s="7" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1207" s="7" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1208" s="7" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1209" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1210" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B1210" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1186" s="3" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1187" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1188" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1189" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1190" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B1190" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1191" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1192" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1193" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1194" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1195" s="3" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B1195" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1196" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1197" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1198" s="3" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1199" s="3" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1200" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1201" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1202" s="3" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B1202" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1203" s="3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B1203" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1204" s="3" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B1204" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1205" s="3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1206" s="3" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B1206" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1207" s="3" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1208" s="3" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1209" s="3" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1210" s="3" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B1210" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="1211" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1211" s="3" t="s">
-        <v>1808</v>
+        <v>1648</v>
       </c>
       <c r="B1211" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1212" s="1" t="s">
-        <v>1810</v>
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1212" s="3" t="s">
+        <v>1649</v>
       </c>
       <c r="B1212" t="s">
-        <v>1811</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1213" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1213" s="3" t="s">
-        <v>1812</v>
+        <v>1650</v>
       </c>
       <c r="B1213" t="s">
-        <v>373</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1214" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1214" s="3" t="s">
-        <v>1813</v>
+        <v>2526</v>
       </c>
       <c r="B1214" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1215" s="3" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B1215" s="12" t="s">
-        <v>1815</v>
+        <v>1651</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1216" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1217" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1218" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1219" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1220" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1221" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1222" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1223" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1224" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1225" s="3" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1226" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1227" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1228" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1229" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1230" s="3" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1231" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1232" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1233" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1234" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1235" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1236" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1237" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1238" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1239" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1240" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1241" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1242" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1243" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1244" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1245" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1246" s="7" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1247" s="7" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1248" s="7" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1249" s="7" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1250" s="7" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1251" s="7" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1252" s="7" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1253" s="7" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1254" s="7" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1255" s="7" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1256" s="7" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1257" s="7" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1258" s="7" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1259" s="7" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1260" s="7" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1261" s="7" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1262" s="7" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1263" s="7" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1264" s="7" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1265" s="7" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1266" s="7" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1267" s="7" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1268" s="7" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1269" s="7" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1270" s="7" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1271" s="7" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1272" s="7" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1273" s="7" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1274" s="7" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1275" s="7" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1276" s="7" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1277" s="7" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1278" s="7" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1279" s="7" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1280" s="7" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1281" s="7" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1282" s="7" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1283" s="7" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1284" s="7" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1285" s="7" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1286" s="7" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1287" s="7" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1288" s="7" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1289" s="7" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1290" s="7" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1291" s="7" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1292" s="7" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1293" s="7" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1294" s="7" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1295" s="7" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1296" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1297" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1298" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1299" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1300" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1301" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1302" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1303" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1304" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1305" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1306" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1307" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1308" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1309" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1310" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1311" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1312" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1313" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1314" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1315" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1316" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1317" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1318" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1319" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1320" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1321" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1322" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1323" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1324" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1325" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1326" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1327" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1328" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1329" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1330" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1331" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1332" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1333" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1334" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1335" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1336" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1337" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1338" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1339" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1340" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1341" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1342" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1343" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A1344" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1344" s="12" t="s">
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
@@ -18573,6 +20356,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -18743,7 +20532,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18752,13 +20541,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33"/>
+    <ds:schemaRef ds:uri="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18777,27 +20577,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33"/>
-    <ds:schemaRef ds:uri="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F63545-CC9E-F445-9814-324AA150936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A043CC9-EFA9-7B48-BAF1-D5FC8EEA1999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58820" yWindow="180" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8595,10 +8595,10 @@
     <t>ScreenerFourProbandLast</t>
   </si>
   <si>
-    <t>SurveyrFourProbandFirst</t>
-  </si>
-  <si>
-    <t>SurveyFourProbandLast</t>
+    <t>SurveyrFourProFirst</t>
+  </si>
+  <si>
+    <t>SurveyFourProLast</t>
   </si>
 </sst>
 </file>
@@ -10017,7 +10017,7 @@
   <dimension ref="A1:B1416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21510,18 +21510,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21544,14 +21544,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -21568,6 +21560,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{14b77578-9773-42d5-8507-251ca2dc2b06}" enabled="0" method="" siteId="{14b77578-9773-42d5-8507-251ca2dc2b06}" removed="1"/>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A043CC9-EFA9-7B48-BAF1-D5FC8EEA1999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4EDA7-F2E7-2443-85A0-FCD104C1AE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58820" yWindow="180" windowWidth="40760" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25700" yWindow="500" windowWidth="25500" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario4" sheetId="1" r:id="rId1"/>
-    <sheet name="RASSurveyScenario4" sheetId="2" r:id="rId2"/>
+    <sheet name="IIQScenario4" sheetId="3" r:id="rId2"/>
+    <sheet name="RASSurveyScenario4" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="2805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="3161">
   <si>
     <t>Question</t>
   </si>
@@ -8600,6 +8601,1087 @@
   <si>
     <t>SurveyFourProLast</t>
   </si>
+  <si>
+    <t>You are almost done! 
+  To submit your responses, you must continue in the questionnaire by clicking the forward arrow below. 
+  The information you have provided will be reviewed by our study team. In the meantime, you should receive an email confirming this submission. 
+  Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort. We could not do vital studies like this without the help of dedicated patients and families.</t>
+  </si>
+  <si>
+    <t>16 years</t>
+  </si>
+  <si>
+    <t>At what age were you at your highest weight? Please specify if in months or years.</t>
+  </si>
+  <si>
+    <t>kilograms</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>pounds</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your weight at the specified timepoints. Please do not include weights during pregnancy, if applicable. Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your current height. Current height unit of measure (Estimate is OK)</t>
+  </si>
+  <si>
+    <t>Please complete the table below indicating your current height. Current height Numerical value (Estimate is OK)</t>
+  </si>
+  <si>
+    <t>Have you ever had medical genetic testing (excluding ancestry testing)?</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any cancer and/or benign tumor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section will ask about cancer and benign tumor history.
+Please fill out this information to the best of your knowledge. </t>
+  </si>
+  <si>
+    <t>centimeters</t>
+  </si>
+  <si>
+    <t>Please fill out your length and head circumference at birth in the table below. Head circumference unit of measure (Estimate is OK)</t>
+  </si>
+  <si>
+    <t>Please fill out your length and head circumference at birth in the table below. Unit of measure (Estimate is OK)</t>
+  </si>
+  <si>
+    <t>Please fill out your length and head circumference at birth in the table below. Head circumference numerical value (Estimate is OK)</t>
+  </si>
+  <si>
+    <t>Please fill out your length and head circumference at birth in the table below. Length Numerical value (Estimate is OK)</t>
+  </si>
+  <si>
+    <t>Please fill out your birth weight in the table below. Unit of measure</t>
+  </si>
+  <si>
+    <t>Please fill out your birth weight in the table below. WeightNumerical value (Estimate is OK)</t>
+  </si>
+  <si>
+    <t>full term (37-42 weeks)</t>
+  </si>
+  <si>
+    <t>Would you say you were born</t>
+  </si>
+  <si>
+    <t>Are your biological parents blood-related to each other (for example are they cousins, uncle-niece etc.)?</t>
+  </si>
+  <si>
+    <t>Were you a twin or multiple birth?</t>
+  </si>
+  <si>
+    <t>Were you conceived using in vitro fertilization (IVF)?</t>
+  </si>
+  <si>
+    <t>This section asks you to tell us a detailed medical history. Some of this information may be difficult for you to recall completely. If you cannot remember something exactly, please give your best estimate. Feel free to consult other family members, doctors, medical records, or any other sources that may assist you.</t>
+  </si>
+  <si>
+    <t>What is the highest level of schooling you have completed?</t>
+  </si>
+  <si>
+    <t>What is the total combined yearly income for all the persons in your household? Include income from all sources such as wages, salaries, Social Security or retirement benefits, investments, help from relatives and so forth. Would you say your total combined income for your household in the last 12 months is...</t>
+  </si>
+  <si>
+    <t>Do you currently have health insurance?</t>
+  </si>
+  <si>
+    <t>What has been your usual job or main occupation during your lifetime?</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>What is your current marital status?</t>
+  </si>
+  <si>
+    <t>What is your family's religious background? Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Indian (Subcontinent)</t>
+  </si>
+  <si>
+    <t>What is your biological father's ancestral background? Please select all that apply.</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>Most people have ancestors who come from other parts of the world. What is your biological mother's ancestral background? Please check all that apply.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Where were you born? If you do not know, place an X in the box next to don't know Country Don't know</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Where were you born? If you do not know, place an X in the box next to don't know Country</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Where were you born? If you do not know, place an X in the box next to don't know State</t>
+  </si>
+  <si>
+    <t>Bethesda</t>
+  </si>
+  <si>
+    <t>Where were you born? If you do not know, place an X in the box next to don't know City</t>
+  </si>
+  <si>
+    <t>What is your date of birth? Year</t>
+  </si>
+  <si>
+    <t>What is your date of birth? Day</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>What is your date of birth? Month</t>
+  </si>
+  <si>
+    <t>Were you raised primarily by someone other than your biological (blood) parent?</t>
+  </si>
+  <si>
+    <t>Are you of Ashkenazi (Eastern European) Jewish descent?</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Do you consider yourself to be:</t>
+  </si>
+  <si>
+    <t>For which sex do you identify?</t>
+  </si>
+  <si>
+    <t>What was your biological sex assigned at birth?</t>
+  </si>
+  <si>
+    <t>This first section of the questionnaire asks you to tell us some general background information.</t>
+  </si>
+  <si>
+    <t>This first section of the questionnaire
+asks you to tell us some general 
+background information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some of this information may be difficult for you to recall completely. If you cannot remember something exactly, please give your best estimate. Feel free to consult other family members, doctors, medical records, or any other sources that may assist you.
+This is a research study, and we don't currently know or understand all the risk factors involved with cancer. Therefore, some of the questions asked are for us to learn more about some of the risk factors that may potentially be related to cancer. By answering these questions, you are helping us to learn if there is a relationship between any of these risk factors and cancer.
+This questionnaire should take you approximately 15-20 minutes. </t>
+  </si>
+  <si>
+    <t>Some of this information may be difficult for you to recall completely. If you cannot remember something exactly, please give your best estimate. Feel free to consult other family members, doctors, medical records, or any other sources that may assist you.
+This is a research study, and we don't currently know or understand all the risk factors involved with cancer. Therefore, some of the questions asked are for us to learn more about some of the risk factors that may potentially be related to cancer. By answering these questions, you are helping us to learn if there is a relationship between any of these risk factors and cancer.
+This questionnaire should take you approximately 15-20 minutes.</t>
+  </si>
+  <si>
+    <t>THIS IS THE COPY FOR LOWER ENVIRONMENTS ONLY!!!
+Completion of this questionnaire is entirely voluntary. 
+All of the information you provide will be kept confidential and will be used only for research purposes, according to applicable state and federal laws.
+Personal identifying information will not be disclosed or released to anyone other than the study team, unless you make a specific request in writing that we do so.</t>
+  </si>
+  <si>
+    <t>RASTest2022$$</t>
+  </si>
+  <si>
+    <t>Please log in. One Time Pin</t>
+  </si>
+  <si>
+    <t>charmsras1@yahoo.com</t>
+  </si>
+  <si>
+    <t>Please log in. Email</t>
+  </si>
+  <si>
+    <t>Please confirm the name of the person for whom you are completing this form.</t>
+  </si>
+  <si>
+    <t>TestFirst TestLast</t>
+  </si>
+  <si>
+    <t>Since was not primarily raised by their biological parent, who raised them? Column 1</t>
+  </si>
+  <si>
+    <t>Since was not primarily raised by their biological parent, who raised them? Column 2</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>Describe job or main occupation</t>
+  </si>
+  <si>
+    <t>What has been your usual job or main occupation during your lifetime? Other</t>
+  </si>
+  <si>
+    <t>TestIIQ 1</t>
+  </si>
+  <si>
+    <t>TestIIQ 3</t>
+  </si>
+  <si>
+    <t>More than $80,000</t>
+  </si>
+  <si>
+    <t>Completed college</t>
+  </si>
+  <si>
+    <t>Yes, donor sperm and egg</t>
+  </si>
+  <si>
+    <t>Was proband conceived through a donor egg or sperm?</t>
+  </si>
+  <si>
+    <t>Was Preimplantation Genetic Testing (PGT) used?</t>
+  </si>
+  <si>
+    <t>What type of birth was proband?</t>
+  </si>
+  <si>
+    <t>Septuplet</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 1 Option 7</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 2 Option 7</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 3 Option 7</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>In the table below, please give the names Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>TestIIQ 2</t>
+  </si>
+  <si>
+    <t>TestIIQ 4</t>
+  </si>
+  <si>
+    <t>TestIIQ 5</t>
+  </si>
+  <si>
+    <t>TestIIQ 6</t>
+  </si>
+  <si>
+    <t>TestIIQ 7</t>
+  </si>
+  <si>
+    <t>TestIIQ 8</t>
+  </si>
+  <si>
+    <t>TestIIQ 9</t>
+  </si>
+  <si>
+    <t>TestIIQ10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Identical twin</t>
+  </si>
+  <si>
+    <t>Fraternal twin</t>
+  </si>
+  <si>
+    <t>Multiple birth (not twin)</t>
+  </si>
+  <si>
+    <t>How are the biological parents blood-related to each other?</t>
+  </si>
+  <si>
+    <t>How are the biological parents blood-related to each other? Other</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>TestIIQ11</t>
+  </si>
+  <si>
+    <t>Please select or report any primary tumors that have been diagnosed. Other 12</t>
+  </si>
+  <si>
+    <t>Please select or report any primary tumors that have been diagnosed. Other 13</t>
+  </si>
+  <si>
+    <t>Please select or report any primary tumors that have been diagnosed. Other 14</t>
+  </si>
+  <si>
+    <t>Please select or report any primary tumors that have been diagnosed. Other 15</t>
+  </si>
+  <si>
+    <t>Please select or report any primary tumors that have been diagnosed. Other 16</t>
+  </si>
+  <si>
+    <t>TestIIQ12</t>
+  </si>
+  <si>
+    <t>TestIIQ13</t>
+  </si>
+  <si>
+    <t>TestIIQ14</t>
+  </si>
+  <si>
+    <t>TestIIQ15</t>
+  </si>
+  <si>
+    <t>TestIIQ16</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 5</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 6</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 7</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 8</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 9</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 10</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 11</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 12</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 13</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 14</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 15</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 1 Option 16</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 16</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 15</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 14</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 13</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 12</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 11</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 10</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 9</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 8</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 7</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 6</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 5</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 16</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 15</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 14</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 13</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 12</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 11</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 10</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 9</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 8</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 7</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 6</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 5</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 16</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 15</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 14</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 13</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 12</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 11</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 10</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 9</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 8</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 7</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 6</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 5</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 16</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 15</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 14</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 13</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 12</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 11</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 10</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 9</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 8</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 7</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 6</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 5</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>For each primary cancer or tumor, please indicate the date or age at diagnosis Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>TestIIQ17</t>
+  </si>
+  <si>
+    <t>TestIIQ118</t>
+  </si>
+  <si>
+    <t>TestIIQ19</t>
+  </si>
+  <si>
+    <t>TestIIQ20</t>
+  </si>
+  <si>
+    <t>TestIIQ21</t>
+  </si>
+  <si>
+    <t>TestIIQ22</t>
+  </si>
+  <si>
+    <t>TestIIQ23</t>
+  </si>
+  <si>
+    <t>TestIIQ24</t>
+  </si>
+  <si>
+    <t>TestIIQ25</t>
+  </si>
+  <si>
+    <t>TestIIQ26</t>
+  </si>
+  <si>
+    <t>TestIIQ27</t>
+  </si>
+  <si>
+    <t>TestIIQ18</t>
+  </si>
+  <si>
+    <t>TestIIQ28</t>
+  </si>
+  <si>
+    <t>TestIIQ29</t>
+  </si>
+  <si>
+    <t>TestIIQ30</t>
+  </si>
+  <si>
+    <t>TestIIQ31</t>
+  </si>
+  <si>
+    <t>TestIIQ32</t>
+  </si>
+  <si>
+    <t>TestIIQ33</t>
+  </si>
+  <si>
+    <t>TestIIQ34</t>
+  </si>
+  <si>
+    <t>TestIIQ35</t>
+  </si>
+  <si>
+    <t>TestIIQ36</t>
+  </si>
+  <si>
+    <t>TestIIQ37</t>
+  </si>
+  <si>
+    <t>TestIIQ38</t>
+  </si>
+  <si>
+    <t>TestIIQ39</t>
+  </si>
+  <si>
+    <t>TestIIQ40</t>
+  </si>
+  <si>
+    <t>TestIIQ41</t>
+  </si>
+  <si>
+    <t>TestIIQ42</t>
+  </si>
+  <si>
+    <t>TestIIQ43</t>
+  </si>
+  <si>
+    <t>TestIIQ44</t>
+  </si>
+  <si>
+    <t>TestIIQ45</t>
+  </si>
+  <si>
+    <t>TestIIQ46</t>
+  </si>
+  <si>
+    <t>TestIIQ47</t>
+  </si>
+  <si>
+    <t>TestIIQ48</t>
+  </si>
+  <si>
+    <t>TestIIQ49</t>
+  </si>
+  <si>
+    <t>TestIIQ50</t>
+  </si>
+  <si>
+    <t>TestIIQ51</t>
+  </si>
+  <si>
+    <t>TestIIQ52</t>
+  </si>
+  <si>
+    <t>TestIIQ53</t>
+  </si>
+  <si>
+    <t>TestIIQ54</t>
+  </si>
+  <si>
+    <t>TestIIQ55</t>
+  </si>
+  <si>
+    <t>TestIIQ56</t>
+  </si>
+  <si>
+    <t>TestIIQ57</t>
+  </si>
+  <si>
+    <t>TestIIQ58</t>
+  </si>
+  <si>
+    <t>TestIIQ59</t>
+  </si>
+  <si>
+    <t>TestIIQ60</t>
+  </si>
+  <si>
+    <t>TestIIQ61</t>
+  </si>
+  <si>
+    <t>TestIIQ62</t>
+  </si>
+  <si>
+    <t>TestIIQ63</t>
+  </si>
+  <si>
+    <t>TestIIQ64</t>
+  </si>
+  <si>
+    <t>TestIIQ65</t>
+  </si>
+  <si>
+    <t>TestIIQ66</t>
+  </si>
+  <si>
+    <t>TestIIQ67</t>
+  </si>
+  <si>
+    <t>TestIIQ68</t>
+  </si>
+  <si>
+    <t>TestIIQ69</t>
+  </si>
+  <si>
+    <t>TestIIQ70</t>
+  </si>
+  <si>
+    <t>TestIIQ71</t>
+  </si>
+  <si>
+    <t>TestIIQ72</t>
+  </si>
+  <si>
+    <t>TestIIQ73</t>
+  </si>
+  <si>
+    <t>TestIIQ74</t>
+  </si>
+  <si>
+    <t>TestIIQ75</t>
+  </si>
+  <si>
+    <t>TestIIQ76</t>
+  </si>
+  <si>
+    <t>TestIIQ77</t>
+  </si>
+  <si>
+    <t>TestIIQ78</t>
+  </si>
+  <si>
+    <t>TestIIQ79</t>
+  </si>
+  <si>
+    <t>TestIIQ80</t>
+  </si>
+  <si>
+    <t>TestIIQ81</t>
+  </si>
+  <si>
+    <t>TestIIQ82</t>
+  </si>
+  <si>
+    <t>TestIIQ83</t>
+  </si>
+  <si>
+    <t>TestIIQ84</t>
+  </si>
+  <si>
+    <t>TestIIQ85</t>
+  </si>
+  <si>
+    <t>TestIIQ86</t>
+  </si>
+  <si>
+    <t>TestIIQ87</t>
+  </si>
+  <si>
+    <t>TestIIQ88</t>
+  </si>
+  <si>
+    <t>TestIIQ89</t>
+  </si>
+  <si>
+    <t>TestIIQ90</t>
+  </si>
+  <si>
+    <t>TestIIQ91</t>
+  </si>
+  <si>
+    <t>TestIIQ92</t>
+  </si>
+  <si>
+    <t>TestIIQ93</t>
+  </si>
+  <si>
+    <t>TestIIQ94</t>
+  </si>
+  <si>
+    <t>TestIIQ95</t>
+  </si>
+  <si>
+    <t>TestIIQ96</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the details for the genetic testing Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>TestIIQ100</t>
+  </si>
+  <si>
+    <t>TestIIQ101</t>
+  </si>
+  <si>
+    <t>TestIIQ102</t>
+  </si>
+  <si>
+    <t>TestIIQ103</t>
+  </si>
+  <si>
+    <t>TestIIQ104</t>
+  </si>
+  <si>
+    <t>TestIIQ105</t>
+  </si>
+  <si>
+    <t>TestIIQ109</t>
+  </si>
+  <si>
+    <t>TestIIQ110</t>
+  </si>
+  <si>
+    <t>TestIIQ111</t>
+  </si>
+  <si>
+    <t>TestIIQ115</t>
+  </si>
+  <si>
+    <t>TestIIQ116</t>
+  </si>
+  <si>
+    <t>TestIIQ117</t>
+  </si>
+  <si>
+    <t>TestIIQ119</t>
+  </si>
+  <si>
+    <t>Age at first menstrual period Option 1 Other</t>
+  </si>
+  <si>
+    <t>TestIIQ120</t>
+  </si>
+  <si>
+    <t>Most recent menstrual period Option 1 Other</t>
+  </si>
+  <si>
+    <t>If a period has not occurred for the last 12 months or more, what is the reason?</t>
+  </si>
+  <si>
+    <t>Has proband ever been pregnant?</t>
+  </si>
+  <si>
+    <t>What was proband age at their first pregnancy?</t>
+  </si>
+  <si>
+    <t>How many times has proband been pregnant?</t>
+  </si>
+  <si>
+    <t>Has proband ever tried to become pregnant for more than one year without success?</t>
+  </si>
+  <si>
+    <t>Has proband ever consulted a doctor because of difficulty in getting pregnant?</t>
+  </si>
+  <si>
+    <t>How old was proband when they first consulted a doctor about difficulty in getting pregnant?</t>
+  </si>
+  <si>
+    <t>What diagnosis was made to explain the difficulties getting pregnant? Option 10</t>
+  </si>
+  <si>
+    <t>Has proband ever taken pills, injections?</t>
+  </si>
+  <si>
+    <t>Sometimes women are given female hormones</t>
+  </si>
+  <si>
+    <t>At what age was proband prescribed female hormones for hormone replacement therapy?</t>
+  </si>
+  <si>
+    <t>What is the total amount of time proband has taken hormone replacement therapy? Other 1</t>
+  </si>
+  <si>
+    <t>Whole genome sequencing</t>
+  </si>
+  <si>
+    <t>Whole exome sequencing</t>
+  </si>
+  <si>
+    <t>Li-Fraumeni Syndrome (TP53 gene)</t>
+  </si>
+  <si>
+    <t>No genetic change found/negative test</t>
+  </si>
+  <si>
+    <t>Do not know test result</t>
+  </si>
+  <si>
+    <t>The next few questions ask about being prescribed female hormones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next few questions ask about being prescribed female hormones.  These hormones are used for a variety of reasons including birth control, to regulate menstrual cycles and as hormone replacement at menopause.  </t>
+  </si>
 </sst>
 </file>
 
@@ -8608,9 +9690,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8662,6 +9758,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8680,49 +9791,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{41584480-8349-8248-A18E-DE40B12933C7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2C3F59C6-A2A0-F34D-97BB-C0D112915983}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -9036,8 +10180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10013,11 +11157,1691 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29EA82F-9526-D445-8C25-1077A9B6F025}">
+  <dimension ref="A1:B207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="112.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="90.83203125" style="15" customWidth="1"/>
+    <col min="3" max="7" width="90.83203125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B19" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="19">
+        <v>38301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B66" s="15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B68" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B69" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="18" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="18" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="18" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="18" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="18" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="18" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="18" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B161" s="24" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="18" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="18" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="18" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="18" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="7" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="18" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B179" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="18" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A181" s="18" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A182" s="18" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A183" s="18" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A184" s="18" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A185" s="18" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A186" s="18" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A187" s="18" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A188" s="18" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A189" s="18" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A190" s="18" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="18" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="18" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B192" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="18" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="18" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="18" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="18" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B196" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="18" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B197" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198" s="18" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="18" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="18" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B200" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="18" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="18" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="18" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="18" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B205" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="18" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B206" s="15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A207" s="17" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{937450D1-B9F6-9741-99D7-8CC4EE5CC5B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF90E83-6BB8-1941-861C-D1AD2F062745}">
   <dimension ref="A1:B1416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21339,6 +24163,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -21509,36 +24348,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
-    <ds:schemaRef ds:uri="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21561,9 +24374,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
+    <ds:schemaRef ds:uri="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4EDA7-F2E7-2443-85A0-FCD104C1AE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E63900-3B49-2946-8461-B762154259AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25700" yWindow="500" windowWidth="25500" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25700" yWindow="500" windowWidth="25500" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario4" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="3161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="3159">
   <si>
     <t>Question</t>
   </si>
@@ -8590,18 +8590,6 @@
     <t>ScreenerFourLast</t>
   </si>
   <si>
-    <t>ScreenerFourProbandFirst</t>
-  </si>
-  <si>
-    <t>ScreenerFourProbandLast</t>
-  </si>
-  <si>
-    <t>SurveyrFourProFirst</t>
-  </si>
-  <si>
-    <t>SurveyFourProLast</t>
-  </si>
-  <si>
     <t>You are almost done! 
   To submit your responses, you must continue in the questionnaire by clicking the forward arrow below. 
   The information you have provided will be reviewed by our study team. In the meantime, you should receive an email confirming this submission. 
@@ -8822,24 +8810,9 @@
 Personal identifying information will not be disclosed or released to anyone other than the study team, unless you make a specific request in writing that we do so.</t>
   </si>
   <si>
-    <t>RASTest2022$$</t>
-  </si>
-  <si>
-    <t>Please log in. One Time Pin</t>
-  </si>
-  <si>
-    <t>charmsras1@yahoo.com</t>
-  </si>
-  <si>
-    <t>Please log in. Email</t>
-  </si>
-  <si>
     <t>Please confirm the name of the person for whom you are completing this form.</t>
   </si>
   <si>
-    <t>TestFirst TestLast</t>
-  </si>
-  <si>
     <t>Since was not primarily raised by their biological parent, who raised them? Column 1</t>
   </si>
   <si>
@@ -9681,6 +9654,27 @@
   </si>
   <si>
     <t xml:space="preserve">The next few questions ask about being prescribed female hormones.  These hormones are used for a variety of reasons including birth control, to regulate menstrual cycles and as hormone replacement at menopause.  </t>
+  </si>
+  <si>
+    <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.</t>
+  </si>
+  <si>
+    <t>To determine eligibility for this study, we need to collect information about medical diagnoses.</t>
+  </si>
+  <si>
+    <t>TestFirst TestLastFour</t>
+  </si>
+  <si>
+    <t>SurveyrFourFirst</t>
+  </si>
+  <si>
+    <t>SurveyFourLast</t>
+  </si>
+  <si>
+    <t>ScreenerFourPFirst</t>
+  </si>
+  <si>
+    <t>ScreenerFourPLast</t>
   </si>
 </sst>
 </file>
@@ -9690,9 +9684,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -9793,69 +9794,69 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -10180,8 +10181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10211,7 +10212,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2801</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -10227,7 +10228,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2802</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -10491,9 +10492,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>3153</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>42</v>
@@ -10805,7 +10806,7 @@
     </row>
     <row r="78" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>195</v>
+        <v>3152</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>195</v>
@@ -11158,10 +11159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29EA82F-9526-D445-8C25-1077A9B6F025}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11176,285 +11177,285 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2869</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+        <v>2868</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+        <v>2866</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>2870</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>2869</v>
+      <c r="B6" s="24" t="s">
+        <v>3154</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>202</v>
+        <v>2864</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>2878</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>2863</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>2868</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>2862</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>2867</v>
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>2866</v>
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>2859</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>2864</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>2863</v>
+        <v>2858</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>10</v>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>2871</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>2862</v>
+        <v>2872</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>2880</v>
+        <v>2857</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>2885</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>2915</v>
+        <v>2855</v>
+      </c>
+      <c r="B17" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>2861</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>2860</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>2859</v>
-      </c>
-      <c r="B19" s="15">
-        <v>10</v>
+        <v>2854</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19">
+        <v>38301</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>2858</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="19">
-        <v>38301</v>
+        <v>2853</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>2850</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>2856</v>
+        <v>2849</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>2848</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>2855</v>
+        <v>2847</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>2853</v>
+        <v>2845</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>2852</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>2851</v>
+        <v>2843</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>2849</v>
+        <v>2841</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>2848</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>2847</v>
+        <v>2840</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>2846</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>2845</v>
+        <v>2838</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>2882</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>2844</v>
+        <v>2875</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>2843</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>2883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>2884</v>
+        <v>2836</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>2886</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>2841</v>
+        <v>2835</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>11</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>2840</v>
+        <v>2834</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>2887</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>2839</v>
+        <v>2833</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>2838</v>
+        <v>2881</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>2838</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>2837</v>
+        <v>2882</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>11</v>
@@ -11462,1376 +11463,1357 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>2890</v>
+        <v>2832</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>2889</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>2891</v>
+        <v>2883</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>11</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>2836</v>
+        <v>2885</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>11</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>2893</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>2894</v>
+        <v>2887</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>2916</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>2895</v>
+        <v>2888</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>2917</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>2896</v>
+        <v>2889</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>2918</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>2897</v>
+        <v>2890</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>2919</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>2898</v>
+        <v>2891</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>2920</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>2899</v>
+        <v>2892</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>2921</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>2900</v>
+        <v>2893</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>2922</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>2901</v>
+        <v>2894</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>2923</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>2902</v>
+        <v>2895</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>2924</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>2903</v>
+        <v>2896</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>2925</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>2904</v>
+        <v>2897</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>2926</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>2905</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>2906</v>
-      </c>
       <c r="B53" s="15" t="s">
-        <v>2928</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>2907</v>
+      <c r="A54" s="7" t="s">
+        <v>2904</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>2914</v>
+        <v>2903</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>2930</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>2913</v>
+        <v>2902</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>2930</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>2912</v>
+        <v>2901</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>2930</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>2911</v>
+        <v>2900</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>2931</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>2910</v>
+        <v>2899</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>2931</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>2909</v>
+      <c r="A60" s="17" t="s">
+        <v>2831</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>2932</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>2908</v>
+      <c r="A61" s="17" t="s">
+        <v>2924</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>2932</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>2835</v>
+        <v>2925</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>11</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>2933</v>
+        <v>2830</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>2935</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>2934</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>2936</v>
+        <v>2828</v>
+      </c>
+      <c r="B64" s="15">
+        <v>4.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>2834</v>
+        <v>2827</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>2833</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
-        <v>2832</v>
+      <c r="A66" s="18" t="s">
+        <v>2826</v>
       </c>
       <c r="B66" s="15">
-        <v>4.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>2811</v>
+      <c r="A67" s="18" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B67" s="15">
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B68" s="15">
-        <v>19</v>
+        <v>2824</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>2816</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B69" s="15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2823</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>2820</v>
+        <v>2821</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>2821</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
-        <v>2827</v>
+        <v>2820</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>2825</v>
+        <v>2928</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>2933</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
-        <v>2824</v>
+        <v>2929</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>11</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
-        <v>2937</v>
+        <v>2930</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>2942</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
-        <v>2938</v>
+        <v>2931</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>2943</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
-        <v>2939</v>
+        <v>2932</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>2944</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>2945</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>2946</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>2947</v>
+        <v>2940</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>3027</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
-        <v>2948</v>
+        <v>2941</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>3038</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>2949</v>
+        <v>2942</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>3029</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
-        <v>2950</v>
+        <v>2943</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>3030</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
-        <v>2951</v>
+        <v>2944</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>3031</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>2952</v>
+        <v>2945</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>3032</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
-        <v>2953</v>
+        <v>2946</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>3033</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
-        <v>2954</v>
+        <v>2947</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>3034</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
-        <v>2955</v>
+        <v>2948</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>3035</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
-        <v>2956</v>
+        <v>2949</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>3036</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
-        <v>2957</v>
+        <v>2950</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>3037</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>2958</v>
+        <v>2951</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>3039</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>2959</v>
+        <v>2952</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>3040</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>2960</v>
+        <v>2953</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>3041</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
-        <v>2961</v>
+        <v>2969</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>2962</v>
+        <v>2968</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>3043</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>2978</v>
+        <v>2967</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>2977</v>
+        <v>2966</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
-        <v>2976</v>
+        <v>2965</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>3046</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
-        <v>2975</v>
+        <v>2964</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>3047</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
-        <v>2974</v>
+        <v>2963</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>3048</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
-        <v>2973</v>
+        <v>2962</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>3049</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
-        <v>2972</v>
+        <v>2961</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>3050</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
-        <v>2971</v>
+        <v>2960</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>3051</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
-        <v>2970</v>
+        <v>2959</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>3052</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
-        <v>2969</v>
+        <v>2958</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>3053</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
-        <v>2968</v>
+        <v>2957</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>3054</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
-        <v>2967</v>
+        <v>2956</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>3055</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
-        <v>2966</v>
+        <v>2955</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>3056</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
-        <v>2965</v>
+        <v>2954</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>3057</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="18" t="s">
-        <v>2964</v>
+      <c r="A109" s="7" t="s">
+        <v>2985</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>3058</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="18" t="s">
-        <v>2963</v>
+      <c r="A110" s="7" t="s">
+        <v>2984</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>3059</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>2994</v>
+        <v>2983</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>3060</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>2993</v>
+        <v>2982</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>3061</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>2992</v>
+        <v>2981</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>3062</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>2991</v>
+        <v>2980</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>3063</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>2990</v>
+        <v>2979</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>3064</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>2989</v>
+        <v>2978</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>3065</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>2988</v>
+        <v>2977</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>3066</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>2987</v>
+        <v>2976</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>3067</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>2986</v>
+        <v>2975</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>3068</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>2985</v>
+        <v>2974</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>3069</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>2984</v>
+        <v>2973</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>2983</v>
+        <v>2972</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>3071</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>2982</v>
+        <v>2971</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>3072</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>2981</v>
+        <v>2970</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>3073</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>2980</v>
+        <v>3001</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>3074</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>2979</v>
+        <v>3000</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>3075</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>3076</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>3009</v>
+        <v>2998</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>3077</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>3008</v>
+        <v>2997</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>3078</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>3007</v>
+        <v>2996</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>3079</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>3006</v>
+        <v>2995</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>3080</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>3005</v>
+        <v>2994</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>3081</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>3004</v>
+        <v>2993</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>3082</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>3003</v>
+        <v>2992</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>3083</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>3002</v>
+        <v>2991</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>3084</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>3001</v>
+        <v>2990</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>3085</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>3000</v>
+        <v>2989</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>3086</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>2999</v>
+        <v>2988</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>3087</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>2998</v>
+        <v>2987</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>3088</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>2997</v>
+        <v>2986</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>3089</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>2996</v>
+        <v>3017</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>3090</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>2995</v>
+        <v>3016</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>3091</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>3026</v>
+        <v>3015</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>3092</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>3025</v>
+        <v>3014</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>3093</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>3024</v>
+        <v>3013</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>3094</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>3023</v>
+        <v>3012</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>3095</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>3022</v>
+        <v>3011</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>3096</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>3021</v>
+        <v>3010</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>3097</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>3020</v>
+        <v>3009</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>3098</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>3019</v>
+        <v>3008</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>3099</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>3018</v>
+        <v>3007</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>3100</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>3017</v>
+        <v>3006</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>3101</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>3016</v>
+        <v>3005</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>3102</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>3015</v>
+        <v>3004</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>3103</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>3014</v>
+        <v>3003</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>3104</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>3013</v>
+        <v>3002</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>3105</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>3012</v>
+      <c r="A157" s="18" t="s">
+        <v>2819</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>3106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
-        <v>3011</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>3107</v>
+      <c r="A158" s="18" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>3145</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>11</v>
+        <v>3100</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>3146</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B160" s="24" t="s">
-        <v>3154</v>
+        <v>3101</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>3147</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B161" s="24" t="s">
-        <v>3155</v>
+        <v>3104</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>3117</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B162" s="24" t="s">
-        <v>3156</v>
+        <v>3103</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>3118</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
-        <v>3113</v>
+        <v>3102</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>3126</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="18" t="s">
-        <v>3112</v>
+      <c r="A164" s="7" t="s">
+        <v>3107</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>3127</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="18" t="s">
-        <v>3111</v>
+      <c r="A165" s="7" t="s">
+        <v>3106</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>3128</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>3116</v>
+        <v>3105</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>3129</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>3130</v>
+        <v>3110</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>2846</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>3131</v>
+        <v>3109</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>2846</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>3119</v>
-      </c>
-      <c r="B169" s="24" t="s">
-        <v>2850</v>
+        <v>3108</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>2846</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>3118</v>
-      </c>
-      <c r="B170" s="24" t="s">
-        <v>2850</v>
+        <v>3113</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>3123</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>3117</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>2850</v>
+        <v>3112</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>3124</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>3122</v>
+        <v>3111</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>3132</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>3121</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>3133</v>
+        <v>3114</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>3148</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>3120</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>3134</v>
+        <v>3115</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>3149</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>3123</v>
-      </c>
-      <c r="B175" s="24" t="s">
-        <v>3157</v>
+        <v>3116</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>3149</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>3158</v>
+        <v>110</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
-        <v>3125</v>
-      </c>
-      <c r="B177" s="24" t="s">
-        <v>3158</v>
+      <c r="A177" s="18" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B177" s="15">
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
-        <v>110</v>
+      <c r="A178" s="18" t="s">
+        <v>2817</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B179" s="15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2815</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="18" t="s">
-        <v>2821</v>
+        <v>2814</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>2820</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="18" t="s">
-        <v>2819</v>
+        <v>2813</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>3135</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="18" t="s">
-        <v>2818</v>
+        <v>2812</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>3136</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
-        <v>2817</v>
+        <v>2811</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>3137</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
-        <v>2816</v>
+        <v>2810</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>3028</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
-        <v>2815</v>
+        <v>2809</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>3138</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
-        <v>2814</v>
+        <v>2808</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
-        <v>2813</v>
+        <v>2806</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>2811</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
-        <v>2812</v>
+        <v>2805</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="18" t="s">
-        <v>2810</v>
+        <v>2803</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="18" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>2808</v>
+        <v>3130</v>
+      </c>
+      <c r="B190" s="15">
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="18" t="s">
-        <v>2807</v>
+        <v>3132</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>2806</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
-        <v>3139</v>
-      </c>
-      <c r="B192" s="15">
-        <v>11</v>
+        <v>3133</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="18" t="s">
-        <v>3141</v>
+        <v>3134</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>3140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="18" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B194" s="15" t="s">
-        <v>724</v>
+        <v>3135</v>
+      </c>
+      <c r="B194" s="15">
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="18" t="s">
-        <v>3143</v>
-      </c>
-      <c r="B195" s="15" t="s">
-        <v>11</v>
+        <v>3136</v>
+      </c>
+      <c r="B195" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B196" s="15">
-        <v>20</v>
+        <v>3137</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
-        <v>3145</v>
-      </c>
-      <c r="B197" s="15">
-        <v>2</v>
+        <v>3138</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B198" s="15" t="s">
-        <v>11</v>
+        <v>3139</v>
+      </c>
+      <c r="B198" s="15">
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
-        <v>3147</v>
+        <v>3140</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>11</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>3148</v>
-      </c>
-      <c r="B200" s="15">
-        <v>25</v>
+        <v>3150</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>3151</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>3149</v>
+        <v>3141</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>3140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B202" s="24" t="s">
-        <v>3160</v>
+        <v>3142</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B203" s="15" t="s">
-        <v>11</v>
+        <v>3143</v>
+      </c>
+      <c r="B203" s="15">
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="18" t="s">
-        <v>3152</v>
-      </c>
-      <c r="B205" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="18" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B206" s="15">
+        <v>3144</v>
+      </c>
+      <c r="B204" s="15">
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A207" s="17" t="s">
-        <v>2805</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>2805</v>
+    <row r="205" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A205" s="17" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>2801</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{937450D1-B9F6-9741-99D7-8CC4EE5CC5B6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12841,7 +12823,7 @@
   <dimension ref="A1:B1416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12895,7 +12877,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2803</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12911,7 +12893,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2804</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
